--- a/plots/results.xlsx
+++ b/plots/results.xlsx
@@ -985,58 +985,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1902</v>
+        <v>1858</v>
       </c>
       <c r="F3" t="n">
-        <v>2136</v>
+        <v>2068</v>
       </c>
       <c r="G3" t="n">
-        <v>2381</v>
+        <v>2284</v>
       </c>
       <c r="H3" t="n">
-        <v>2635</v>
+        <v>2506</v>
       </c>
       <c r="I3" t="n">
-        <v>2922</v>
+        <v>2755</v>
       </c>
       <c r="J3" t="n">
-        <v>3257</v>
+        <v>3049</v>
       </c>
       <c r="K3" t="n">
-        <v>3632</v>
+        <v>3380</v>
       </c>
       <c r="L3" t="n">
-        <v>4044</v>
+        <v>3745</v>
       </c>
       <c r="M3" t="n">
-        <v>4490</v>
+        <v>4141</v>
       </c>
       <c r="N3" t="n">
-        <v>4965</v>
+        <v>4566</v>
       </c>
       <c r="O3" t="n">
-        <v>5465</v>
+        <v>5017</v>
       </c>
       <c r="P3" t="n">
-        <v>5988</v>
+        <v>5492</v>
       </c>
       <c r="Q3" t="n">
-        <v>6528</v>
+        <v>5985</v>
       </c>
       <c r="R3" t="n">
-        <v>7082</v>
+        <v>6495</v>
       </c>
       <c r="S3" t="n">
-        <v>7647</v>
+        <v>7016</v>
       </c>
       <c r="T3" t="n">
-        <v>8218</v>
+        <v>7546</v>
       </c>
       <c r="U3" t="n">
-        <v>8791</v>
+        <v>8081</v>
       </c>
       <c r="V3" t="n">
-        <v>9364</v>
+        <v>8619</v>
       </c>
     </row>
     <row r="4">
@@ -1047,58 +1047,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="H4" t="n">
-        <v>0.071</v>
+        <v>0.068</v>
       </c>
       <c r="I4" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.077</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.082</v>
-      </c>
       <c r="K4" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.089</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.096</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.103</v>
+        <v>0.095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.11</v>
+        <v>0.101</v>
       </c>
       <c r="O4" t="n">
-        <v>0.117</v>
+        <v>0.108</v>
       </c>
       <c r="P4" t="n">
-        <v>0.124</v>
+        <v>0.114</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.131</v>
+        <v>0.12</v>
       </c>
       <c r="R4" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.137</v>
       </c>
-      <c r="S4" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.149</v>
-      </c>
       <c r="U4" t="n">
-        <v>0.154</v>
+        <v>0.142</v>
       </c>
       <c r="V4" t="n">
-        <v>0.159</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="5">
@@ -1174,55 +1174,55 @@
         <v>231</v>
       </c>
       <c r="F6" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G6" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H6" t="n">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I6" t="n">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="K6" t="n">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="L6" t="n">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="M6" t="n">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="N6" t="n">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="O6" t="n">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="P6" t="n">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="Q6" t="n">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="R6" t="n">
         <v>614</v>
       </c>
       <c r="S6" t="n">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="T6" t="n">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="U6" t="n">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="V6" t="n">
-        <v>660</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7">
@@ -1233,58 +1233,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F7" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G7" t="n">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H7" t="n">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I7" t="n">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="J7" t="n">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K7" t="n">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="L7" t="n">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="M7" t="n">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="N7" t="n">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="O7" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P7" t="n">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="Q7" t="n">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="R7" t="n">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="S7" t="n">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="T7" t="n">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="U7" t="n">
-        <v>682</v>
+        <v>726</v>
       </c>
       <c r="V7" t="n">
-        <v>683</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8">
@@ -1298,55 +1298,55 @@
         <v>121</v>
       </c>
       <c r="F8" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G8" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I8" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J8" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K8" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L8" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M8" t="n">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="N8" t="n">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O8" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P8" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q8" t="n">
         <v>263</v>
       </c>
       <c r="R8" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S8" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="T8" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="U8" t="n">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="V8" t="n">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
@@ -1360,55 +1360,55 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G9" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I9" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J9" t="n">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K9" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L9" t="n">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M9" t="n">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="N9" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="O9" t="n">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="P9" t="n">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q9" t="n">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="R9" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S9" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="T9" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="U9" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="V9" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10">
@@ -1419,58 +1419,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.887</v>
+        <v>0.884</v>
       </c>
       <c r="F10" t="n">
-        <v>0.912</v>
+        <v>0.908</v>
       </c>
       <c r="G10" t="n">
-        <v>0.922</v>
+        <v>0.918</v>
       </c>
       <c r="H10" t="n">
-        <v>0.916</v>
+        <v>0.911</v>
       </c>
       <c r="I10" t="n">
-        <v>0.909</v>
+        <v>0.904</v>
       </c>
       <c r="J10" t="n">
-        <v>0.904</v>
+        <v>0.898</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9</v>
+        <v>0.894</v>
       </c>
       <c r="L10" t="n">
-        <v>0.899</v>
+        <v>0.892</v>
       </c>
       <c r="M10" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.898</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.901</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.904</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -1628,67 +1628,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="C3" t="n">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="D3" t="n">
-        <v>1703</v>
+        <v>1675</v>
       </c>
       <c r="E3" t="n">
-        <v>1884</v>
+        <v>1841</v>
       </c>
       <c r="F3" t="n">
-        <v>2072</v>
+        <v>2013</v>
       </c>
       <c r="G3" t="n">
-        <v>2260</v>
+        <v>2180</v>
       </c>
       <c r="H3" t="n">
-        <v>2404</v>
+        <v>2303</v>
       </c>
       <c r="I3" t="n">
-        <v>2506</v>
+        <v>2384</v>
       </c>
       <c r="J3" t="n">
+        <v>2461</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2535</v>
+      </c>
+      <c r="L3" t="n">
         <v>2606</v>
       </c>
-      <c r="K3" t="n">
-        <v>2703</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2799</v>
-      </c>
       <c r="M3" t="n">
-        <v>2897</v>
+        <v>2679</v>
       </c>
       <c r="N3" t="n">
-        <v>2998</v>
+        <v>2754</v>
       </c>
       <c r="O3" t="n">
-        <v>3102</v>
+        <v>2831</v>
       </c>
       <c r="P3" t="n">
-        <v>3209</v>
+        <v>2910</v>
       </c>
       <c r="Q3" t="n">
-        <v>3319</v>
+        <v>2992</v>
       </c>
       <c r="R3" t="n">
-        <v>3430</v>
+        <v>3074</v>
       </c>
       <c r="S3" t="n">
-        <v>3544</v>
+        <v>3158</v>
       </c>
       <c r="T3" t="n">
-        <v>3659</v>
+        <v>3243</v>
       </c>
       <c r="U3" t="n">
-        <v>3775</v>
+        <v>3328</v>
       </c>
       <c r="V3" t="n">
-        <v>3891</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="4">
@@ -1699,64 +1699,64 @@
         <v>0.045</v>
       </c>
       <c r="C4" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="D4" t="n">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="E4" t="n">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
       <c r="F4" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.06</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.067</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.067</v>
+        <v>0.06</v>
       </c>
       <c r="R4" t="n">
-        <v>0.067</v>
+        <v>0.06</v>
       </c>
       <c r="S4" t="n">
-        <v>0.067</v>
+        <v>0.059</v>
       </c>
       <c r="T4" t="n">
-        <v>0.066</v>
+        <v>0.059</v>
       </c>
       <c r="U4" t="n">
-        <v>0.066</v>
+        <v>0.058</v>
       </c>
       <c r="V4" t="n">
-        <v>0.066</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="5">
@@ -1791,40 +1791,40 @@
         <v>0.108</v>
       </c>
       <c r="K5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="L5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="M5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="N5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="O5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="P5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="R5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="S5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="T5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="U5" t="n">
-        <v>0.119</v>
+        <v>0.117</v>
       </c>
       <c r="V5" t="n">
-        <v>0.119</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="6">
@@ -1832,16 +1832,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C6" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D6" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E6" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F6" t="n">
         <v>215</v>
@@ -1853,46 +1853,46 @@
         <v>143</v>
       </c>
       <c r="I6" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" t="n">
+        <v>124</v>
+      </c>
+      <c r="L6" t="n">
         <v>125</v>
       </c>
-      <c r="L6" t="n">
-        <v>126</v>
-      </c>
       <c r="M6" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N6" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O6" t="n">
+        <v>134</v>
+      </c>
+      <c r="P6" t="n">
         <v>137</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>141</v>
       </c>
-      <c r="Q6" t="n">
-        <v>145</v>
-      </c>
       <c r="R6" t="n">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S6" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T6" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="U6" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="V6" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
@@ -1900,67 +1900,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C7" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D7" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E7" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F7" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H7" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I7" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J7" t="n">
         <v>129</v>
       </c>
       <c r="K7" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L7" t="n">
         <v>132</v>
       </c>
       <c r="M7" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N7" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O7" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P7" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q7" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R7" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S7" t="n">
+        <v>156</v>
+      </c>
+      <c r="T7" t="n">
         <v>158</v>
       </c>
-      <c r="T7" t="n">
-        <v>161</v>
-      </c>
       <c r="U7" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V7" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1968,22 +1968,22 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8" t="n">
         <v>112</v>
       </c>
       <c r="G8" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H8" t="n">
         <v>65</v>
@@ -1995,40 +1995,40 @@
         <v>56</v>
       </c>
       <c r="K8" t="n">
+        <v>54</v>
+      </c>
+      <c r="L8" t="n">
         <v>55</v>
-      </c>
-      <c r="L8" t="n">
-        <v>56</v>
       </c>
       <c r="M8" t="n">
         <v>57</v>
       </c>
       <c r="N8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O8" t="n">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
         <v>61</v>
       </c>
-      <c r="P8" t="n">
-        <v>62</v>
-      </c>
       <c r="Q8" t="n">
+        <v>63</v>
+      </c>
+      <c r="R8" t="n">
         <v>64</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>65</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>67</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
+        <v>67</v>
+      </c>
+      <c r="V8" t="n">
         <v>68</v>
-      </c>
-      <c r="U8" t="n">
-        <v>69</v>
-      </c>
-      <c r="V8" t="n">
-        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -2036,10 +2036,10 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
         <v>90</v>
@@ -2051,52 +2051,52 @@
         <v>103</v>
       </c>
       <c r="G9" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" t="n">
+        <v>71</v>
+      </c>
+      <c r="J9" t="n">
         <v>72</v>
       </c>
-      <c r="J9" t="n">
-        <v>73</v>
-      </c>
       <c r="K9" t="n">
+        <v>69</v>
+      </c>
+      <c r="L9" t="n">
+        <v>70</v>
+      </c>
+      <c r="M9" t="n">
         <v>71</v>
       </c>
-      <c r="L9" t="n">
-        <v>71</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>72</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>74</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>76</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>78</v>
       </c>
-      <c r="Q9" t="n">
-        <v>81</v>
-      </c>
       <c r="R9" t="n">
+        <v>80</v>
+      </c>
+      <c r="S9" t="n">
+        <v>82</v>
+      </c>
+      <c r="T9" t="n">
         <v>83</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>85</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>86</v>
-      </c>
-      <c r="U9" t="n">
-        <v>88</v>
-      </c>
-      <c r="V9" t="n">
-        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -2104,67 +2104,67 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.85</v>
+        <v>0.848</v>
       </c>
       <c r="C10" t="n">
-        <v>0.869</v>
+        <v>0.866</v>
       </c>
       <c r="D10" t="n">
-        <v>0.885</v>
+        <v>0.882</v>
       </c>
       <c r="E10" t="n">
-        <v>0.886</v>
+        <v>0.883</v>
       </c>
       <c r="F10" t="n">
-        <v>0.903</v>
+        <v>0.9</v>
       </c>
       <c r="G10" t="n">
-        <v>0.91</v>
+        <v>0.907</v>
       </c>
       <c r="H10" t="n">
-        <v>0.923</v>
+        <v>0.92</v>
       </c>
       <c r="I10" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.93</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.933</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
+        <v>0.934</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0.936</v>
       </c>
-      <c r="L10" t="n">
+      <c r="R10" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.938</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.939</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.942</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.944</v>
       </c>
     </row>
   </sheetData>
@@ -2322,67 +2322,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C3" t="n">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="D3" t="n">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E3" t="n">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="F3" t="n">
-        <v>1746</v>
+        <v>1716</v>
       </c>
       <c r="G3" t="n">
-        <v>1886</v>
+        <v>1838</v>
       </c>
       <c r="H3" t="n">
-        <v>1992</v>
+        <v>1926</v>
       </c>
       <c r="I3" t="n">
-        <v>2068</v>
+        <v>1983</v>
       </c>
       <c r="J3" t="n">
-        <v>2141</v>
+        <v>2036</v>
       </c>
       <c r="K3" t="n">
-        <v>2212</v>
+        <v>2087</v>
       </c>
       <c r="L3" t="n">
-        <v>2283</v>
+        <v>2136</v>
       </c>
       <c r="M3" t="n">
-        <v>2355</v>
+        <v>2187</v>
       </c>
       <c r="N3" t="n">
-        <v>2429</v>
+        <v>2238</v>
       </c>
       <c r="O3" t="n">
-        <v>2505</v>
+        <v>2291</v>
       </c>
       <c r="P3" t="n">
-        <v>2582</v>
+        <v>2344</v>
       </c>
       <c r="Q3" t="n">
-        <v>2661</v>
+        <v>2398</v>
       </c>
       <c r="R3" t="n">
-        <v>2742</v>
+        <v>2452</v>
       </c>
       <c r="S3" t="n">
-        <v>2824</v>
+        <v>2506</v>
       </c>
       <c r="T3" t="n">
-        <v>2907</v>
+        <v>2560</v>
       </c>
       <c r="U3" t="n">
-        <v>2990</v>
+        <v>2613</v>
       </c>
       <c r="V3" t="n">
-        <v>3072</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="4">
@@ -2402,55 +2402,55 @@
         <v>0.048</v>
       </c>
       <c r="F4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.051</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.053</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="I4" t="n">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="J4" t="n">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="K4" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="L4" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="M4" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.054</v>
+        <v>0.049</v>
       </c>
       <c r="P4" t="n">
-        <v>0.054</v>
+        <v>0.049</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.053</v>
+        <v>0.048</v>
       </c>
       <c r="R4" t="n">
-        <v>0.053</v>
+        <v>0.048</v>
       </c>
       <c r="S4" t="n">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="T4" t="n">
-        <v>0.053</v>
+        <v>0.046</v>
       </c>
       <c r="U4" t="n">
-        <v>0.052</v>
+        <v>0.046</v>
       </c>
       <c r="V4" t="n">
-        <v>0.052</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="5">
@@ -2482,7 +2482,7 @@
         <v>0.103</v>
       </c>
       <c r="J5" t="n">
-        <v>0.107</v>
+        <v>0.106</v>
       </c>
       <c r="K5" t="n">
         <v>0.117</v>
@@ -2491,34 +2491,34 @@
         <v>0.117</v>
       </c>
       <c r="M5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="N5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="O5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="P5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="R5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="S5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="T5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="U5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="V5" t="n">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="6">
@@ -2526,13 +2526,13 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E6" t="n">
         <v>166</v>
@@ -2541,52 +2541,52 @@
         <v>164</v>
       </c>
       <c r="G6" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J6" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K6" t="n">
+        <v>92</v>
+      </c>
+      <c r="L6" t="n">
+        <v>93</v>
+      </c>
+      <c r="M6" t="n">
         <v>94</v>
       </c>
-      <c r="L6" t="n">
-        <v>95</v>
-      </c>
-      <c r="M6" t="n">
-        <v>97</v>
-      </c>
       <c r="N6" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O6" t="n">
+        <v>98</v>
+      </c>
+      <c r="P6" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="n">
         <v>101</v>
       </c>
-      <c r="P6" t="n">
-        <v>104</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>103</v>
+      </c>
+      <c r="S6" t="n">
+        <v>105</v>
+      </c>
+      <c r="T6" t="n">
         <v>106</v>
       </c>
-      <c r="R6" t="n">
-        <v>108</v>
-      </c>
-      <c r="S6" t="n">
-        <v>110</v>
-      </c>
-      <c r="T6" t="n">
-        <v>111</v>
-      </c>
       <c r="U6" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="V6" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
@@ -2594,22 +2594,22 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C7" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D7" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E7" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F7" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G7" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -2618,43 +2618,43 @@
         <v>98</v>
       </c>
       <c r="J7" t="n">
+        <v>96</v>
+      </c>
+      <c r="K7" t="n">
+        <v>95</v>
+      </c>
+      <c r="L7" t="n">
         <v>97</v>
       </c>
-      <c r="K7" t="n">
-        <v>96</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>99</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>101</v>
       </c>
-      <c r="N7" t="n">
-        <v>104</v>
-      </c>
       <c r="O7" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P7" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q7" t="n">
+        <v>107</v>
+      </c>
+      <c r="R7" t="n">
+        <v>109</v>
+      </c>
+      <c r="S7" t="n">
         <v>110</v>
       </c>
-      <c r="R7" t="n">
-        <v>112</v>
-      </c>
-      <c r="S7" t="n">
-        <v>113</v>
-      </c>
       <c r="T7" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="U7" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V7" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -2662,7 +2662,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="n">
         <v>78</v>
@@ -2677,52 +2677,52 @@
         <v>85</v>
       </c>
       <c r="G8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" t="n">
+        <v>42</v>
+      </c>
+      <c r="J8" t="n">
+        <v>41</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+      <c r="L8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M8" t="n">
+        <v>41</v>
+      </c>
+      <c r="N8" t="n">
+        <v>42</v>
+      </c>
+      <c r="O8" t="n">
         <v>43</v>
       </c>
-      <c r="J8" t="n">
-        <v>42</v>
-      </c>
-      <c r="K8" t="n">
-        <v>41</v>
-      </c>
-      <c r="L8" t="n">
-        <v>42</v>
-      </c>
-      <c r="M8" t="n">
-        <v>43</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>44</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
+        <v>44</v>
+      </c>
+      <c r="R8" t="n">
         <v>45</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
         <v>46</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
+        <v>46</v>
+      </c>
+      <c r="U8" t="n">
         <v>47</v>
       </c>
-      <c r="R8" t="n">
-        <v>48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>48</v>
-      </c>
-      <c r="T8" t="n">
-        <v>49</v>
-      </c>
-      <c r="U8" t="n">
-        <v>49</v>
-      </c>
       <c r="V8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -2730,16 +2730,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
@@ -2757,40 +2757,40 @@
         <v>54</v>
       </c>
       <c r="K9" t="n">
+        <v>52</v>
+      </c>
+      <c r="L9" t="n">
+        <v>52</v>
+      </c>
+      <c r="M9" t="n">
+        <v>52</v>
+      </c>
+      <c r="N9" t="n">
         <v>53</v>
       </c>
-      <c r="L9" t="n">
-        <v>53</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54</v>
       </c>
-      <c r="N9" t="n">
-        <v>55</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>56</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
+        <v>57</v>
+      </c>
+      <c r="R9" t="n">
         <v>58</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>59</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>60</v>
       </c>
-      <c r="S9" t="n">
-        <v>61</v>
-      </c>
-      <c r="T9" t="n">
-        <v>62</v>
-      </c>
       <c r="U9" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V9" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -2798,67 +2798,67 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834</v>
+        <v>0.826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.855</v>
+        <v>0.847</v>
       </c>
       <c r="D10" t="n">
-        <v>0.871</v>
+        <v>0.865</v>
       </c>
       <c r="E10" t="n">
-        <v>0.873</v>
+        <v>0.866</v>
       </c>
       <c r="F10" t="n">
-        <v>0.892</v>
+        <v>0.885</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9</v>
+        <v>0.893</v>
       </c>
       <c r="H10" t="n">
-        <v>0.915</v>
+        <v>0.908</v>
       </c>
       <c r="I10" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.924</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.927</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.931</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.934</v>
-      </c>
       <c r="N10" t="n">
-        <v>0.934</v>
+        <v>0.927</v>
       </c>
       <c r="O10" t="n">
-        <v>0.935</v>
+        <v>0.928</v>
       </c>
       <c r="P10" t="n">
-        <v>0.935</v>
+        <v>0.928</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.936</v>
+        <v>0.928</v>
       </c>
       <c r="R10" t="n">
-        <v>0.936</v>
+        <v>0.928</v>
       </c>
       <c r="S10" t="n">
-        <v>0.937</v>
+        <v>0.929</v>
       </c>
       <c r="T10" t="n">
-        <v>0.938</v>
+        <v>0.929</v>
       </c>
       <c r="U10" t="n">
-        <v>0.938</v>
+        <v>0.93</v>
       </c>
       <c r="V10" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -3016,67 +3016,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>1519</v>
+        <v>1499</v>
       </c>
       <c r="C3" t="n">
-        <v>1736</v>
+        <v>1691</v>
       </c>
       <c r="D3" t="n">
-        <v>1967</v>
+        <v>1908</v>
       </c>
       <c r="E3" t="n">
-        <v>2208</v>
+        <v>2135</v>
       </c>
       <c r="F3" t="n">
-        <v>2460</v>
+        <v>2374</v>
       </c>
       <c r="G3" t="n">
-        <v>2717</v>
+        <v>2610</v>
       </c>
       <c r="H3" t="n">
-        <v>2915</v>
+        <v>2786</v>
       </c>
       <c r="I3" t="n">
-        <v>3057</v>
+        <v>2903</v>
       </c>
       <c r="J3" t="n">
-        <v>3193</v>
+        <v>3015</v>
       </c>
       <c r="K3" t="n">
-        <v>3326</v>
+        <v>3121</v>
       </c>
       <c r="L3" t="n">
-        <v>3458</v>
+        <v>3224</v>
       </c>
       <c r="M3" t="n">
-        <v>3592</v>
+        <v>3329</v>
       </c>
       <c r="N3" t="n">
-        <v>3732</v>
+        <v>3438</v>
       </c>
       <c r="O3" t="n">
-        <v>3875</v>
+        <v>3549</v>
       </c>
       <c r="P3" t="n">
-        <v>4022</v>
+        <v>3665</v>
       </c>
       <c r="Q3" t="n">
-        <v>4175</v>
+        <v>3783</v>
       </c>
       <c r="R3" t="n">
-        <v>4333</v>
+        <v>3905</v>
       </c>
       <c r="S3" t="n">
-        <v>4493</v>
+        <v>4029</v>
       </c>
       <c r="T3" t="n">
-        <v>4657</v>
+        <v>4155</v>
       </c>
       <c r="U3" t="n">
-        <v>4822</v>
+        <v>4282</v>
       </c>
       <c r="V3" t="n">
-        <v>4987</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="4">
@@ -3087,64 +3087,64 @@
         <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.056</v>
+        <v>0.054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="E4" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="F4" t="n">
-        <v>0.071</v>
+        <v>0.069</v>
       </c>
       <c r="G4" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.076</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="J4" t="n">
-        <v>0.081</v>
+        <v>0.076</v>
       </c>
       <c r="K4" t="n">
-        <v>0.081</v>
+        <v>0.076</v>
       </c>
       <c r="L4" t="n">
-        <v>0.082</v>
+        <v>0.076</v>
       </c>
       <c r="M4" t="n">
-        <v>0.082</v>
+        <v>0.076</v>
       </c>
       <c r="N4" t="n">
-        <v>0.083</v>
+        <v>0.076</v>
       </c>
       <c r="O4" t="n">
-        <v>0.083</v>
+        <v>0.076</v>
       </c>
       <c r="P4" t="n">
-        <v>0.083</v>
+        <v>0.076</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.084</v>
+        <v>0.076</v>
       </c>
       <c r="R4" t="n">
-        <v>0.084</v>
+        <v>0.076</v>
       </c>
       <c r="S4" t="n">
-        <v>0.084</v>
+        <v>0.076</v>
       </c>
       <c r="T4" t="n">
-        <v>0.085</v>
+        <v>0.075</v>
       </c>
       <c r="U4" t="n">
-        <v>0.085</v>
+        <v>0.075</v>
       </c>
       <c r="V4" t="n">
-        <v>0.085</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="5">
@@ -3173,46 +3173,46 @@
         <v>0.083</v>
       </c>
       <c r="I5" t="n">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="J5" t="n">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="K5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="L5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="M5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="N5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="O5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="P5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="R5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="S5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="T5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="U5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="V5" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -3223,64 +3223,64 @@
         <v>232</v>
       </c>
       <c r="C6" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E6" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F6" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G6" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H6" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I6" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J6" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K6" t="n">
+        <v>166</v>
+      </c>
+      <c r="L6" t="n">
         <v>168</v>
       </c>
-      <c r="L6" t="n">
-        <v>170</v>
-      </c>
       <c r="M6" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N6" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O6" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P6" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q6" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R6" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S6" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T6" t="n">
         <v>211</v>
       </c>
       <c r="U6" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="V6" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7">
@@ -3288,67 +3288,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C7" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D7" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E7" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F7" t="n">
         <v>289</v>
       </c>
       <c r="G7" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H7" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I7" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J7" t="n">
+        <v>174</v>
+      </c>
+      <c r="K7" t="n">
         <v>173</v>
-      </c>
-      <c r="K7" t="n">
-        <v>172</v>
       </c>
       <c r="L7" t="n">
         <v>178</v>
       </c>
       <c r="M7" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N7" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O7" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P7" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q7" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R7" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="S7" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="T7" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U7" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="V7" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
@@ -3356,10 +3356,10 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C8" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D8" t="n">
         <v>124</v>
@@ -3368,46 +3368,46 @@
         <v>146</v>
       </c>
       <c r="F8" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H8" t="n">
         <v>88</v>
       </c>
       <c r="I8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" t="n">
         <v>76</v>
       </c>
       <c r="K8" t="n">
+        <v>73</v>
+      </c>
+      <c r="L8" t="n">
         <v>74</v>
       </c>
-      <c r="L8" t="n">
-        <v>75</v>
-      </c>
       <c r="M8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q8" t="n">
         <v>87</v>
       </c>
       <c r="R8" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T8" t="n">
         <v>93</v>
@@ -3416,7 +3416,7 @@
         <v>95</v>
       </c>
       <c r="V8" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -3424,67 +3424,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
+        <v>117</v>
+      </c>
+      <c r="C9" t="n">
+        <v>123</v>
+      </c>
+      <c r="D9" t="n">
+        <v>115</v>
+      </c>
+      <c r="E9" t="n">
+        <v>139</v>
+      </c>
+      <c r="F9" t="n">
+        <v>136</v>
+      </c>
+      <c r="G9" t="n">
+        <v>125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>105</v>
+      </c>
+      <c r="I9" t="n">
+        <v>96</v>
+      </c>
+      <c r="J9" t="n">
+        <v>96</v>
+      </c>
+      <c r="K9" t="n">
+        <v>93</v>
+      </c>
+      <c r="L9" t="n">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>95</v>
+      </c>
+      <c r="N9" t="n">
+        <v>98</v>
+      </c>
+      <c r="O9" t="n">
+        <v>101</v>
+      </c>
+      <c r="P9" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>107</v>
+      </c>
+      <c r="R9" t="n">
+        <v>110</v>
+      </c>
+      <c r="S9" t="n">
+        <v>114</v>
+      </c>
+      <c r="T9" t="n">
+        <v>117</v>
+      </c>
+      <c r="U9" t="n">
         <v>119</v>
       </c>
-      <c r="C9" t="n">
-        <v>124</v>
-      </c>
-      <c r="D9" t="n">
-        <v>116</v>
-      </c>
-      <c r="E9" t="n">
-        <v>140</v>
-      </c>
-      <c r="F9" t="n">
-        <v>137</v>
-      </c>
-      <c r="G9" t="n">
-        <v>127</v>
-      </c>
-      <c r="H9" t="n">
-        <v>106</v>
-      </c>
-      <c r="I9" t="n">
-        <v>97</v>
-      </c>
-      <c r="J9" t="n">
-        <v>97</v>
-      </c>
-      <c r="K9" t="n">
-        <v>94</v>
-      </c>
-      <c r="L9" t="n">
-        <v>95</v>
-      </c>
-      <c r="M9" t="n">
-        <v>97</v>
-      </c>
-      <c r="N9" t="n">
-        <v>99</v>
-      </c>
-      <c r="O9" t="n">
-        <v>102</v>
-      </c>
-      <c r="P9" t="n">
-        <v>106</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>109</v>
-      </c>
-      <c r="R9" t="n">
-        <v>112</v>
-      </c>
-      <c r="S9" t="n">
-        <v>115</v>
-      </c>
-      <c r="T9" t="n">
-        <v>118</v>
-      </c>
-      <c r="U9" t="n">
-        <v>120</v>
-      </c>
       <c r="V9" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -3492,67 +3492,67 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.869</v>
+        <v>0.865</v>
       </c>
       <c r="C10" t="n">
-        <v>0.884</v>
+        <v>0.88</v>
       </c>
       <c r="D10" t="n">
-        <v>0.899</v>
+        <v>0.895</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9</v>
+        <v>0.896</v>
       </c>
       <c r="F10" t="n">
-        <v>0.915</v>
+        <v>0.911</v>
       </c>
       <c r="G10" t="n">
-        <v>0.922</v>
+        <v>0.917</v>
       </c>
       <c r="H10" t="n">
-        <v>0.933</v>
+        <v>0.928</v>
       </c>
       <c r="I10" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.939</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.941</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.942</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.942</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.942</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.942</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.944</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.945</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.948</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.949</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.949</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -3707,58 +3707,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1899</v>
+        <v>1855</v>
       </c>
       <c r="F3" t="n">
-        <v>2081</v>
+        <v>2020</v>
       </c>
       <c r="G3" t="n">
-        <v>2283</v>
+        <v>2202</v>
       </c>
       <c r="H3" t="n">
-        <v>2475</v>
+        <v>2373</v>
       </c>
       <c r="I3" t="n">
-        <v>2646</v>
+        <v>2520</v>
       </c>
       <c r="J3" t="n">
-        <v>2826</v>
+        <v>2676</v>
       </c>
       <c r="K3" t="n">
-        <v>3014</v>
+        <v>2839</v>
       </c>
       <c r="L3" t="n">
-        <v>3215</v>
+        <v>3012</v>
       </c>
       <c r="M3" t="n">
-        <v>3436</v>
+        <v>3203</v>
       </c>
       <c r="N3" t="n">
-        <v>3678</v>
+        <v>3414</v>
       </c>
       <c r="O3" t="n">
-        <v>3945</v>
+        <v>3648</v>
       </c>
       <c r="P3" t="n">
-        <v>4239</v>
+        <v>3907</v>
       </c>
       <c r="Q3" t="n">
-        <v>4562</v>
+        <v>4194</v>
       </c>
       <c r="R3" t="n">
-        <v>4918</v>
+        <v>4512</v>
       </c>
       <c r="S3" t="n">
-        <v>5310</v>
+        <v>4863</v>
       </c>
       <c r="T3" t="n">
-        <v>5740</v>
+        <v>5252</v>
       </c>
       <c r="U3" t="n">
-        <v>6212</v>
+        <v>5681</v>
       </c>
       <c r="V3" t="n">
-        <v>6729</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="4">
@@ -3769,58 +3769,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="G4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.064</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.067</v>
-      </c>
       <c r="I4" t="n">
-        <v>0.069</v>
+        <v>0.066</v>
       </c>
       <c r="J4" t="n">
-        <v>0.072</v>
+        <v>0.068</v>
       </c>
       <c r="K4" t="n">
-        <v>0.074</v>
+        <v>0.07</v>
       </c>
       <c r="L4" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.076</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.082</v>
-      </c>
       <c r="O4" t="n">
-        <v>0.085</v>
+        <v>0.078</v>
       </c>
       <c r="P4" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.088</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.095</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>0.1</v>
       </c>
-      <c r="T4" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.109</v>
-      </c>
       <c r="V4" t="n">
-        <v>0.114</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="5">
@@ -3843,46 +3843,46 @@
         <v>0.082</v>
       </c>
       <c r="I5" t="n">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="J5" t="n">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="K5" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.12</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>0.12</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>0.12</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>0.121</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>0.121</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>0.122</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.122</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>0.123</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>0.124</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.125</v>
       </c>
     </row>
     <row r="6">
@@ -3893,58 +3893,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F6" t="n">
         <v>216</v>
       </c>
       <c r="G6" t="n">
+        <v>208</v>
+      </c>
+      <c r="H6" t="n">
+        <v>181</v>
+      </c>
+      <c r="I6" t="n">
+        <v>184</v>
+      </c>
+      <c r="J6" t="n">
+        <v>200</v>
+      </c>
+      <c r="K6" t="n">
         <v>209</v>
       </c>
-      <c r="H6" t="n">
-        <v>182</v>
-      </c>
-      <c r="I6" t="n">
-        <v>185</v>
-      </c>
-      <c r="J6" t="n">
-        <v>202</v>
-      </c>
-      <c r="K6" t="n">
-        <v>211</v>
-      </c>
       <c r="L6" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M6" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N6" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O6" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P6" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q6" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="R6" t="n">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="S6" t="n">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="T6" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="U6" t="n">
         <v>517</v>
       </c>
       <c r="V6" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7">
@@ -3955,13 +3955,13 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F7" t="n">
+        <v>227</v>
+      </c>
+      <c r="G7" t="n">
         <v>226</v>
-      </c>
-      <c r="G7" t="n">
-        <v>225</v>
       </c>
       <c r="H7" t="n">
         <v>201</v>
@@ -3973,10 +3973,10 @@
         <v>224</v>
       </c>
       <c r="K7" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L7" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M7" t="n">
         <v>283</v>
@@ -3991,22 +3991,22 @@
         <v>374</v>
       </c>
       <c r="Q7" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R7" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="S7" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="T7" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="U7" t="n">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="V7" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8">
@@ -4017,7 +4017,7 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F8" t="n">
         <v>113</v>
@@ -4038,16 +4038,16 @@
         <v>97</v>
       </c>
       <c r="L8" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N8" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O8" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P8" t="n">
         <v>151</v>
@@ -4062,13 +4062,13 @@
         <v>200</v>
       </c>
       <c r="T8" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U8" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="V8" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9">
@@ -4082,55 +4082,55 @@
         <v>107</v>
       </c>
       <c r="F9" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L9" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N9" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O9" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P9" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q9" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R9" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="S9" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="T9" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="U9" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="V9" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -4141,58 +4141,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.886</v>
+        <v>0.883</v>
       </c>
       <c r="F10" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.905</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.909</v>
-      </c>
       <c r="J10" t="n">
-        <v>0.906</v>
+        <v>0.902</v>
       </c>
       <c r="K10" t="n">
-        <v>0.906</v>
+        <v>0.902</v>
       </c>
       <c r="L10" t="n">
-        <v>0.905</v>
+        <v>0.9</v>
       </c>
       <c r="M10" t="n">
-        <v>0.903</v>
+        <v>0.898</v>
       </c>
       <c r="N10" t="n">
-        <v>0.901</v>
+        <v>0.895</v>
       </c>
       <c r="O10" t="n">
-        <v>0.899</v>
+        <v>0.893</v>
       </c>
       <c r="P10" t="n">
-        <v>0.897</v>
+        <v>0.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.895</v>
+        <v>0.887</v>
       </c>
       <c r="R10" t="n">
-        <v>0.893</v>
+        <v>0.885</v>
       </c>
       <c r="S10" t="n">
-        <v>0.892</v>
+        <v>0.883</v>
       </c>
       <c r="T10" t="n">
-        <v>0.89</v>
+        <v>0.881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.889</v>
+        <v>0.879</v>
       </c>
       <c r="V10" t="n">
-        <v>0.888</v>
+        <v>0.877</v>
       </c>
     </row>
   </sheetData>
@@ -4347,58 +4347,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1897</v>
+        <v>1854</v>
       </c>
       <c r="F3" t="n">
-        <v>2050</v>
+        <v>1993</v>
       </c>
       <c r="G3" t="n">
-        <v>2217</v>
+        <v>2144</v>
       </c>
       <c r="H3" t="n">
-        <v>2372</v>
+        <v>2282</v>
       </c>
       <c r="I3" t="n">
-        <v>2509</v>
+        <v>2401</v>
       </c>
       <c r="J3" t="n">
-        <v>2653</v>
+        <v>2525</v>
       </c>
       <c r="K3" t="n">
-        <v>2804</v>
+        <v>2656</v>
       </c>
       <c r="L3" t="n">
-        <v>2963</v>
+        <v>2794</v>
       </c>
       <c r="M3" t="n">
-        <v>3138</v>
+        <v>2946</v>
       </c>
       <c r="N3" t="n">
-        <v>3330</v>
+        <v>3115</v>
       </c>
       <c r="O3" t="n">
-        <v>3541</v>
+        <v>3301</v>
       </c>
       <c r="P3" t="n">
-        <v>3773</v>
+        <v>3508</v>
       </c>
       <c r="Q3" t="n">
-        <v>4029</v>
+        <v>3736</v>
       </c>
       <c r="R3" t="n">
-        <v>4310</v>
+        <v>3990</v>
       </c>
       <c r="S3" t="n">
-        <v>4620</v>
+        <v>4271</v>
       </c>
       <c r="T3" t="n">
-        <v>4961</v>
+        <v>4582</v>
       </c>
       <c r="U3" t="n">
-        <v>5336</v>
+        <v>4928</v>
       </c>
       <c r="V3" t="n">
-        <v>5750</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="4">
@@ -4409,58 +4409,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="G4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.062</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.066</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.069</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.074</v>
-      </c>
       <c r="O4" t="n">
-        <v>0.076</v>
+        <v>0.071</v>
       </c>
       <c r="P4" t="n">
-        <v>0.078</v>
+        <v>0.073</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.081</v>
+        <v>0.075</v>
       </c>
       <c r="R4" t="n">
-        <v>0.084</v>
+        <v>0.077</v>
       </c>
       <c r="S4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.087</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>0.09</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.098</v>
       </c>
     </row>
     <row r="5">
@@ -4489,40 +4489,40 @@
         <v>0.108</v>
       </c>
       <c r="K5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="L5" t="n">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="M5" t="n">
         <v>0.119</v>
       </c>
       <c r="N5" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="O5" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="P5" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="Q5" t="n">
         <v>0.12</v>
       </c>
       <c r="R5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.121</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>0.121</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>0.122</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.123</v>
       </c>
     </row>
     <row r="6">
@@ -4533,58 +4533,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F6" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G6" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H6" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I6" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J6" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K6" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L6" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M6" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N6" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O6" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P6" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q6" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="R6" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="S6" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="T6" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="U6" t="n">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="V6" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7">
@@ -4595,58 +4595,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F7" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G7" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H7" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I7" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J7" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K7" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L7" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M7" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N7" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O7" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P7" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q7" t="n">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="R7" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="S7" t="n">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="T7" t="n">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="U7" t="n">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="V7" t="n">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8">
@@ -4657,58 +4657,58 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H8" t="n">
+        <v>76</v>
+      </c>
+      <c r="I8" t="n">
         <v>74</v>
       </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
       <c r="J8" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L8" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N8" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O8" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P8" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="R8" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="S8" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="T8" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="U8" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="V8" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
@@ -4722,25 +4722,25 @@
         <v>104</v>
       </c>
       <c r="F9" t="n">
+        <v>95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>86</v>
+      </c>
+      <c r="H9" t="n">
+        <v>79</v>
+      </c>
+      <c r="I9" t="n">
+        <v>82</v>
+      </c>
+      <c r="J9" t="n">
+        <v>90</v>
+      </c>
+      <c r="K9" t="n">
         <v>94</v>
       </c>
-      <c r="G9" t="n">
-        <v>85</v>
-      </c>
-      <c r="H9" t="n">
-        <v>78</v>
-      </c>
-      <c r="I9" t="n">
-        <v>81</v>
-      </c>
-      <c r="J9" t="n">
-        <v>89</v>
-      </c>
-      <c r="K9" t="n">
-        <v>93</v>
-      </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>109</v>
@@ -4764,13 +4764,13 @@
         <v>186</v>
       </c>
       <c r="T9" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U9" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V9" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
@@ -4781,58 +4781,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.885</v>
+        <v>0.881</v>
       </c>
       <c r="F10" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.894</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.892</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.896</v>
-      </c>
       <c r="I10" t="n">
-        <v>0.895</v>
+        <v>0.893</v>
       </c>
       <c r="J10" t="n">
-        <v>0.892</v>
+        <v>0.889</v>
       </c>
       <c r="K10" t="n">
-        <v>0.893</v>
+        <v>0.889</v>
       </c>
       <c r="L10" t="n">
-        <v>0.892</v>
+        <v>0.888</v>
       </c>
       <c r="M10" t="n">
-        <v>0.891</v>
+        <v>0.886</v>
       </c>
       <c r="N10" t="n">
-        <v>0.889</v>
+        <v>0.884</v>
       </c>
       <c r="O10" t="n">
-        <v>0.888</v>
+        <v>0.882</v>
       </c>
       <c r="P10" t="n">
-        <v>0.887</v>
+        <v>0.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.885</v>
+        <v>0.878</v>
       </c>
       <c r="R10" t="n">
-        <v>0.884</v>
+        <v>0.876</v>
       </c>
       <c r="S10" t="n">
-        <v>0.884</v>
+        <v>0.875</v>
       </c>
       <c r="T10" t="n">
-        <v>0.883</v>
+        <v>0.873</v>
       </c>
       <c r="U10" t="n">
-        <v>0.882</v>
+        <v>0.872</v>
       </c>
       <c r="V10" t="n">
-        <v>0.882</v>
+        <v>0.871</v>
       </c>
     </row>
   </sheetData>
@@ -4987,58 +4987,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1902</v>
+        <v>1858</v>
       </c>
       <c r="F3" t="n">
-        <v>2121</v>
+        <v>2056</v>
       </c>
       <c r="G3" t="n">
-        <v>2371</v>
+        <v>2281</v>
       </c>
       <c r="H3" t="n">
-        <v>2613</v>
+        <v>2496</v>
       </c>
       <c r="I3" t="n">
-        <v>2829</v>
+        <v>2683</v>
       </c>
       <c r="J3" t="n">
-        <v>3058</v>
+        <v>2882</v>
       </c>
       <c r="K3" t="n">
-        <v>3299</v>
+        <v>3091</v>
       </c>
       <c r="L3" t="n">
-        <v>3555</v>
+        <v>3313</v>
       </c>
       <c r="M3" t="n">
-        <v>3837</v>
+        <v>3558</v>
       </c>
       <c r="N3" t="n">
-        <v>4147</v>
+        <v>3829</v>
       </c>
       <c r="O3" t="n">
-        <v>4488</v>
+        <v>4128</v>
       </c>
       <c r="P3" t="n">
-        <v>4863</v>
+        <v>4459</v>
       </c>
       <c r="Q3" t="n">
-        <v>5274</v>
+        <v>4825</v>
       </c>
       <c r="R3" t="n">
-        <v>5725</v>
+        <v>5228</v>
       </c>
       <c r="S3" t="n">
-        <v>6218</v>
+        <v>5672</v>
       </c>
       <c r="T3" t="n">
-        <v>6757</v>
+        <v>6159</v>
       </c>
       <c r="U3" t="n">
-        <v>7343</v>
+        <v>6694</v>
       </c>
       <c r="V3" t="n">
-        <v>7981</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="4">
@@ -5049,58 +5049,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="G4" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="H4" t="n">
-        <v>0.071</v>
+        <v>0.068</v>
       </c>
       <c r="I4" t="n">
-        <v>0.074</v>
+        <v>0.07</v>
       </c>
       <c r="J4" t="n">
-        <v>0.077</v>
+        <v>0.073</v>
       </c>
       <c r="K4" t="n">
-        <v>0.081</v>
+        <v>0.076</v>
       </c>
       <c r="L4" t="n">
-        <v>0.084</v>
+        <v>0.078</v>
       </c>
       <c r="M4" t="n">
-        <v>0.088</v>
+        <v>0.082</v>
       </c>
       <c r="N4" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.092</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.101</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>0.106</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.117</v>
-      </c>
       <c r="T4" t="n">
-        <v>0.123</v>
+        <v>0.112</v>
       </c>
       <c r="U4" t="n">
-        <v>0.129</v>
+        <v>0.118</v>
       </c>
       <c r="V4" t="n">
-        <v>0.136</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="5">
@@ -5126,43 +5126,43 @@
         <v>0.105</v>
       </c>
       <c r="J5" t="n">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="K5" t="n">
         <v>0.12</v>
       </c>
       <c r="L5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.121</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.121</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.122</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.122</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>0.123</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>0.124</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.125</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>0.125</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>0.126</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.128</v>
       </c>
     </row>
     <row r="6">
@@ -5173,58 +5173,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F6" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G6" t="n">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H6" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I6" t="n">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J6" t="n">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K6" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L6" t="n">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M6" t="n">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N6" t="n">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="O6" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="P6" t="n">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="Q6" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="R6" t="n">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="S6" t="n">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="T6" t="n">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="U6" t="n">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="V6" t="n">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7">
@@ -5235,58 +5235,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F7" t="n">
+        <v>270</v>
+      </c>
+      <c r="G7" t="n">
         <v>273</v>
       </c>
-      <c r="G7" t="n">
-        <v>277</v>
-      </c>
       <c r="H7" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I7" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J7" t="n">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K7" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L7" t="n">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M7" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N7" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O7" t="n">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P7" t="n">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q7" t="n">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="R7" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S7" t="n">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="T7" t="n">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="U7" t="n">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="V7" t="n">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8">
@@ -5300,55 +5300,55 @@
         <v>119</v>
       </c>
       <c r="F8" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I8" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J8" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K8" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M8" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N8" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O8" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P8" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q8" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R8" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S8" t="n">
         <v>249</v>
       </c>
       <c r="T8" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U8" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="V8" t="n">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9">
@@ -5359,58 +5359,58 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="n">
+        <v>111</v>
+      </c>
+      <c r="F9" t="n">
+        <v>112</v>
+      </c>
+      <c r="G9" t="n">
+        <v>114</v>
+      </c>
+      <c r="H9" t="n">
         <v>110</v>
       </c>
-      <c r="F9" t="n">
-        <v>113</v>
-      </c>
-      <c r="G9" t="n">
-        <v>116</v>
-      </c>
-      <c r="H9" t="n">
-        <v>112</v>
-      </c>
       <c r="I9" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K9" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L9" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M9" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N9" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O9" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P9" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q9" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="R9" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="S9" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="T9" t="n">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="U9" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="V9" t="n">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
@@ -5421,58 +5421,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.887</v>
+        <v>0.884</v>
       </c>
       <c r="F10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.913</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.918</v>
-      </c>
       <c r="L10" t="n">
-        <v>0.916</v>
+        <v>0.911</v>
       </c>
       <c r="M10" t="n">
-        <v>0.914</v>
+        <v>0.909</v>
       </c>
       <c r="N10" t="n">
-        <v>0.912</v>
+        <v>0.906</v>
       </c>
       <c r="O10" t="n">
-        <v>0.909</v>
+        <v>0.904</v>
       </c>
       <c r="P10" t="n">
-        <v>0.907</v>
+        <v>0.901</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.905</v>
+        <v>0.898</v>
       </c>
       <c r="R10" t="n">
-        <v>0.903</v>
+        <v>0.896</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9</v>
+        <v>0.893</v>
       </c>
       <c r="T10" t="n">
-        <v>0.898</v>
+        <v>0.89</v>
       </c>
       <c r="U10" t="n">
-        <v>0.897</v>
+        <v>0.888</v>
       </c>
       <c r="V10" t="n">
-        <v>0.895</v>
+        <v>0.886</v>
       </c>
     </row>
   </sheetData>
@@ -5627,58 +5627,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1899</v>
+        <v>1855</v>
       </c>
       <c r="F3" t="n">
-        <v>2092</v>
+        <v>2030</v>
       </c>
       <c r="G3" t="n">
-        <v>2285</v>
+        <v>2204</v>
       </c>
       <c r="H3" t="n">
-        <v>2480</v>
+        <v>2377</v>
       </c>
       <c r="I3" t="n">
-        <v>2692</v>
+        <v>2566</v>
       </c>
       <c r="J3" t="n">
-        <v>2936</v>
+        <v>2784</v>
       </c>
       <c r="K3" t="n">
-        <v>3206</v>
+        <v>3027</v>
       </c>
       <c r="L3" t="n">
-        <v>3501</v>
+        <v>3292</v>
       </c>
       <c r="M3" t="n">
-        <v>3818</v>
+        <v>3579</v>
       </c>
       <c r="N3" t="n">
-        <v>4158</v>
+        <v>3887</v>
       </c>
       <c r="O3" t="n">
-        <v>4520</v>
+        <v>4216</v>
       </c>
       <c r="P3" t="n">
-        <v>4901</v>
+        <v>4563</v>
       </c>
       <c r="Q3" t="n">
-        <v>5300</v>
+        <v>4929</v>
       </c>
       <c r="R3" t="n">
-        <v>5716</v>
+        <v>5312</v>
       </c>
       <c r="S3" t="n">
-        <v>6147</v>
+        <v>5710</v>
       </c>
       <c r="T3" t="n">
-        <v>6590</v>
+        <v>6121</v>
       </c>
       <c r="U3" t="n">
-        <v>7043</v>
+        <v>6543</v>
       </c>
       <c r="V3" t="n">
-        <v>7504</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="4">
@@ -5689,58 +5689,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="G4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.064</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.067</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.07</v>
-      </c>
       <c r="J4" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.074</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.079</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.083</v>
+        <v>0.078</v>
       </c>
       <c r="M4" t="n">
-        <v>0.088</v>
+        <v>0.082</v>
       </c>
       <c r="N4" t="n">
-        <v>0.092</v>
+        <v>0.086</v>
       </c>
       <c r="O4" t="n">
-        <v>0.097</v>
+        <v>0.09</v>
       </c>
       <c r="P4" t="n">
-        <v>0.102</v>
+        <v>0.095</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.106</v>
+        <v>0.099</v>
       </c>
       <c r="R4" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.111</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>0.115</v>
       </c>
-      <c r="T4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.124</v>
-      </c>
       <c r="V4" t="n">
-        <v>0.127</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="5">
@@ -5813,58 +5813,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G6" t="n">
         <v>181</v>
       </c>
       <c r="H6" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I6" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J6" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K6" t="n">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L6" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M6" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N6" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O6" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P6" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q6" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="R6" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="S6" t="n">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="T6" t="n">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="U6" t="n">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="V6" t="n">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7">
@@ -5875,16 +5875,16 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F7" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G7" t="n">
         <v>223</v>
       </c>
       <c r="H7" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I7" t="n">
         <v>276</v>
@@ -5893,40 +5893,40 @@
         <v>305</v>
       </c>
       <c r="K7" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L7" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M7" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N7" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="O7" t="n">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P7" t="n">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="Q7" t="n">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="R7" t="n">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="S7" t="n">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="T7" t="n">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="U7" t="n">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="V7" t="n">
-        <v>553</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8">
@@ -5937,7 +5937,7 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F8" t="n">
         <v>115</v>
@@ -5949,13 +5949,13 @@
         <v>94</v>
       </c>
       <c r="I8" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J8" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L8" t="n">
         <v>144</v>
@@ -5967,28 +5967,28 @@
         <v>167</v>
       </c>
       <c r="O8" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q8" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="R8" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="S8" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="T8" t="n">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="U8" t="n">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="V8" t="n">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9">
@@ -6002,55 +6002,55 @@
         <v>107</v>
       </c>
       <c r="F9" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J9" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K9" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L9" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M9" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N9" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O9" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P9" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q9" t="n">
         <v>245</v>
       </c>
       <c r="R9" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S9" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="T9" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="U9" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="V9" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10">
@@ -6061,58 +6061,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.886</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.877</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.877</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.882</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.884</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.887</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.897</v>
-      </c>
       <c r="V10" t="n">
-        <v>0.901</v>
+        <v>0.889</v>
       </c>
     </row>
   </sheetData>
@@ -6267,58 +6267,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1897</v>
+        <v>1853</v>
       </c>
       <c r="F3" t="n">
-        <v>2053</v>
+        <v>1996</v>
       </c>
       <c r="G3" t="n">
-        <v>2206</v>
+        <v>2132</v>
       </c>
       <c r="H3" t="n">
-        <v>2354</v>
+        <v>2262</v>
       </c>
       <c r="I3" t="n">
-        <v>2510</v>
+        <v>2399</v>
       </c>
       <c r="J3" t="n">
-        <v>2686</v>
+        <v>2555</v>
       </c>
       <c r="K3" t="n">
-        <v>2878</v>
+        <v>2725</v>
       </c>
       <c r="L3" t="n">
-        <v>3086</v>
+        <v>2910</v>
       </c>
       <c r="M3" t="n">
-        <v>3307</v>
+        <v>3108</v>
       </c>
       <c r="N3" t="n">
-        <v>3543</v>
+        <v>3318</v>
       </c>
       <c r="O3" t="n">
-        <v>3794</v>
+        <v>3542</v>
       </c>
       <c r="P3" t="n">
-        <v>4058</v>
+        <v>3779</v>
       </c>
       <c r="Q3" t="n">
-        <v>4335</v>
+        <v>4028</v>
       </c>
       <c r="R3" t="n">
-        <v>4625</v>
+        <v>4289</v>
       </c>
       <c r="S3" t="n">
-        <v>4928</v>
+        <v>4562</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4845</v>
       </c>
       <c r="U3" t="n">
-        <v>5564</v>
+        <v>5138</v>
       </c>
       <c r="V3" t="n">
-        <v>5895</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="4">
@@ -6329,58 +6329,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="G4" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.064</v>
+        <v>0.061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.066</v>
+        <v>0.063</v>
       </c>
       <c r="J4" t="n">
-        <v>0.068</v>
+        <v>0.065</v>
       </c>
       <c r="K4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.071</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.076</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.081</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.087</v>
-      </c>
       <c r="R4" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.09</v>
       </c>
-      <c r="S4" t="n">
+      <c r="V4" t="n">
         <v>0.092</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -6453,58 +6453,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F6" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G6" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H6" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I6" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J6" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K6" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L6" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M6" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N6" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O6" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P6" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q6" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="R6" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S6" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="T6" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="U6" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="V6" t="n">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7">
@@ -6515,58 +6515,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F7" t="n">
+        <v>183</v>
+      </c>
+      <c r="G7" t="n">
         <v>179</v>
       </c>
-      <c r="G7" t="n">
-        <v>175</v>
-      </c>
       <c r="H7" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I7" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J7" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K7" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L7" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M7" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N7" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O7" t="n">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="P7" t="n">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q7" t="n">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="R7" t="n">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="S7" t="n">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="T7" t="n">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="U7" t="n">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="V7" t="n">
-        <v>404</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8">
@@ -6577,58 +6577,58 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G8" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L8" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N8" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O8" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P8" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="R8" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="S8" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="T8" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="U8" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="V8" t="n">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
@@ -6642,55 +6642,55 @@
         <v>104</v>
       </c>
       <c r="F9" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G9" t="n">
         <v>73</v>
       </c>
       <c r="H9" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L9" t="n">
         <v>125</v>
       </c>
       <c r="M9" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N9" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O9" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P9" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q9" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R9" t="n">
         <v>184</v>
       </c>
       <c r="S9" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T9" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U9" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="V9" t="n">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
@@ -6701,58 +6701,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.885</v>
+        <v>0.881</v>
       </c>
       <c r="F10" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.892</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.895</v>
-      </c>
       <c r="H10" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.883</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.858</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.858</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.892</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.897</v>
       </c>
     </row>
   </sheetData>

--- a/plots/results.xlsx
+++ b/plots/results.xlsx
@@ -544,32 +544,30 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>3942</v>
+        <v>5306</v>
       </c>
       <c r="C3" t="n">
-        <v>4135</v>
+        <v>5615</v>
       </c>
       <c r="D3" t="n">
-        <v>4376</v>
+        <v>5899</v>
       </c>
       <c r="E3" t="n">
-        <v>4597</v>
+        <v>6205</v>
       </c>
       <c r="F3" t="n">
-        <v>4836</v>
+        <v>6554</v>
       </c>
       <c r="G3" t="n">
-        <v>5108</v>
+        <v>6864</v>
       </c>
       <c r="H3" t="n">
-        <v>5350</v>
+        <v>7224</v>
       </c>
       <c r="I3" t="n">
-        <v>5631</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5853</v>
-      </c>
+        <v>7509</v>
+      </c>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -642,31 +640,31 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C6" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D6" t="n">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="E6" t="n">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="G6" t="n">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="H6" t="n">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="I6" t="n">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -712,31 +710,31 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C8" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n">
+        <v>111</v>
+      </c>
+      <c r="E8" t="n">
+        <v>120</v>
+      </c>
+      <c r="F8" t="n">
+        <v>158</v>
+      </c>
+      <c r="G8" t="n">
+        <v>138</v>
+      </c>
+      <c r="H8" t="n">
+        <v>134</v>
+      </c>
+      <c r="I8" t="n">
         <v>101</v>
       </c>
-      <c r="E8" t="n">
-        <v>106</v>
-      </c>
-      <c r="F8" t="n">
-        <v>133</v>
-      </c>
-      <c r="G8" t="n">
-        <v>115</v>
-      </c>
-      <c r="H8" t="n">
-        <v>102</v>
-      </c>
-      <c r="I8" t="n">
-        <v>74</v>
-      </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -756,31 +754,31 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C9" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F9" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G9" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H9" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="I9" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -923,58 +921,58 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>33425</v>
+        <v>71516</v>
       </c>
       <c r="F2" t="n">
-        <v>34557</v>
+        <v>75092</v>
       </c>
       <c r="G2" t="n">
-        <v>35728</v>
+        <v>78847</v>
       </c>
       <c r="H2" t="n">
-        <v>36938</v>
+        <v>82789</v>
       </c>
       <c r="I2" t="n">
-        <v>38189</v>
+        <v>86929</v>
       </c>
       <c r="J2" t="n">
-        <v>39483</v>
+        <v>91275</v>
       </c>
       <c r="K2" t="n">
-        <v>40820</v>
+        <v>95839</v>
       </c>
       <c r="L2" t="n">
-        <v>42203</v>
+        <v>100631</v>
       </c>
       <c r="M2" t="n">
-        <v>43633</v>
+        <v>105662</v>
       </c>
       <c r="N2" t="n">
-        <v>45111</v>
+        <v>110945</v>
       </c>
       <c r="O2" t="n">
-        <v>46639</v>
+        <v>116493</v>
       </c>
       <c r="P2" t="n">
-        <v>48219</v>
+        <v>122317</v>
       </c>
       <c r="Q2" t="n">
-        <v>49852</v>
+        <v>128433</v>
       </c>
       <c r="R2" t="n">
-        <v>51541</v>
+        <v>134855</v>
       </c>
       <c r="S2" t="n">
-        <v>53287</v>
+        <v>141598</v>
       </c>
       <c r="T2" t="n">
-        <v>55092</v>
+        <v>148678</v>
       </c>
       <c r="U2" t="n">
-        <v>56958</v>
+        <v>156111</v>
       </c>
       <c r="V2" t="n">
-        <v>58888</v>
+        <v>163917</v>
       </c>
     </row>
     <row r="3">
@@ -985,58 +983,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1858</v>
+        <v>5403</v>
       </c>
       <c r="F3" t="n">
-        <v>2068</v>
+        <v>5558</v>
       </c>
       <c r="G3" t="n">
-        <v>2284</v>
+        <v>5725</v>
       </c>
       <c r="H3" t="n">
-        <v>2506</v>
+        <v>5895</v>
       </c>
       <c r="I3" t="n">
-        <v>2755</v>
+        <v>6089</v>
       </c>
       <c r="J3" t="n">
-        <v>3049</v>
+        <v>6350</v>
       </c>
       <c r="K3" t="n">
-        <v>3380</v>
+        <v>6698</v>
       </c>
       <c r="L3" t="n">
-        <v>3745</v>
+        <v>7127</v>
       </c>
       <c r="M3" t="n">
-        <v>4141</v>
+        <v>7620</v>
       </c>
       <c r="N3" t="n">
-        <v>4566</v>
+        <v>8178</v>
       </c>
       <c r="O3" t="n">
-        <v>5017</v>
+        <v>8805</v>
       </c>
       <c r="P3" t="n">
-        <v>5492</v>
+        <v>9509</v>
       </c>
       <c r="Q3" t="n">
-        <v>5985</v>
+        <v>10293</v>
       </c>
       <c r="R3" t="n">
-        <v>6495</v>
+        <v>11164</v>
       </c>
       <c r="S3" t="n">
-        <v>7016</v>
+        <v>12133</v>
       </c>
       <c r="T3" t="n">
-        <v>7546</v>
+        <v>13209</v>
       </c>
       <c r="U3" t="n">
-        <v>8081</v>
+        <v>14402</v>
       </c>
       <c r="V3" t="n">
-        <v>8619</v>
+        <v>15721</v>
       </c>
     </row>
     <row r="4">
@@ -1047,58 +1045,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.056</v>
+        <v>0.0755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.074</v>
       </c>
       <c r="G4" t="n">
-        <v>0.064</v>
+        <v>0.0726</v>
       </c>
       <c r="H4" t="n">
-        <v>0.068</v>
+        <v>0.0712</v>
       </c>
       <c r="I4" t="n">
-        <v>0.072</v>
+        <v>0.07</v>
       </c>
       <c r="J4" t="n">
-        <v>0.077</v>
+        <v>0.0696</v>
       </c>
       <c r="K4" t="n">
-        <v>0.083</v>
+        <v>0.0699</v>
       </c>
       <c r="L4" t="n">
-        <v>0.089</v>
+        <v>0.0708</v>
       </c>
       <c r="M4" t="n">
-        <v>0.095</v>
+        <v>0.0721</v>
       </c>
       <c r="N4" t="n">
-        <v>0.101</v>
+        <v>0.0737</v>
       </c>
       <c r="O4" t="n">
-        <v>0.108</v>
+        <v>0.0756</v>
       </c>
       <c r="P4" t="n">
-        <v>0.114</v>
+        <v>0.0777</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.12</v>
+        <v>0.0801</v>
       </c>
       <c r="R4" t="n">
-        <v>0.126</v>
+        <v>0.0828</v>
       </c>
       <c r="S4" t="n">
-        <v>0.132</v>
+        <v>0.0857</v>
       </c>
       <c r="T4" t="n">
-        <v>0.137</v>
+        <v>0.0888</v>
       </c>
       <c r="U4" t="n">
-        <v>0.142</v>
+        <v>0.0923</v>
       </c>
       <c r="V4" t="n">
-        <v>0.146</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="5">
@@ -1171,58 +1169,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F6" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G6" t="n">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="H6" t="n">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="I6" t="n">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="J6" t="n">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="K6" t="n">
-        <v>367</v>
+        <v>448</v>
       </c>
       <c r="L6" t="n">
-        <v>409</v>
+        <v>527</v>
       </c>
       <c r="M6" t="n">
-        <v>449</v>
+        <v>603</v>
       </c>
       <c r="N6" t="n">
-        <v>487</v>
+        <v>680</v>
       </c>
       <c r="O6" t="n">
-        <v>523</v>
+        <v>760</v>
       </c>
       <c r="P6" t="n">
-        <v>556</v>
+        <v>847</v>
       </c>
       <c r="Q6" t="n">
-        <v>586</v>
+        <v>940</v>
       </c>
       <c r="R6" t="n">
-        <v>614</v>
+        <v>1041</v>
       </c>
       <c r="S6" t="n">
-        <v>639</v>
+        <v>1152</v>
       </c>
       <c r="T6" t="n">
-        <v>661</v>
+        <v>1274</v>
       </c>
       <c r="U6" t="n">
-        <v>680</v>
+        <v>1408</v>
       </c>
       <c r="V6" t="n">
-        <v>690</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="7">
@@ -1233,58 +1231,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="F7" t="n">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G7" t="n">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H7" t="n">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="I7" t="n">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="J7" t="n">
-        <v>399</v>
+        <v>484</v>
       </c>
       <c r="K7" t="n">
-        <v>441</v>
+        <v>577</v>
       </c>
       <c r="L7" t="n">
-        <v>481</v>
+        <v>651</v>
       </c>
       <c r="M7" t="n">
-        <v>519</v>
+        <v>727</v>
       </c>
       <c r="N7" t="n">
-        <v>555</v>
+        <v>809</v>
       </c>
       <c r="O7" t="n">
-        <v>588</v>
+        <v>897</v>
       </c>
       <c r="P7" t="n">
-        <v>618</v>
+        <v>994</v>
       </c>
       <c r="Q7" t="n">
-        <v>646</v>
+        <v>1101</v>
       </c>
       <c r="R7" t="n">
-        <v>671</v>
+        <v>1219</v>
       </c>
       <c r="S7" t="n">
-        <v>693</v>
+        <v>1347</v>
       </c>
       <c r="T7" t="n">
-        <v>711</v>
+        <v>1488</v>
       </c>
       <c r="U7" t="n">
-        <v>726</v>
+        <v>1642</v>
       </c>
       <c r="V7" t="n">
-        <v>733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="8">
@@ -1295,58 +1293,58 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F8" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G8" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H8" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I8" t="n">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J8" t="n">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="K8" t="n">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="L8" t="n">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="M8" t="n">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="N8" t="n">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="O8" t="n">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="P8" t="n">
-        <v>251</v>
+        <v>398</v>
       </c>
       <c r="Q8" t="n">
-        <v>263</v>
+        <v>441</v>
       </c>
       <c r="R8" t="n">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="S8" t="n">
-        <v>283</v>
+        <v>541</v>
       </c>
       <c r="T8" t="n">
-        <v>292</v>
+        <v>599</v>
       </c>
       <c r="U8" t="n">
-        <v>299</v>
+        <v>662</v>
       </c>
       <c r="V8" t="n">
-        <v>313</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9">
@@ -1357,58 +1355,58 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F9" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H9" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I9" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="J9" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K9" t="n">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="L9" t="n">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="M9" t="n">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="N9" t="n">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="O9" t="n">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="P9" t="n">
-        <v>306</v>
+        <v>446</v>
       </c>
       <c r="Q9" t="n">
-        <v>324</v>
+        <v>496</v>
       </c>
       <c r="R9" t="n">
-        <v>341</v>
+        <v>550</v>
       </c>
       <c r="S9" t="n">
-        <v>356</v>
+        <v>609</v>
       </c>
       <c r="T9" t="n">
-        <v>370</v>
+        <v>674</v>
       </c>
       <c r="U9" t="n">
-        <v>382</v>
+        <v>745</v>
       </c>
       <c r="V9" t="n">
-        <v>382</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10">
@@ -1419,58 +1417,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.884</v>
+        <v>0.9572</v>
       </c>
       <c r="F10" t="n">
-        <v>0.908</v>
+        <v>0.9633</v>
       </c>
       <c r="G10" t="n">
-        <v>0.918</v>
+        <v>0.9642</v>
       </c>
       <c r="H10" t="n">
-        <v>0.911</v>
+        <v>0.959</v>
       </c>
       <c r="I10" t="n">
+        <v>0.9533</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9464</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9381</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9309</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9257</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9218</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9185</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9157</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.9131</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9107</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9084</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9062</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.904</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.892</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.892</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.896</v>
-      </c>
       <c r="V10" t="n">
-        <v>0.898</v>
+        <v>0.9019</v>
       </c>
     </row>
   </sheetData>
@@ -1560,67 +1558,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>30246</v>
+        <v>61779</v>
       </c>
       <c r="C2" t="n">
-        <v>31270</v>
+        <v>64868</v>
       </c>
       <c r="D2" t="n">
-        <v>32330</v>
+        <v>68111</v>
       </c>
       <c r="E2" t="n">
-        <v>33425</v>
+        <v>71516</v>
       </c>
       <c r="F2" t="n">
-        <v>34557</v>
+        <v>75092</v>
       </c>
       <c r="G2" t="n">
-        <v>35728</v>
+        <v>78847</v>
       </c>
       <c r="H2" t="n">
-        <v>36938</v>
+        <v>82789</v>
       </c>
       <c r="I2" t="n">
-        <v>38189</v>
+        <v>86929</v>
       </c>
       <c r="J2" t="n">
-        <v>39483</v>
+        <v>91275</v>
       </c>
       <c r="K2" t="n">
-        <v>40820</v>
+        <v>95839</v>
       </c>
       <c r="L2" t="n">
-        <v>42203</v>
+        <v>100631</v>
       </c>
       <c r="M2" t="n">
-        <v>43633</v>
+        <v>105662</v>
       </c>
       <c r="N2" t="n">
-        <v>45111</v>
+        <v>110945</v>
       </c>
       <c r="O2" t="n">
-        <v>46639</v>
+        <v>116493</v>
       </c>
       <c r="P2" t="n">
-        <v>48219</v>
+        <v>122317</v>
       </c>
       <c r="Q2" t="n">
-        <v>49852</v>
+        <v>128433</v>
       </c>
       <c r="R2" t="n">
-        <v>51541</v>
+        <v>134855</v>
       </c>
       <c r="S2" t="n">
-        <v>53287</v>
+        <v>141598</v>
       </c>
       <c r="T2" t="n">
-        <v>55092</v>
+        <v>148678</v>
       </c>
       <c r="U2" t="n">
-        <v>56958</v>
+        <v>156111</v>
       </c>
       <c r="V2" t="n">
-        <v>58888</v>
+        <v>163917</v>
       </c>
     </row>
     <row r="3">
@@ -1628,67 +1626,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>1351</v>
+        <v>5100</v>
       </c>
       <c r="C3" t="n">
-        <v>1511</v>
+        <v>5192</v>
       </c>
       <c r="D3" t="n">
-        <v>1675</v>
+        <v>5290</v>
       </c>
       <c r="E3" t="n">
-        <v>1841</v>
+        <v>5391</v>
       </c>
       <c r="F3" t="n">
-        <v>2013</v>
+        <v>5502</v>
       </c>
       <c r="G3" t="n">
-        <v>2180</v>
+        <v>5620</v>
       </c>
       <c r="H3" t="n">
-        <v>2303</v>
+        <v>5716</v>
       </c>
       <c r="I3" t="n">
-        <v>2384</v>
+        <v>5804</v>
       </c>
       <c r="J3" t="n">
-        <v>2461</v>
+        <v>5924</v>
       </c>
       <c r="K3" t="n">
-        <v>2535</v>
+        <v>6086</v>
       </c>
       <c r="L3" t="n">
-        <v>2606</v>
+        <v>6283</v>
       </c>
       <c r="M3" t="n">
-        <v>2679</v>
+        <v>6503</v>
       </c>
       <c r="N3" t="n">
-        <v>2754</v>
+        <v>6746</v>
       </c>
       <c r="O3" t="n">
-        <v>2831</v>
+        <v>7012</v>
       </c>
       <c r="P3" t="n">
-        <v>2910</v>
+        <v>7302</v>
       </c>
       <c r="Q3" t="n">
-        <v>2992</v>
+        <v>7619</v>
       </c>
       <c r="R3" t="n">
-        <v>3074</v>
+        <v>7962</v>
       </c>
       <c r="S3" t="n">
-        <v>3158</v>
+        <v>8336</v>
       </c>
       <c r="T3" t="n">
-        <v>3243</v>
+        <v>8741</v>
       </c>
       <c r="U3" t="n">
-        <v>3328</v>
+        <v>9181</v>
       </c>
       <c r="V3" t="n">
-        <v>3412</v>
+        <v>9658</v>
       </c>
     </row>
     <row r="4">
@@ -1696,67 +1694,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.045</v>
+        <v>0.0826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.048</v>
+        <v>0.08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.052</v>
+        <v>0.0777</v>
       </c>
       <c r="E4" t="n">
-        <v>0.055</v>
+        <v>0.0754</v>
       </c>
       <c r="F4" t="n">
-        <v>0.058</v>
+        <v>0.0733</v>
       </c>
       <c r="G4" t="n">
-        <v>0.061</v>
+        <v>0.0713</v>
       </c>
       <c r="H4" t="n">
-        <v>0.062</v>
+        <v>0.069</v>
       </c>
       <c r="I4" t="n">
-        <v>0.062</v>
+        <v>0.0668</v>
       </c>
       <c r="J4" t="n">
-        <v>0.062</v>
+        <v>0.0649</v>
       </c>
       <c r="K4" t="n">
-        <v>0.062</v>
+        <v>0.0635</v>
       </c>
       <c r="L4" t="n">
-        <v>0.062</v>
+        <v>0.0624</v>
       </c>
       <c r="M4" t="n">
-        <v>0.061</v>
+        <v>0.0615</v>
       </c>
       <c r="N4" t="n">
-        <v>0.061</v>
+        <v>0.0608</v>
       </c>
       <c r="O4" t="n">
-        <v>0.061</v>
+        <v>0.0602</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06</v>
+        <v>0.0597</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06</v>
+        <v>0.0593</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="S4" t="n">
-        <v>0.059</v>
+        <v>0.0589</v>
       </c>
       <c r="T4" t="n">
-        <v>0.059</v>
+        <v>0.0588</v>
       </c>
       <c r="U4" t="n">
-        <v>0.058</v>
+        <v>0.0588</v>
       </c>
       <c r="V4" t="n">
-        <v>0.058</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="5">
@@ -1776,55 +1774,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004</v>
+        <v>0.0019</v>
       </c>
       <c r="H5" t="n">
-        <v>0.082</v>
+        <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.104</v>
+        <v>0.0458</v>
       </c>
       <c r="J5" t="n">
-        <v>0.108</v>
+        <v>0.0467</v>
       </c>
       <c r="K5" t="n">
-        <v>0.118</v>
+        <v>0.0503</v>
       </c>
       <c r="L5" t="n">
-        <v>0.118</v>
+        <v>0.0503</v>
       </c>
       <c r="M5" t="n">
-        <v>0.118</v>
+        <v>0.0502</v>
       </c>
       <c r="N5" t="n">
-        <v>0.118</v>
+        <v>0.0502</v>
       </c>
       <c r="O5" t="n">
-        <v>0.118</v>
+        <v>0.0501</v>
       </c>
       <c r="P5" t="n">
-        <v>0.118</v>
+        <v>0.0501</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.118</v>
+        <v>0.0501</v>
       </c>
       <c r="R5" t="n">
-        <v>0.118</v>
+        <v>0.0501</v>
       </c>
       <c r="S5" t="n">
-        <v>0.118</v>
+        <v>0.0501</v>
       </c>
       <c r="T5" t="n">
-        <v>0.118</v>
+        <v>0.0501</v>
       </c>
       <c r="U5" t="n">
-        <v>0.117</v>
+        <v>0.0501</v>
       </c>
       <c r="V5" t="n">
-        <v>0.117</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="6">
@@ -1832,67 +1830,67 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C6" t="n">
+        <v>218</v>
+      </c>
+      <c r="D6" t="n">
         <v>200</v>
       </c>
-      <c r="D6" t="n">
-        <v>185</v>
-      </c>
       <c r="E6" t="n">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F6" t="n">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G6" t="n">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H6" t="n">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="I6" t="n">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="J6" t="n">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="K6" t="n">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="L6" t="n">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="M6" t="n">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="N6" t="n">
-        <v>130</v>
+        <v>365</v>
       </c>
       <c r="O6" t="n">
-        <v>134</v>
+        <v>394</v>
       </c>
       <c r="P6" t="n">
-        <v>137</v>
+        <v>423</v>
       </c>
       <c r="Q6" t="n">
-        <v>141</v>
+        <v>455</v>
       </c>
       <c r="R6" t="n">
-        <v>144</v>
+        <v>488</v>
       </c>
       <c r="S6" t="n">
-        <v>147</v>
+        <v>524</v>
       </c>
       <c r="T6" t="n">
-        <v>150</v>
+        <v>562</v>
       </c>
       <c r="U6" t="n">
-        <v>152</v>
+        <v>603</v>
       </c>
       <c r="V6" t="n">
-        <v>153</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7">
@@ -1900,67 +1898,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C7" t="n">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D7" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E7" t="n">
+        <v>231</v>
+      </c>
+      <c r="F7" t="n">
+        <v>241</v>
+      </c>
+      <c r="G7" t="n">
+        <v>226</v>
+      </c>
+      <c r="H7" t="n">
         <v>214</v>
       </c>
-      <c r="F7" t="n">
-        <v>215</v>
-      </c>
-      <c r="G7" t="n">
-        <v>179</v>
-      </c>
-      <c r="H7" t="n">
-        <v>134</v>
-      </c>
       <c r="I7" t="n">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="J7" t="n">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="K7" t="n">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="L7" t="n">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="M7" t="n">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="N7" t="n">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="O7" t="n">
-        <v>143</v>
+        <v>447</v>
       </c>
       <c r="P7" t="n">
-        <v>146</v>
+        <v>480</v>
       </c>
       <c r="Q7" t="n">
-        <v>150</v>
+        <v>514</v>
       </c>
       <c r="R7" t="n">
-        <v>153</v>
+        <v>552</v>
       </c>
       <c r="S7" t="n">
-        <v>156</v>
+        <v>592</v>
       </c>
       <c r="T7" t="n">
-        <v>158</v>
+        <v>636</v>
       </c>
       <c r="U7" t="n">
-        <v>160</v>
+        <v>683</v>
       </c>
       <c r="V7" t="n">
-        <v>160</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8">
@@ -1968,67 +1966,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E8" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F8" t="n">
+        <v>124</v>
+      </c>
+      <c r="G8" t="n">
+        <v>105</v>
+      </c>
+      <c r="H8" t="n">
+        <v>90</v>
+      </c>
+      <c r="I8" t="n">
+        <v>96</v>
+      </c>
+      <c r="J8" t="n">
         <v>112</v>
       </c>
-      <c r="G8" t="n">
-        <v>95</v>
-      </c>
-      <c r="H8" t="n">
-        <v>65</v>
-      </c>
-      <c r="I8" t="n">
-        <v>57</v>
-      </c>
-      <c r="J8" t="n">
-        <v>56</v>
-      </c>
       <c r="K8" t="n">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="L8" t="n">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="M8" t="n">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="N8" t="n">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="O8" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="P8" t="n">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="Q8" t="n">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="R8" t="n">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="S8" t="n">
-        <v>65</v>
+        <v>239</v>
       </c>
       <c r="T8" t="n">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="U8" t="n">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="V8" t="n">
-        <v>68</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -2036,67 +2034,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D9" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E9" t="n">
+        <v>114</v>
+      </c>
+      <c r="F9" t="n">
+        <v>112</v>
+      </c>
+      <c r="G9" t="n">
+        <v>97</v>
+      </c>
+      <c r="H9" t="n">
+        <v>96</v>
+      </c>
+      <c r="I9" t="n">
         <v>106</v>
       </c>
-      <c r="F9" t="n">
-        <v>103</v>
-      </c>
-      <c r="G9" t="n">
-        <v>93</v>
-      </c>
-      <c r="H9" t="n">
-        <v>78</v>
-      </c>
-      <c r="I9" t="n">
-        <v>71</v>
-      </c>
       <c r="J9" t="n">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="K9" t="n">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="L9" t="n">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="M9" t="n">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="N9" t="n">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="O9" t="n">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="P9" t="n">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="Q9" t="n">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="R9" t="n">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="S9" t="n">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="T9" t="n">
-        <v>83</v>
+        <v>306</v>
       </c>
       <c r="U9" t="n">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="V9" t="n">
-        <v>86</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10">
@@ -2104,67 +2102,67 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.848</v>
+        <v>0.9537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.866</v>
+        <v>0.9572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.882</v>
+        <v>0.9595</v>
       </c>
       <c r="E10" t="n">
-        <v>0.883</v>
+        <v>0.957</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9</v>
+        <v>0.9602</v>
       </c>
       <c r="G10" t="n">
-        <v>0.907</v>
+        <v>0.9598</v>
       </c>
       <c r="H10" t="n">
-        <v>0.92</v>
+        <v>0.9575</v>
       </c>
       <c r="I10" t="n">
-        <v>0.927</v>
+        <v>0.9541</v>
       </c>
       <c r="J10" t="n">
-        <v>0.93</v>
+        <v>0.9482</v>
       </c>
       <c r="K10" t="n">
-        <v>0.933</v>
+        <v>0.941</v>
       </c>
       <c r="L10" t="n">
-        <v>0.934</v>
+        <v>0.9345</v>
       </c>
       <c r="M10" t="n">
-        <v>0.935</v>
+        <v>0.9298</v>
       </c>
       <c r="N10" t="n">
-        <v>0.935</v>
+        <v>0.9262</v>
       </c>
       <c r="O10" t="n">
-        <v>0.935</v>
+        <v>0.9232</v>
       </c>
       <c r="P10" t="n">
-        <v>0.935</v>
+        <v>0.9207</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.936</v>
+        <v>0.9183</v>
       </c>
       <c r="R10" t="n">
-        <v>0.936</v>
+        <v>0.9161</v>
       </c>
       <c r="S10" t="n">
-        <v>0.936</v>
+        <v>0.914</v>
       </c>
       <c r="T10" t="n">
-        <v>0.936</v>
+        <v>0.912</v>
       </c>
       <c r="U10" t="n">
-        <v>0.937</v>
+        <v>0.9101</v>
       </c>
       <c r="V10" t="n">
-        <v>0.938</v>
+        <v>0.9082</v>
       </c>
     </row>
   </sheetData>
@@ -2254,67 +2252,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>30246</v>
+        <v>55740</v>
       </c>
       <c r="C2" t="n">
-        <v>31270</v>
+        <v>58527</v>
       </c>
       <c r="D2" t="n">
-        <v>32330</v>
+        <v>61454</v>
       </c>
       <c r="E2" t="n">
-        <v>33425</v>
+        <v>64526</v>
       </c>
       <c r="F2" t="n">
-        <v>34557</v>
+        <v>67753</v>
       </c>
       <c r="G2" t="n">
-        <v>35728</v>
+        <v>71140</v>
       </c>
       <c r="H2" t="n">
-        <v>36938</v>
+        <v>74697</v>
       </c>
       <c r="I2" t="n">
-        <v>38189</v>
+        <v>78432</v>
       </c>
       <c r="J2" t="n">
-        <v>39483</v>
+        <v>82354</v>
       </c>
       <c r="K2" t="n">
-        <v>40820</v>
+        <v>86472</v>
       </c>
       <c r="L2" t="n">
-        <v>42203</v>
+        <v>90795</v>
       </c>
       <c r="M2" t="n">
-        <v>43633</v>
+        <v>95335</v>
       </c>
       <c r="N2" t="n">
-        <v>45111</v>
+        <v>100102</v>
       </c>
       <c r="O2" t="n">
-        <v>46639</v>
+        <v>105107</v>
       </c>
       <c r="P2" t="n">
-        <v>48219</v>
+        <v>110362</v>
       </c>
       <c r="Q2" t="n">
-        <v>49852</v>
+        <v>115880</v>
       </c>
       <c r="R2" t="n">
-        <v>51541</v>
+        <v>121674</v>
       </c>
       <c r="S2" t="n">
-        <v>53287</v>
+        <v>127758</v>
       </c>
       <c r="T2" t="n">
-        <v>55092</v>
+        <v>134146</v>
       </c>
       <c r="U2" t="n">
-        <v>56958</v>
+        <v>140853</v>
       </c>
       <c r="V2" t="n">
-        <v>58888</v>
+        <v>147896</v>
       </c>
     </row>
     <row r="3">
@@ -2322,67 +2320,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>1201</v>
+        <v>4327</v>
       </c>
       <c r="C3" t="n">
-        <v>1337</v>
+        <v>4399</v>
       </c>
       <c r="D3" t="n">
-        <v>1466</v>
+        <v>4469</v>
       </c>
       <c r="E3" t="n">
-        <v>1590</v>
+        <v>4541</v>
       </c>
       <c r="F3" t="n">
-        <v>1716</v>
+        <v>4609</v>
       </c>
       <c r="G3" t="n">
-        <v>1838</v>
+        <v>4679</v>
       </c>
       <c r="H3" t="n">
-        <v>1926</v>
+        <v>4738</v>
       </c>
       <c r="I3" t="n">
-        <v>1983</v>
+        <v>4785</v>
       </c>
       <c r="J3" t="n">
-        <v>2036</v>
+        <v>4840</v>
       </c>
       <c r="K3" t="n">
-        <v>2087</v>
+        <v>4919</v>
       </c>
       <c r="L3" t="n">
-        <v>2136</v>
+        <v>5020</v>
       </c>
       <c r="M3" t="n">
-        <v>2187</v>
+        <v>5132</v>
       </c>
       <c r="N3" t="n">
-        <v>2238</v>
+        <v>5255</v>
       </c>
       <c r="O3" t="n">
-        <v>2291</v>
+        <v>5388</v>
       </c>
       <c r="P3" t="n">
-        <v>2344</v>
+        <v>5531</v>
       </c>
       <c r="Q3" t="n">
-        <v>2398</v>
+        <v>5685</v>
       </c>
       <c r="R3" t="n">
-        <v>2452</v>
+        <v>5850</v>
       </c>
       <c r="S3" t="n">
-        <v>2506</v>
+        <v>6026</v>
       </c>
       <c r="T3" t="n">
-        <v>2560</v>
+        <v>6214</v>
       </c>
       <c r="U3" t="n">
-        <v>2613</v>
+        <v>6413</v>
       </c>
       <c r="V3" t="n">
-        <v>2666</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="4">
@@ -2390,67 +2388,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04</v>
+        <v>0.0749</v>
       </c>
       <c r="C4" t="n">
-        <v>0.043</v>
+        <v>0.0726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.045</v>
+        <v>0.0704</v>
       </c>
       <c r="E4" t="n">
-        <v>0.048</v>
+        <v>0.0682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.0663</v>
       </c>
       <c r="G4" t="n">
-        <v>0.051</v>
+        <v>0.0644</v>
       </c>
       <c r="H4" t="n">
-        <v>0.052</v>
+        <v>0.0624</v>
       </c>
       <c r="I4" t="n">
-        <v>0.052</v>
+        <v>0.0602</v>
       </c>
       <c r="J4" t="n">
-        <v>0.052</v>
+        <v>0.0583</v>
       </c>
       <c r="K4" t="n">
-        <v>0.051</v>
+        <v>0.0565</v>
       </c>
       <c r="L4" t="n">
-        <v>0.051</v>
+        <v>0.0547</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05</v>
+        <v>0.0532</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05</v>
+        <v>0.0517</v>
       </c>
       <c r="O4" t="n">
-        <v>0.049</v>
+        <v>0.0503</v>
       </c>
       <c r="P4" t="n">
-        <v>0.049</v>
+        <v>0.0491</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.048</v>
+        <v>0.0481</v>
       </c>
       <c r="R4" t="n">
-        <v>0.048</v>
+        <v>0.0471</v>
       </c>
       <c r="S4" t="n">
-        <v>0.047</v>
+        <v>0.0462</v>
       </c>
       <c r="T4" t="n">
-        <v>0.046</v>
+        <v>0.0454</v>
       </c>
       <c r="U4" t="n">
-        <v>0.046</v>
+        <v>0.0446</v>
       </c>
       <c r="V4" t="n">
-        <v>0.045</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="5">
@@ -2470,55 +2468,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004</v>
+        <v>0.0019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004</v>
+        <v>0.0018</v>
       </c>
       <c r="H5" t="n">
-        <v>0.081</v>
+        <v>0.0336</v>
       </c>
       <c r="I5" t="n">
-        <v>0.103</v>
+        <v>0.0419</v>
       </c>
       <c r="J5" t="n">
-        <v>0.106</v>
+        <v>0.0427</v>
       </c>
       <c r="K5" t="n">
-        <v>0.117</v>
+        <v>0.046</v>
       </c>
       <c r="L5" t="n">
-        <v>0.117</v>
+        <v>0.046</v>
       </c>
       <c r="M5" t="n">
-        <v>0.116</v>
+        <v>0.0459</v>
       </c>
       <c r="N5" t="n">
-        <v>0.116</v>
+        <v>0.0459</v>
       </c>
       <c r="O5" t="n">
-        <v>0.116</v>
+        <v>0.0459</v>
       </c>
       <c r="P5" t="n">
-        <v>0.116</v>
+        <v>0.0458</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.116</v>
+        <v>0.0458</v>
       </c>
       <c r="R5" t="n">
-        <v>0.116</v>
+        <v>0.0458</v>
       </c>
       <c r="S5" t="n">
-        <v>0.116</v>
+        <v>0.0458</v>
       </c>
       <c r="T5" t="n">
-        <v>0.116</v>
+        <v>0.0458</v>
       </c>
       <c r="U5" t="n">
-        <v>0.116</v>
+        <v>0.0458</v>
       </c>
       <c r="V5" t="n">
-        <v>0.116</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="6">
@@ -2526,67 +2524,67 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D6" t="n">
         <v>144</v>
       </c>
       <c r="E6" t="n">
+        <v>165</v>
+      </c>
+      <c r="F6" t="n">
         <v>166</v>
       </c>
-      <c r="F6" t="n">
-        <v>164</v>
-      </c>
       <c r="G6" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I6" t="n">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="J6" t="n">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="K6" t="n">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="L6" t="n">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="M6" t="n">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="N6" t="n">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="O6" t="n">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="P6" t="n">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="Q6" t="n">
-        <v>101</v>
+        <v>253</v>
       </c>
       <c r="R6" t="n">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="S6" t="n">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="T6" t="n">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="U6" t="n">
-        <v>107</v>
+        <v>303</v>
       </c>
       <c r="V6" t="n">
-        <v>106</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7">
@@ -2594,67 +2592,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C7" t="n">
+        <v>154</v>
+      </c>
+      <c r="D7" t="n">
         <v>156</v>
-      </c>
-      <c r="D7" t="n">
-        <v>158</v>
       </c>
       <c r="E7" t="n">
         <v>162</v>
       </c>
       <c r="F7" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G7" t="n">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="I7" t="n">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="J7" t="n">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="K7" t="n">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="L7" t="n">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="M7" t="n">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="N7" t="n">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="O7" t="n">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="P7" t="n">
-        <v>105</v>
+        <v>266</v>
       </c>
       <c r="Q7" t="n">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="R7" t="n">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="S7" t="n">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="T7" t="n">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c r="U7" t="n">
-        <v>111</v>
+        <v>330</v>
       </c>
       <c r="V7" t="n">
-        <v>111</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8">
@@ -2662,67 +2660,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" t="n">
         <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I8" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="J8" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="K8" t="n">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="L8" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="N8" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="O8" t="n">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="P8" t="n">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="Q8" t="n">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="R8" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="S8" t="n">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="T8" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="U8" t="n">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="V8" t="n">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -2730,67 +2728,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
         <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
       </c>
       <c r="G9" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I9" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="J9" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="L9" t="n">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="N9" t="n">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="O9" t="n">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="P9" t="n">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="Q9" t="n">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="R9" t="n">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="S9" t="n">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="T9" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="U9" t="n">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="V9" t="n">
-        <v>60</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -2798,67 +2796,67 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.826</v>
+        <v>0.9418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.847</v>
+        <v>0.9484</v>
       </c>
       <c r="D10" t="n">
-        <v>0.865</v>
+        <v>0.9523</v>
       </c>
       <c r="E10" t="n">
-        <v>0.866</v>
+        <v>0.9497</v>
       </c>
       <c r="F10" t="n">
-        <v>0.885</v>
+        <v>0.9531</v>
       </c>
       <c r="G10" t="n">
-        <v>0.893</v>
+        <v>0.9525</v>
       </c>
       <c r="H10" t="n">
-        <v>0.908</v>
+        <v>0.9491</v>
       </c>
       <c r="I10" t="n">
-        <v>0.917</v>
+        <v>0.9445</v>
       </c>
       <c r="J10" t="n">
-        <v>0.92</v>
+        <v>0.9371</v>
       </c>
       <c r="K10" t="n">
-        <v>0.924</v>
+        <v>0.9279</v>
       </c>
       <c r="L10" t="n">
-        <v>0.926</v>
+        <v>0.9195</v>
       </c>
       <c r="M10" t="n">
-        <v>0.927</v>
+        <v>0.9134</v>
       </c>
       <c r="N10" t="n">
-        <v>0.927</v>
+        <v>0.9088</v>
       </c>
       <c r="O10" t="n">
-        <v>0.928</v>
+        <v>0.905</v>
       </c>
       <c r="P10" t="n">
-        <v>0.928</v>
+        <v>0.9017</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.928</v>
+        <v>0.8987</v>
       </c>
       <c r="R10" t="n">
-        <v>0.928</v>
+        <v>0.896</v>
       </c>
       <c r="S10" t="n">
-        <v>0.929</v>
+        <v>0.8934</v>
       </c>
       <c r="T10" t="n">
-        <v>0.929</v>
+        <v>0.8909</v>
       </c>
       <c r="U10" t="n">
-        <v>0.93</v>
+        <v>0.8886</v>
       </c>
       <c r="V10" t="n">
-        <v>0.93</v>
+        <v>0.8864</v>
       </c>
     </row>
   </sheetData>
@@ -2948,67 +2946,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>30246</v>
+        <v>67846</v>
       </c>
       <c r="C2" t="n">
-        <v>31270</v>
+        <v>71238</v>
       </c>
       <c r="D2" t="n">
-        <v>32330</v>
+        <v>74800</v>
       </c>
       <c r="E2" t="n">
-        <v>33425</v>
+        <v>78540</v>
       </c>
       <c r="F2" t="n">
-        <v>34557</v>
+        <v>82467</v>
       </c>
       <c r="G2" t="n">
-        <v>35728</v>
+        <v>86590</v>
       </c>
       <c r="H2" t="n">
-        <v>36938</v>
+        <v>90920</v>
       </c>
       <c r="I2" t="n">
-        <v>38189</v>
+        <v>95466</v>
       </c>
       <c r="J2" t="n">
-        <v>39483</v>
+        <v>100239</v>
       </c>
       <c r="K2" t="n">
-        <v>40820</v>
+        <v>105251</v>
       </c>
       <c r="L2" t="n">
-        <v>42203</v>
+        <v>110514</v>
       </c>
       <c r="M2" t="n">
-        <v>43633</v>
+        <v>116039</v>
       </c>
       <c r="N2" t="n">
-        <v>45111</v>
+        <v>121841</v>
       </c>
       <c r="O2" t="n">
-        <v>46639</v>
+        <v>127933</v>
       </c>
       <c r="P2" t="n">
-        <v>48219</v>
+        <v>134330</v>
       </c>
       <c r="Q2" t="n">
-        <v>49852</v>
+        <v>141046</v>
       </c>
       <c r="R2" t="n">
-        <v>51541</v>
+        <v>148099</v>
       </c>
       <c r="S2" t="n">
-        <v>53287</v>
+        <v>155504</v>
       </c>
       <c r="T2" t="n">
-        <v>55092</v>
+        <v>163279</v>
       </c>
       <c r="U2" t="n">
-        <v>56958</v>
+        <v>171443</v>
       </c>
       <c r="V2" t="n">
-        <v>58888</v>
+        <v>180015</v>
       </c>
     </row>
     <row r="3">
@@ -3016,67 +3014,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>1499</v>
+        <v>5978</v>
       </c>
       <c r="C3" t="n">
-        <v>1691</v>
+        <v>6112</v>
       </c>
       <c r="D3" t="n">
-        <v>1908</v>
+        <v>6258</v>
       </c>
       <c r="E3" t="n">
-        <v>2135</v>
+        <v>6398</v>
       </c>
       <c r="F3" t="n">
-        <v>2374</v>
+        <v>6567</v>
       </c>
       <c r="G3" t="n">
-        <v>2610</v>
+        <v>6744</v>
       </c>
       <c r="H3" t="n">
-        <v>2786</v>
+        <v>6904</v>
       </c>
       <c r="I3" t="n">
-        <v>2903</v>
+        <v>7056</v>
       </c>
       <c r="J3" t="n">
-        <v>3015</v>
+        <v>7258</v>
       </c>
       <c r="K3" t="n">
-        <v>3121</v>
+        <v>7527</v>
       </c>
       <c r="L3" t="n">
-        <v>3224</v>
+        <v>7854</v>
       </c>
       <c r="M3" t="n">
-        <v>3329</v>
+        <v>8222</v>
       </c>
       <c r="N3" t="n">
-        <v>3438</v>
+        <v>8631</v>
       </c>
       <c r="O3" t="n">
-        <v>3549</v>
+        <v>9084</v>
       </c>
       <c r="P3" t="n">
-        <v>3665</v>
+        <v>9583</v>
       </c>
       <c r="Q3" t="n">
-        <v>3783</v>
+        <v>10131</v>
       </c>
       <c r="R3" t="n">
-        <v>3905</v>
+        <v>10733</v>
       </c>
       <c r="S3" t="n">
-        <v>4029</v>
+        <v>11394</v>
       </c>
       <c r="T3" t="n">
-        <v>4155</v>
+        <v>12119</v>
       </c>
       <c r="U3" t="n">
-        <v>4282</v>
+        <v>12914</v>
       </c>
       <c r="V3" t="n">
-        <v>4410</v>
+        <v>13821</v>
       </c>
     </row>
     <row r="4">
@@ -3084,67 +3082,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.0909</v>
       </c>
       <c r="C4" t="n">
-        <v>0.054</v>
+        <v>0.0882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.059</v>
+        <v>0.0859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.064</v>
+        <v>0.0838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.069</v>
+        <v>0.0817</v>
       </c>
       <c r="G4" t="n">
-        <v>0.073</v>
+        <v>0.0796</v>
       </c>
       <c r="H4" t="n">
-        <v>0.075</v>
+        <v>0.0773</v>
       </c>
       <c r="I4" t="n">
-        <v>0.076</v>
+        <v>0.0749</v>
       </c>
       <c r="J4" t="n">
-        <v>0.076</v>
+        <v>0.0732</v>
       </c>
       <c r="K4" t="n">
-        <v>0.076</v>
+        <v>0.0723</v>
       </c>
       <c r="L4" t="n">
-        <v>0.076</v>
+        <v>0.0718</v>
       </c>
       <c r="M4" t="n">
-        <v>0.076</v>
+        <v>0.0716</v>
       </c>
       <c r="N4" t="n">
-        <v>0.076</v>
+        <v>0.0716</v>
       </c>
       <c r="O4" t="n">
-        <v>0.076</v>
+        <v>0.0718</v>
       </c>
       <c r="P4" t="n">
-        <v>0.076</v>
+        <v>0.0721</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.076</v>
+        <v>0.0726</v>
       </c>
       <c r="R4" t="n">
-        <v>0.076</v>
+        <v>0.0732</v>
       </c>
       <c r="S4" t="n">
-        <v>0.076</v>
+        <v>0.074</v>
       </c>
       <c r="T4" t="n">
         <v>0.075</v>
       </c>
       <c r="U4" t="n">
-        <v>0.075</v>
+        <v>0.0764</v>
       </c>
       <c r="V4" t="n">
-        <v>0.075</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="5">
@@ -3164,55 +3162,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004</v>
+        <v>0.0023</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004</v>
+        <v>0.0021</v>
       </c>
       <c r="H5" t="n">
-        <v>0.083</v>
+        <v>0.0404</v>
       </c>
       <c r="I5" t="n">
-        <v>0.105</v>
+        <v>0.0504</v>
       </c>
       <c r="J5" t="n">
-        <v>0.109</v>
+        <v>0.0513</v>
       </c>
       <c r="K5" t="n">
-        <v>0.12</v>
+        <v>0.0552</v>
       </c>
       <c r="L5" t="n">
-        <v>0.12</v>
+        <v>0.0551</v>
       </c>
       <c r="M5" t="n">
-        <v>0.12</v>
+        <v>0.055</v>
       </c>
       <c r="N5" t="n">
-        <v>0.12</v>
+        <v>0.055</v>
       </c>
       <c r="O5" t="n">
-        <v>0.12</v>
+        <v>0.0549</v>
       </c>
       <c r="P5" t="n">
-        <v>0.12</v>
+        <v>0.0548</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.12</v>
+        <v>0.0548</v>
       </c>
       <c r="R5" t="n">
-        <v>0.12</v>
+        <v>0.0547</v>
       </c>
       <c r="S5" t="n">
-        <v>0.12</v>
+        <v>0.0546</v>
       </c>
       <c r="T5" t="n">
-        <v>0.12</v>
+        <v>0.0546</v>
       </c>
       <c r="U5" t="n">
-        <v>0.12</v>
+        <v>0.0546</v>
       </c>
       <c r="V5" t="n">
-        <v>0.12</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="6">
@@ -3220,67 +3218,67 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="C6" t="n">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="D6" t="n">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="E6" t="n">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="F6" t="n">
+        <v>322</v>
+      </c>
+      <c r="G6" t="n">
+        <v>277</v>
+      </c>
+      <c r="H6" t="n">
+        <v>260</v>
+      </c>
+      <c r="I6" t="n">
         <v>287</v>
       </c>
-      <c r="G6" t="n">
-        <v>254</v>
-      </c>
-      <c r="H6" t="n">
-        <v>192</v>
-      </c>
-      <c r="I6" t="n">
-        <v>172</v>
-      </c>
       <c r="J6" t="n">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>166</v>
+        <v>397</v>
       </c>
       <c r="L6" t="n">
-        <v>168</v>
+        <v>457</v>
       </c>
       <c r="M6" t="n">
-        <v>172</v>
+        <v>512</v>
       </c>
       <c r="N6" t="n">
-        <v>177</v>
+        <v>567</v>
       </c>
       <c r="O6" t="n">
-        <v>182</v>
+        <v>623</v>
       </c>
       <c r="P6" t="n">
-        <v>188</v>
+        <v>682</v>
       </c>
       <c r="Q6" t="n">
-        <v>193</v>
+        <v>746</v>
       </c>
       <c r="R6" t="n">
-        <v>199</v>
+        <v>815</v>
       </c>
       <c r="S6" t="n">
-        <v>205</v>
+        <v>891</v>
       </c>
       <c r="T6" t="n">
-        <v>211</v>
+        <v>973</v>
       </c>
       <c r="U6" t="n">
-        <v>216</v>
+        <v>1060</v>
       </c>
       <c r="V6" t="n">
-        <v>219</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="7">
@@ -3288,67 +3286,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="C7" t="n">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D7" t="n">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="E7" t="n">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="F7" t="n">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="G7" t="n">
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="H7" t="n">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="I7" t="n">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="J7" t="n">
-        <v>174</v>
+        <v>429</v>
       </c>
       <c r="K7" t="n">
-        <v>173</v>
+        <v>499</v>
       </c>
       <c r="L7" t="n">
-        <v>178</v>
+        <v>551</v>
       </c>
       <c r="M7" t="n">
-        <v>183</v>
+        <v>605</v>
       </c>
       <c r="N7" t="n">
-        <v>189</v>
+        <v>661</v>
       </c>
       <c r="O7" t="n">
-        <v>195</v>
+        <v>723</v>
       </c>
       <c r="P7" t="n">
-        <v>202</v>
+        <v>789</v>
       </c>
       <c r="Q7" t="n">
-        <v>208</v>
+        <v>862</v>
       </c>
       <c r="R7" t="n">
-        <v>214</v>
+        <v>942</v>
       </c>
       <c r="S7" t="n">
-        <v>220</v>
+        <v>1027</v>
       </c>
       <c r="T7" t="n">
-        <v>225</v>
+        <v>1118</v>
       </c>
       <c r="U7" t="n">
-        <v>228</v>
+        <v>1217</v>
       </c>
       <c r="V7" t="n">
-        <v>230</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="8">
@@ -3356,67 +3354,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C8" t="n">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D8" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E8" t="n">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F8" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G8" t="n">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H8" t="n">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="I8" t="n">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="J8" t="n">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="K8" t="n">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="L8" t="n">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="N8" t="n">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="O8" t="n">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="P8" t="n">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="Q8" t="n">
-        <v>87</v>
+        <v>345</v>
       </c>
       <c r="R8" t="n">
-        <v>89</v>
+        <v>377</v>
       </c>
       <c r="S8" t="n">
-        <v>91</v>
+        <v>412</v>
       </c>
       <c r="T8" t="n">
-        <v>93</v>
+        <v>450</v>
       </c>
       <c r="U8" t="n">
-        <v>95</v>
+        <v>492</v>
       </c>
       <c r="V8" t="n">
-        <v>94</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9">
@@ -3424,67 +3422,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="C9" t="n">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D9" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="F9" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G9" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H9" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="I9" t="n">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="J9" t="n">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K9" t="n">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="L9" t="n">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="M9" t="n">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="N9" t="n">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="O9" t="n">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="P9" t="n">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="Q9" t="n">
-        <v>107</v>
+        <v>401</v>
       </c>
       <c r="R9" t="n">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="S9" t="n">
-        <v>114</v>
+        <v>479</v>
       </c>
       <c r="T9" t="n">
-        <v>117</v>
+        <v>522</v>
       </c>
       <c r="U9" t="n">
-        <v>119</v>
+        <v>568</v>
       </c>
       <c r="V9" t="n">
-        <v>122</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10">
@@ -3492,67 +3490,67 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.865</v>
+        <v>0.9645</v>
       </c>
       <c r="C10" t="n">
-        <v>0.88</v>
+        <v>0.9645</v>
       </c>
       <c r="D10" t="n">
-        <v>0.895</v>
+        <v>0.967</v>
       </c>
       <c r="E10" t="n">
-        <v>0.896</v>
+        <v>0.9656</v>
       </c>
       <c r="F10" t="n">
-        <v>0.911</v>
+        <v>0.9686</v>
       </c>
       <c r="G10" t="n">
-        <v>0.917</v>
+        <v>0.9684</v>
       </c>
       <c r="H10" t="n">
-        <v>0.928</v>
+        <v>0.967</v>
       </c>
       <c r="I10" t="n">
-        <v>0.935</v>
+        <v>0.9648</v>
       </c>
       <c r="J10" t="n">
-        <v>0.937</v>
+        <v>0.9607</v>
       </c>
       <c r="K10" t="n">
+        <v>0.9555</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9509</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9477</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9453</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9434</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9418</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.9403</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.939</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.942</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.942</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.942</v>
-      </c>
       <c r="S10" t="n">
-        <v>0.942</v>
+        <v>0.9377</v>
       </c>
       <c r="T10" t="n">
-        <v>0.943</v>
+        <v>0.9366</v>
       </c>
       <c r="U10" t="n">
-        <v>0.943</v>
+        <v>0.9356</v>
       </c>
       <c r="V10" t="n">
-        <v>0.944</v>
+        <v>0.9347</v>
       </c>
     </row>
   </sheetData>
@@ -3645,58 +3643,58 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>33425</v>
+        <v>71516</v>
       </c>
       <c r="F2" t="n">
-        <v>34557</v>
+        <v>75092</v>
       </c>
       <c r="G2" t="n">
-        <v>35728</v>
+        <v>78847</v>
       </c>
       <c r="H2" t="n">
-        <v>36938</v>
+        <v>82789</v>
       </c>
       <c r="I2" t="n">
-        <v>38189</v>
+        <v>86929</v>
       </c>
       <c r="J2" t="n">
-        <v>39483</v>
+        <v>91275</v>
       </c>
       <c r="K2" t="n">
-        <v>40820</v>
+        <v>95839</v>
       </c>
       <c r="L2" t="n">
-        <v>42203</v>
+        <v>100631</v>
       </c>
       <c r="M2" t="n">
-        <v>43633</v>
+        <v>105662</v>
       </c>
       <c r="N2" t="n">
-        <v>45111</v>
+        <v>110945</v>
       </c>
       <c r="O2" t="n">
-        <v>46639</v>
+        <v>116493</v>
       </c>
       <c r="P2" t="n">
-        <v>48219</v>
+        <v>122317</v>
       </c>
       <c r="Q2" t="n">
-        <v>49852</v>
+        <v>128433</v>
       </c>
       <c r="R2" t="n">
-        <v>51541</v>
+        <v>134855</v>
       </c>
       <c r="S2" t="n">
-        <v>53287</v>
+        <v>141598</v>
       </c>
       <c r="T2" t="n">
-        <v>55092</v>
+        <v>148678</v>
       </c>
       <c r="U2" t="n">
-        <v>56958</v>
+        <v>156111</v>
       </c>
       <c r="V2" t="n">
-        <v>58888</v>
+        <v>163917</v>
       </c>
     </row>
     <row r="3">
@@ -3707,58 +3705,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1855</v>
+        <v>5400</v>
       </c>
       <c r="F3" t="n">
-        <v>2020</v>
+        <v>5501</v>
       </c>
       <c r="G3" t="n">
-        <v>2202</v>
+        <v>5639</v>
       </c>
       <c r="H3" t="n">
-        <v>2373</v>
+        <v>5808</v>
       </c>
       <c r="I3" t="n">
-        <v>2520</v>
+        <v>6016</v>
       </c>
       <c r="J3" t="n">
-        <v>2676</v>
+        <v>6298</v>
       </c>
       <c r="K3" t="n">
-        <v>2839</v>
+        <v>6677</v>
       </c>
       <c r="L3" t="n">
-        <v>3012</v>
+        <v>7148</v>
       </c>
       <c r="M3" t="n">
-        <v>3203</v>
+        <v>7700</v>
       </c>
       <c r="N3" t="n">
-        <v>3414</v>
+        <v>8341</v>
       </c>
       <c r="O3" t="n">
-        <v>3648</v>
+        <v>9084</v>
       </c>
       <c r="P3" t="n">
-        <v>3907</v>
+        <v>9943</v>
       </c>
       <c r="Q3" t="n">
-        <v>4194</v>
+        <v>10936</v>
       </c>
       <c r="R3" t="n">
-        <v>4512</v>
+        <v>12086</v>
       </c>
       <c r="S3" t="n">
-        <v>4863</v>
+        <v>13415</v>
       </c>
       <c r="T3" t="n">
-        <v>5252</v>
+        <v>14949</v>
       </c>
       <c r="U3" t="n">
-        <v>5681</v>
+        <v>16718</v>
       </c>
       <c r="V3" t="n">
-        <v>6155</v>
+        <v>18751</v>
       </c>
     </row>
     <row r="4">
@@ -3769,58 +3767,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.056</v>
+        <v>0.0755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.058</v>
+        <v>0.0733</v>
       </c>
       <c r="G4" t="n">
-        <v>0.062</v>
+        <v>0.0715</v>
       </c>
       <c r="H4" t="n">
-        <v>0.064</v>
+        <v>0.0702</v>
       </c>
       <c r="I4" t="n">
-        <v>0.066</v>
+        <v>0.0692</v>
       </c>
       <c r="J4" t="n">
-        <v>0.068</v>
+        <v>0.069</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07</v>
+        <v>0.0697</v>
       </c>
       <c r="L4" t="n">
         <v>0.071</v>
       </c>
       <c r="M4" t="n">
-        <v>0.073</v>
+        <v>0.0729</v>
       </c>
       <c r="N4" t="n">
-        <v>0.076</v>
+        <v>0.0752</v>
       </c>
       <c r="O4" t="n">
         <v>0.078</v>
       </c>
       <c r="P4" t="n">
-        <v>0.081</v>
+        <v>0.0813</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.084</v>
+        <v>0.0852</v>
       </c>
       <c r="R4" t="n">
-        <v>0.088</v>
+        <v>0.0896</v>
       </c>
       <c r="S4" t="n">
-        <v>0.091</v>
+        <v>0.0947</v>
       </c>
       <c r="T4" t="n">
-        <v>0.095</v>
+        <v>0.1005</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1</v>
+        <v>0.1071</v>
       </c>
       <c r="V4" t="n">
-        <v>0.105</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="5">
@@ -3834,55 +3832,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004</v>
+        <v>0.0019</v>
       </c>
       <c r="H5" t="n">
-        <v>0.082</v>
+        <v>0.0368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.104</v>
+        <v>0.046</v>
       </c>
       <c r="J5" t="n">
-        <v>0.108</v>
+        <v>0.0469</v>
       </c>
       <c r="K5" t="n">
-        <v>0.119</v>
+        <v>0.0506</v>
       </c>
       <c r="L5" t="n">
-        <v>0.119</v>
+        <v>0.0507</v>
       </c>
       <c r="M5" t="n">
-        <v>0.119</v>
+        <v>0.0508</v>
       </c>
       <c r="N5" t="n">
-        <v>0.12</v>
+        <v>0.0509</v>
       </c>
       <c r="O5" t="n">
-        <v>0.12</v>
+        <v>0.0511</v>
       </c>
       <c r="P5" t="n">
-        <v>0.12</v>
+        <v>0.0513</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.121</v>
+        <v>0.0515</v>
       </c>
       <c r="R5" t="n">
-        <v>0.121</v>
+        <v>0.0517</v>
       </c>
       <c r="S5" t="n">
-        <v>0.122</v>
+        <v>0.052</v>
       </c>
       <c r="T5" t="n">
-        <v>0.122</v>
+        <v>0.0524</v>
       </c>
       <c r="U5" t="n">
-        <v>0.123</v>
+        <v>0.0528</v>
       </c>
       <c r="V5" t="n">
-        <v>0.124</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="6">
@@ -3893,58 +3891,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F6" t="n">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="G6" t="n">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H6" t="n">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="I6" t="n">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K6" t="n">
-        <v>209</v>
+        <v>470</v>
       </c>
       <c r="L6" t="n">
-        <v>225</v>
+        <v>562</v>
       </c>
       <c r="M6" t="n">
-        <v>245</v>
+        <v>656</v>
       </c>
       <c r="N6" t="n">
-        <v>268</v>
+        <v>755</v>
       </c>
       <c r="O6" t="n">
-        <v>294</v>
+        <v>866</v>
       </c>
       <c r="P6" t="n">
-        <v>323</v>
+        <v>992</v>
       </c>
       <c r="Q6" t="n">
-        <v>354</v>
+        <v>1136</v>
       </c>
       <c r="R6" t="n">
-        <v>389</v>
+        <v>1302</v>
       </c>
       <c r="S6" t="n">
-        <v>428</v>
+        <v>1493</v>
       </c>
       <c r="T6" t="n">
-        <v>471</v>
+        <v>1713</v>
       </c>
       <c r="U6" t="n">
-        <v>517</v>
+        <v>1964</v>
       </c>
       <c r="V6" t="n">
-        <v>544</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="7">
@@ -3955,58 +3953,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F7" t="n">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="G7" t="n">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="H7" t="n">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="I7" t="n">
-        <v>212</v>
+        <v>411</v>
       </c>
       <c r="J7" t="n">
-        <v>224</v>
+        <v>514</v>
       </c>
       <c r="K7" t="n">
-        <v>237</v>
+        <v>618</v>
       </c>
       <c r="L7" t="n">
-        <v>258</v>
+        <v>709</v>
       </c>
       <c r="M7" t="n">
-        <v>283</v>
+        <v>811</v>
       </c>
       <c r="N7" t="n">
-        <v>310</v>
+        <v>926</v>
       </c>
       <c r="O7" t="n">
-        <v>341</v>
+        <v>1059</v>
       </c>
       <c r="P7" t="n">
-        <v>374</v>
+        <v>1213</v>
       </c>
       <c r="Q7" t="n">
-        <v>411</v>
+        <v>1390</v>
       </c>
       <c r="R7" t="n">
-        <v>452</v>
+        <v>1595</v>
       </c>
       <c r="S7" t="n">
-        <v>497</v>
+        <v>1830</v>
       </c>
       <c r="T7" t="n">
-        <v>547</v>
+        <v>2098</v>
       </c>
       <c r="U7" t="n">
-        <v>601</v>
+        <v>2402</v>
       </c>
       <c r="V7" t="n">
-        <v>632</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="8">
@@ -4017,58 +4015,58 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F8" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G8" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="H8" t="n">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="I8" t="n">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="J8" t="n">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="K8" t="n">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="L8" t="n">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="M8" t="n">
-        <v>114</v>
+        <v>315</v>
       </c>
       <c r="N8" t="n">
-        <v>125</v>
+        <v>360</v>
       </c>
       <c r="O8" t="n">
-        <v>137</v>
+        <v>412</v>
       </c>
       <c r="P8" t="n">
-        <v>151</v>
+        <v>471</v>
       </c>
       <c r="Q8" t="n">
-        <v>166</v>
+        <v>540</v>
       </c>
       <c r="R8" t="n">
-        <v>182</v>
+        <v>619</v>
       </c>
       <c r="S8" t="n">
-        <v>200</v>
+        <v>711</v>
       </c>
       <c r="T8" t="n">
-        <v>220</v>
+        <v>815</v>
       </c>
       <c r="U8" t="n">
-        <v>242</v>
+        <v>934</v>
       </c>
       <c r="V8" t="n">
-        <v>255</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="9">
@@ -4079,58 +4077,58 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F9" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G9" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H9" t="n">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="I9" t="n">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="J9" t="n">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="K9" t="n">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="L9" t="n">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="M9" t="n">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="N9" t="n">
-        <v>143</v>
+        <v>395</v>
       </c>
       <c r="O9" t="n">
-        <v>157</v>
+        <v>454</v>
       </c>
       <c r="P9" t="n">
-        <v>172</v>
+        <v>520</v>
       </c>
       <c r="Q9" t="n">
-        <v>189</v>
+        <v>596</v>
       </c>
       <c r="R9" t="n">
-        <v>207</v>
+        <v>683</v>
       </c>
       <c r="S9" t="n">
-        <v>228</v>
+        <v>783</v>
       </c>
       <c r="T9" t="n">
-        <v>250</v>
+        <v>898</v>
       </c>
       <c r="U9" t="n">
-        <v>275</v>
+        <v>1029</v>
       </c>
       <c r="V9" t="n">
-        <v>290</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="10">
@@ -4141,58 +4139,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.883</v>
+        <v>0.9567</v>
       </c>
       <c r="F10" t="n">
-        <v>0.902</v>
+        <v>0.961</v>
       </c>
       <c r="G10" t="n">
-        <v>0.903</v>
+        <v>0.9574</v>
       </c>
       <c r="H10" t="n">
-        <v>0.906</v>
+        <v>0.9478</v>
       </c>
       <c r="I10" t="n">
-        <v>0.905</v>
+        <v>0.9361</v>
       </c>
       <c r="J10" t="n">
-        <v>0.902</v>
+        <v>0.9229</v>
       </c>
       <c r="K10" t="n">
-        <v>0.902</v>
+        <v>0.9087</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9</v>
+        <v>0.8962</v>
       </c>
       <c r="M10" t="n">
-        <v>0.898</v>
+        <v>0.8868</v>
       </c>
       <c r="N10" t="n">
-        <v>0.895</v>
+        <v>0.8793</v>
       </c>
       <c r="O10" t="n">
-        <v>0.893</v>
+        <v>0.8728</v>
       </c>
       <c r="P10" t="n">
-        <v>0.89</v>
+        <v>0.8669</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.887</v>
+        <v>0.8614</v>
       </c>
       <c r="R10" t="n">
-        <v>0.885</v>
+        <v>0.8563</v>
       </c>
       <c r="S10" t="n">
-        <v>0.883</v>
+        <v>0.8516</v>
       </c>
       <c r="T10" t="n">
-        <v>0.881</v>
+        <v>0.8472</v>
       </c>
       <c r="U10" t="n">
-        <v>0.879</v>
+        <v>0.8434</v>
       </c>
       <c r="V10" t="n">
-        <v>0.877</v>
+        <v>0.8401</v>
       </c>
     </row>
   </sheetData>
@@ -4285,58 +4283,58 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>33425</v>
+        <v>71516</v>
       </c>
       <c r="F2" t="n">
-        <v>34557</v>
+        <v>75092</v>
       </c>
       <c r="G2" t="n">
-        <v>35728</v>
+        <v>78847</v>
       </c>
       <c r="H2" t="n">
-        <v>36938</v>
+        <v>82789</v>
       </c>
       <c r="I2" t="n">
-        <v>38189</v>
+        <v>86929</v>
       </c>
       <c r="J2" t="n">
-        <v>39483</v>
+        <v>91275</v>
       </c>
       <c r="K2" t="n">
-        <v>40820</v>
+        <v>95839</v>
       </c>
       <c r="L2" t="n">
-        <v>42203</v>
+        <v>100631</v>
       </c>
       <c r="M2" t="n">
-        <v>43633</v>
+        <v>105662</v>
       </c>
       <c r="N2" t="n">
-        <v>45111</v>
+        <v>110945</v>
       </c>
       <c r="O2" t="n">
-        <v>46639</v>
+        <v>116493</v>
       </c>
       <c r="P2" t="n">
-        <v>48219</v>
+        <v>122317</v>
       </c>
       <c r="Q2" t="n">
-        <v>49852</v>
+        <v>128433</v>
       </c>
       <c r="R2" t="n">
-        <v>51541</v>
+        <v>134855</v>
       </c>
       <c r="S2" t="n">
-        <v>53287</v>
+        <v>141598</v>
       </c>
       <c r="T2" t="n">
-        <v>55092</v>
+        <v>148678</v>
       </c>
       <c r="U2" t="n">
-        <v>56958</v>
+        <v>156111</v>
       </c>
       <c r="V2" t="n">
-        <v>58888</v>
+        <v>163917</v>
       </c>
     </row>
     <row r="3">
@@ -4347,58 +4345,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1854</v>
+        <v>5397</v>
       </c>
       <c r="F3" t="n">
-        <v>1993</v>
+        <v>5470</v>
       </c>
       <c r="G3" t="n">
-        <v>2144</v>
+        <v>5572</v>
       </c>
       <c r="H3" t="n">
-        <v>2282</v>
+        <v>5700</v>
       </c>
       <c r="I3" t="n">
-        <v>2401</v>
+        <v>5859</v>
       </c>
       <c r="J3" t="n">
-        <v>2525</v>
+        <v>6076</v>
       </c>
       <c r="K3" t="n">
-        <v>2656</v>
+        <v>6371</v>
       </c>
       <c r="L3" t="n">
-        <v>2794</v>
+        <v>6736</v>
       </c>
       <c r="M3" t="n">
-        <v>2946</v>
+        <v>7162</v>
       </c>
       <c r="N3" t="n">
-        <v>3115</v>
+        <v>7655</v>
       </c>
       <c r="O3" t="n">
-        <v>3301</v>
+        <v>8224</v>
       </c>
       <c r="P3" t="n">
-        <v>3508</v>
+        <v>8880</v>
       </c>
       <c r="Q3" t="n">
-        <v>3736</v>
+        <v>9637</v>
       </c>
       <c r="R3" t="n">
-        <v>3990</v>
+        <v>10512</v>
       </c>
       <c r="S3" t="n">
-        <v>4271</v>
+        <v>11523</v>
       </c>
       <c r="T3" t="n">
-        <v>4582</v>
+        <v>12694</v>
       </c>
       <c r="U3" t="n">
-        <v>4928</v>
+        <v>14050</v>
       </c>
       <c r="V3" t="n">
-        <v>5310</v>
+        <v>15620</v>
       </c>
     </row>
     <row r="4">
@@ -4409,58 +4407,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.055</v>
+        <v>0.0755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.058</v>
+        <v>0.0728</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06</v>
+        <v>0.0707</v>
       </c>
       <c r="H4" t="n">
-        <v>0.062</v>
+        <v>0.0689</v>
       </c>
       <c r="I4" t="n">
-        <v>0.063</v>
+        <v>0.0674</v>
       </c>
       <c r="J4" t="n">
-        <v>0.064</v>
+        <v>0.0666</v>
       </c>
       <c r="K4" t="n">
-        <v>0.065</v>
+        <v>0.0665</v>
       </c>
       <c r="L4" t="n">
-        <v>0.066</v>
+        <v>0.0669</v>
       </c>
       <c r="M4" t="n">
-        <v>0.068</v>
+        <v>0.0678</v>
       </c>
       <c r="N4" t="n">
         <v>0.069</v>
       </c>
       <c r="O4" t="n">
-        <v>0.071</v>
+        <v>0.0706</v>
       </c>
       <c r="P4" t="n">
-        <v>0.073</v>
+        <v>0.0726</v>
       </c>
       <c r="Q4" t="n">
         <v>0.075</v>
       </c>
       <c r="R4" t="n">
-        <v>0.077</v>
+        <v>0.0779</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08</v>
+        <v>0.0814</v>
       </c>
       <c r="T4" t="n">
-        <v>0.083</v>
+        <v>0.0854</v>
       </c>
       <c r="U4" t="n">
-        <v>0.087</v>
+        <v>0.09</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09</v>
+        <v>0.0953</v>
       </c>
     </row>
     <row r="5">
@@ -4474,55 +4472,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004</v>
+        <v>0.0019</v>
       </c>
       <c r="H5" t="n">
-        <v>0.082</v>
+        <v>0.0367</v>
       </c>
       <c r="I5" t="n">
-        <v>0.104</v>
+        <v>0.0459</v>
       </c>
       <c r="J5" t="n">
-        <v>0.108</v>
+        <v>0.0468</v>
       </c>
       <c r="K5" t="n">
-        <v>0.118</v>
+        <v>0.0505</v>
       </c>
       <c r="L5" t="n">
-        <v>0.118</v>
+        <v>0.0505</v>
       </c>
       <c r="M5" t="n">
-        <v>0.119</v>
+        <v>0.0505</v>
       </c>
       <c r="N5" t="n">
-        <v>0.119</v>
+        <v>0.0506</v>
       </c>
       <c r="O5" t="n">
-        <v>0.119</v>
+        <v>0.0507</v>
       </c>
       <c r="P5" t="n">
-        <v>0.119</v>
+        <v>0.0508</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.12</v>
+        <v>0.0509</v>
       </c>
       <c r="R5" t="n">
-        <v>0.12</v>
+        <v>0.0511</v>
       </c>
       <c r="S5" t="n">
-        <v>0.12</v>
+        <v>0.0513</v>
       </c>
       <c r="T5" t="n">
-        <v>0.121</v>
+        <v>0.0515</v>
       </c>
       <c r="U5" t="n">
-        <v>0.121</v>
+        <v>0.0518</v>
       </c>
       <c r="V5" t="n">
-        <v>0.122</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="6">
@@ -4533,58 +4531,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F6" t="n">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G6" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="H6" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="I6" t="n">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="J6" t="n">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c r="K6" t="n">
-        <v>176</v>
+        <v>387</v>
       </c>
       <c r="L6" t="n">
-        <v>189</v>
+        <v>458</v>
       </c>
       <c r="M6" t="n">
-        <v>205</v>
+        <v>529</v>
       </c>
       <c r="N6" t="n">
-        <v>223</v>
+        <v>604</v>
       </c>
       <c r="O6" t="n">
-        <v>243</v>
+        <v>687</v>
       </c>
       <c r="P6" t="n">
-        <v>266</v>
+        <v>782</v>
       </c>
       <c r="Q6" t="n">
-        <v>291</v>
+        <v>890</v>
       </c>
       <c r="R6" t="n">
-        <v>320</v>
+        <v>1015</v>
       </c>
       <c r="S6" t="n">
-        <v>351</v>
+        <v>1160</v>
       </c>
       <c r="T6" t="n">
-        <v>386</v>
+        <v>1329</v>
       </c>
       <c r="U6" t="n">
-        <v>425</v>
+        <v>1524</v>
       </c>
       <c r="V6" t="n">
-        <v>446</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="7">
@@ -4595,58 +4593,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F7" t="n">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="G7" t="n">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="H7" t="n">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="I7" t="n">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="J7" t="n">
-        <v>188</v>
+        <v>425</v>
       </c>
       <c r="K7" t="n">
-        <v>198</v>
+        <v>506</v>
       </c>
       <c r="L7" t="n">
-        <v>215</v>
+        <v>575</v>
       </c>
       <c r="M7" t="n">
-        <v>234</v>
+        <v>651</v>
       </c>
       <c r="N7" t="n">
-        <v>256</v>
+        <v>738</v>
       </c>
       <c r="O7" t="n">
-        <v>280</v>
+        <v>838</v>
       </c>
       <c r="P7" t="n">
-        <v>307</v>
+        <v>953</v>
       </c>
       <c r="Q7" t="n">
-        <v>337</v>
+        <v>1087</v>
       </c>
       <c r="R7" t="n">
-        <v>370</v>
+        <v>1243</v>
       </c>
       <c r="S7" t="n">
-        <v>407</v>
+        <v>1424</v>
       </c>
       <c r="T7" t="n">
-        <v>448</v>
+        <v>1634</v>
       </c>
       <c r="U7" t="n">
-        <v>493</v>
+        <v>1877</v>
       </c>
       <c r="V7" t="n">
-        <v>519</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="8">
@@ -4657,58 +4655,58 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G8" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H8" t="n">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I8" t="n">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="J8" t="n">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="K8" t="n">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="L8" t="n">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="M8" t="n">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="N8" t="n">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="O8" t="n">
-        <v>114</v>
+        <v>323</v>
       </c>
       <c r="P8" t="n">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="Q8" t="n">
-        <v>137</v>
+        <v>418</v>
       </c>
       <c r="R8" t="n">
-        <v>150</v>
+        <v>477</v>
       </c>
       <c r="S8" t="n">
-        <v>165</v>
+        <v>546</v>
       </c>
       <c r="T8" t="n">
-        <v>182</v>
+        <v>627</v>
       </c>
       <c r="U8" t="n">
-        <v>200</v>
+        <v>719</v>
       </c>
       <c r="V8" t="n">
-        <v>210</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9">
@@ -4719,58 +4717,58 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H9" t="n">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="I9" t="n">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="K9" t="n">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="L9" t="n">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="M9" t="n">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="N9" t="n">
-        <v>119</v>
+        <v>320</v>
       </c>
       <c r="O9" t="n">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="P9" t="n">
-        <v>141</v>
+        <v>414</v>
       </c>
       <c r="Q9" t="n">
-        <v>155</v>
+        <v>471</v>
       </c>
       <c r="R9" t="n">
-        <v>169</v>
+        <v>537</v>
       </c>
       <c r="S9" t="n">
-        <v>186</v>
+        <v>613</v>
       </c>
       <c r="T9" t="n">
-        <v>204</v>
+        <v>701</v>
       </c>
       <c r="U9" t="n">
-        <v>225</v>
+        <v>803</v>
       </c>
       <c r="V9" t="n">
-        <v>234</v>
+        <v>851</v>
       </c>
     </row>
     <row r="10">
@@ -4781,58 +4779,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.881</v>
+        <v>0.9561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.892</v>
+        <v>0.9571</v>
       </c>
       <c r="G10" t="n">
-        <v>0.89</v>
+        <v>0.9515</v>
       </c>
       <c r="H10" t="n">
-        <v>0.894</v>
+        <v>0.9399</v>
       </c>
       <c r="I10" t="n">
-        <v>0.893</v>
+        <v>0.9261</v>
       </c>
       <c r="J10" t="n">
-        <v>0.889</v>
+        <v>0.9108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.889</v>
+        <v>0.8945</v>
       </c>
       <c r="L10" t="n">
-        <v>0.888</v>
+        <v>0.8803</v>
       </c>
       <c r="M10" t="n">
-        <v>0.886</v>
+        <v>0.8701</v>
       </c>
       <c r="N10" t="n">
-        <v>0.884</v>
+        <v>0.8623</v>
       </c>
       <c r="O10" t="n">
-        <v>0.882</v>
+        <v>0.8558</v>
       </c>
       <c r="P10" t="n">
-        <v>0.88</v>
+        <v>0.8503</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.878</v>
+        <v>0.8456</v>
       </c>
       <c r="R10" t="n">
-        <v>0.876</v>
+        <v>0.8416</v>
       </c>
       <c r="S10" t="n">
-        <v>0.875</v>
+        <v>0.8382</v>
       </c>
       <c r="T10" t="n">
-        <v>0.873</v>
+        <v>0.8354</v>
       </c>
       <c r="U10" t="n">
-        <v>0.872</v>
+        <v>0.8335</v>
       </c>
       <c r="V10" t="n">
-        <v>0.871</v>
+        <v>0.8319</v>
       </c>
     </row>
   </sheetData>
@@ -4925,58 +4923,58 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>33425</v>
+        <v>71516</v>
       </c>
       <c r="F2" t="n">
-        <v>34557</v>
+        <v>75092</v>
       </c>
       <c r="G2" t="n">
-        <v>35728</v>
+        <v>78847</v>
       </c>
       <c r="H2" t="n">
-        <v>36938</v>
+        <v>82789</v>
       </c>
       <c r="I2" t="n">
-        <v>38189</v>
+        <v>86929</v>
       </c>
       <c r="J2" t="n">
-        <v>39483</v>
+        <v>91275</v>
       </c>
       <c r="K2" t="n">
-        <v>40820</v>
+        <v>95839</v>
       </c>
       <c r="L2" t="n">
-        <v>42203</v>
+        <v>100631</v>
       </c>
       <c r="M2" t="n">
-        <v>43633</v>
+        <v>105662</v>
       </c>
       <c r="N2" t="n">
-        <v>45111</v>
+        <v>110945</v>
       </c>
       <c r="O2" t="n">
-        <v>46639</v>
+        <v>116493</v>
       </c>
       <c r="P2" t="n">
-        <v>48219</v>
+        <v>122317</v>
       </c>
       <c r="Q2" t="n">
-        <v>49852</v>
+        <v>128433</v>
       </c>
       <c r="R2" t="n">
-        <v>51541</v>
+        <v>134855</v>
       </c>
       <c r="S2" t="n">
-        <v>53287</v>
+        <v>141598</v>
       </c>
       <c r="T2" t="n">
-        <v>55092</v>
+        <v>148678</v>
       </c>
       <c r="U2" t="n">
-        <v>56958</v>
+        <v>156111</v>
       </c>
       <c r="V2" t="n">
-        <v>58888</v>
+        <v>163917</v>
       </c>
     </row>
     <row r="3">
@@ -4987,58 +4985,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1858</v>
+        <v>5403</v>
       </c>
       <c r="F3" t="n">
-        <v>2056</v>
+        <v>5541</v>
       </c>
       <c r="G3" t="n">
-        <v>2281</v>
+        <v>5726</v>
       </c>
       <c r="H3" t="n">
-        <v>2496</v>
+        <v>5952</v>
       </c>
       <c r="I3" t="n">
-        <v>2683</v>
+        <v>6229</v>
       </c>
       <c r="J3" t="n">
-        <v>2882</v>
+        <v>6601</v>
       </c>
       <c r="K3" t="n">
-        <v>3091</v>
+        <v>7101</v>
       </c>
       <c r="L3" t="n">
-        <v>3313</v>
+        <v>7728</v>
       </c>
       <c r="M3" t="n">
-        <v>3558</v>
+        <v>8465</v>
       </c>
       <c r="N3" t="n">
-        <v>3829</v>
+        <v>9326</v>
       </c>
       <c r="O3" t="n">
-        <v>4128</v>
+        <v>10327</v>
       </c>
       <c r="P3" t="n">
-        <v>4459</v>
+        <v>11487</v>
       </c>
       <c r="Q3" t="n">
-        <v>4825</v>
+        <v>12828</v>
       </c>
       <c r="R3" t="n">
-        <v>5228</v>
+        <v>14375</v>
       </c>
       <c r="S3" t="n">
-        <v>5672</v>
+        <v>16151</v>
       </c>
       <c r="T3" t="n">
-        <v>6159</v>
+        <v>18185</v>
       </c>
       <c r="U3" t="n">
-        <v>6694</v>
+        <v>20499</v>
       </c>
       <c r="V3" t="n">
-        <v>7279</v>
+        <v>23117</v>
       </c>
     </row>
     <row r="4">
@@ -5049,58 +5047,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.056</v>
+        <v>0.0755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.059</v>
+        <v>0.0738</v>
       </c>
       <c r="G4" t="n">
-        <v>0.064</v>
+        <v>0.0726</v>
       </c>
       <c r="H4" t="n">
-        <v>0.068</v>
+        <v>0.0719</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07</v>
+        <v>0.0717</v>
       </c>
       <c r="J4" t="n">
-        <v>0.073</v>
+        <v>0.0723</v>
       </c>
       <c r="K4" t="n">
-        <v>0.076</v>
+        <v>0.0741</v>
       </c>
       <c r="L4" t="n">
-        <v>0.078</v>
+        <v>0.0768</v>
       </c>
       <c r="M4" t="n">
-        <v>0.082</v>
+        <v>0.0801</v>
       </c>
       <c r="N4" t="n">
-        <v>0.085</v>
+        <v>0.0841</v>
       </c>
       <c r="O4" t="n">
-        <v>0.089</v>
+        <v>0.0886</v>
       </c>
       <c r="P4" t="n">
-        <v>0.092</v>
+        <v>0.0939</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.097</v>
+        <v>0.0999</v>
       </c>
       <c r="R4" t="n">
-        <v>0.101</v>
+        <v>0.1066</v>
       </c>
       <c r="S4" t="n">
-        <v>0.106</v>
+        <v>0.1141</v>
       </c>
       <c r="T4" t="n">
-        <v>0.112</v>
+        <v>0.1223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.118</v>
+        <v>0.1313</v>
       </c>
       <c r="V4" t="n">
-        <v>0.124</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="5">
@@ -5114,55 +5112,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="H5" t="n">
-        <v>0.082</v>
+        <v>0.0369</v>
       </c>
       <c r="I5" t="n">
-        <v>0.105</v>
+        <v>0.0461</v>
       </c>
       <c r="J5" t="n">
-        <v>0.109</v>
+        <v>0.0471</v>
       </c>
       <c r="K5" t="n">
-        <v>0.12</v>
+        <v>0.0509</v>
       </c>
       <c r="L5" t="n">
-        <v>0.12</v>
+        <v>0.051</v>
       </c>
       <c r="M5" t="n">
-        <v>0.12</v>
+        <v>0.0512</v>
       </c>
       <c r="N5" t="n">
-        <v>0.121</v>
+        <v>0.0514</v>
       </c>
       <c r="O5" t="n">
-        <v>0.121</v>
+        <v>0.0517</v>
       </c>
       <c r="P5" t="n">
-        <v>0.122</v>
+        <v>0.052</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.122</v>
+        <v>0.0523</v>
       </c>
       <c r="R5" t="n">
-        <v>0.123</v>
+        <v>0.0527</v>
       </c>
       <c r="S5" t="n">
-        <v>0.124</v>
+        <v>0.0532</v>
       </c>
       <c r="T5" t="n">
-        <v>0.125</v>
+        <v>0.0537</v>
       </c>
       <c r="U5" t="n">
-        <v>0.125</v>
+        <v>0.0542</v>
       </c>
       <c r="V5" t="n">
-        <v>0.126</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="6">
@@ -5173,58 +5171,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F6" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G6" t="n">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H6" t="n">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="I6" t="n">
-        <v>222</v>
+        <v>368</v>
       </c>
       <c r="J6" t="n">
-        <v>244</v>
+        <v>468</v>
       </c>
       <c r="K6" t="n">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="L6" t="n">
-        <v>277</v>
+        <v>712</v>
       </c>
       <c r="M6" t="n">
-        <v>303</v>
+        <v>839</v>
       </c>
       <c r="N6" t="n">
-        <v>332</v>
+        <v>975</v>
       </c>
       <c r="O6" t="n">
-        <v>365</v>
+        <v>1127</v>
       </c>
       <c r="P6" t="n">
-        <v>401</v>
+        <v>1299</v>
       </c>
       <c r="Q6" t="n">
-        <v>440</v>
+        <v>1494</v>
       </c>
       <c r="R6" t="n">
-        <v>484</v>
+        <v>1714</v>
       </c>
       <c r="S6" t="n">
-        <v>531</v>
+        <v>1963</v>
       </c>
       <c r="T6" t="n">
-        <v>582</v>
+        <v>2241</v>
       </c>
       <c r="U6" t="n">
-        <v>637</v>
+        <v>2548</v>
       </c>
       <c r="V6" t="n">
-        <v>662</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="7">
@@ -5235,58 +5233,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F7" t="n">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="G7" t="n">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="H7" t="n">
-        <v>245</v>
+        <v>406</v>
       </c>
       <c r="I7" t="n">
-        <v>259</v>
+        <v>504</v>
       </c>
       <c r="J7" t="n">
-        <v>275</v>
+        <v>640</v>
       </c>
       <c r="K7" t="n">
-        <v>291</v>
+        <v>782</v>
       </c>
       <c r="L7" t="n">
-        <v>319</v>
+        <v>907</v>
       </c>
       <c r="M7" t="n">
-        <v>351</v>
+        <v>1047</v>
       </c>
       <c r="N7" t="n">
-        <v>385</v>
+        <v>1206</v>
       </c>
       <c r="O7" t="n">
-        <v>423</v>
+        <v>1387</v>
       </c>
       <c r="P7" t="n">
-        <v>465</v>
+        <v>1594</v>
       </c>
       <c r="Q7" t="n">
-        <v>511</v>
+        <v>1829</v>
       </c>
       <c r="R7" t="n">
-        <v>560</v>
+        <v>2094</v>
       </c>
       <c r="S7" t="n">
-        <v>614</v>
+        <v>2390</v>
       </c>
       <c r="T7" t="n">
-        <v>672</v>
+        <v>2717</v>
       </c>
       <c r="U7" t="n">
-        <v>734</v>
+        <v>3074</v>
       </c>
       <c r="V7" t="n">
-        <v>770</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="8">
@@ -5297,58 +5295,58 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F8" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G8" t="n">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="H8" t="n">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="I8" t="n">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="J8" t="n">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="K8" t="n">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="L8" t="n">
-        <v>129</v>
+        <v>352</v>
       </c>
       <c r="M8" t="n">
-        <v>142</v>
+        <v>409</v>
       </c>
       <c r="N8" t="n">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="O8" t="n">
-        <v>171</v>
+        <v>543</v>
       </c>
       <c r="P8" t="n">
-        <v>188</v>
+        <v>624</v>
       </c>
       <c r="Q8" t="n">
-        <v>206</v>
+        <v>717</v>
       </c>
       <c r="R8" t="n">
-        <v>227</v>
+        <v>822</v>
       </c>
       <c r="S8" t="n">
-        <v>249</v>
+        <v>940</v>
       </c>
       <c r="T8" t="n">
-        <v>273</v>
+        <v>1071</v>
       </c>
       <c r="U8" t="n">
-        <v>298</v>
+        <v>1215</v>
       </c>
       <c r="V8" t="n">
-        <v>312</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="9">
@@ -5359,58 +5357,58 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F9" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G9" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H9" t="n">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="I9" t="n">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="J9" t="n">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="K9" t="n">
-        <v>137</v>
+        <v>290</v>
       </c>
       <c r="L9" t="n">
-        <v>148</v>
+        <v>360</v>
       </c>
       <c r="M9" t="n">
-        <v>161</v>
+        <v>430</v>
       </c>
       <c r="N9" t="n">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="O9" t="n">
-        <v>194</v>
+        <v>584</v>
       </c>
       <c r="P9" t="n">
-        <v>213</v>
+        <v>675</v>
       </c>
       <c r="Q9" t="n">
-        <v>234</v>
+        <v>777</v>
       </c>
       <c r="R9" t="n">
-        <v>257</v>
+        <v>892</v>
       </c>
       <c r="S9" t="n">
-        <v>282</v>
+        <v>1023</v>
       </c>
       <c r="T9" t="n">
-        <v>309</v>
+        <v>1170</v>
       </c>
       <c r="U9" t="n">
-        <v>339</v>
+        <v>1333</v>
       </c>
       <c r="V9" t="n">
-        <v>353</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="10">
@@ -5421,58 +5419,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.884</v>
+        <v>0.9572</v>
       </c>
       <c r="F10" t="n">
-        <v>0.91</v>
+        <v>0.964</v>
       </c>
       <c r="G10" t="n">
-        <v>0.915</v>
+        <v>0.962</v>
       </c>
       <c r="H10" t="n">
-        <v>0.918</v>
+        <v>0.954</v>
       </c>
       <c r="I10" t="n">
-        <v>0.917</v>
+        <v>0.9438</v>
       </c>
       <c r="J10" t="n">
-        <v>0.914</v>
+        <v>0.9323</v>
       </c>
       <c r="K10" t="n">
-        <v>0.913</v>
+        <v>0.9199</v>
       </c>
       <c r="L10" t="n">
-        <v>0.911</v>
+        <v>0.9088</v>
       </c>
       <c r="M10" t="n">
-        <v>0.909</v>
+        <v>0.9003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.906</v>
+        <v>0.8933</v>
       </c>
       <c r="O10" t="n">
-        <v>0.904</v>
+        <v>0.887</v>
       </c>
       <c r="P10" t="n">
-        <v>0.901</v>
+        <v>0.8811</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.898</v>
+        <v>0.8754</v>
       </c>
       <c r="R10" t="n">
-        <v>0.896</v>
+        <v>0.8699</v>
       </c>
       <c r="S10" t="n">
-        <v>0.893</v>
+        <v>0.8645</v>
       </c>
       <c r="T10" t="n">
-        <v>0.89</v>
+        <v>0.8594</v>
       </c>
       <c r="U10" t="n">
-        <v>0.888</v>
+        <v>0.8545</v>
       </c>
       <c r="V10" t="n">
-        <v>0.886</v>
+        <v>0.8501</v>
       </c>
     </row>
   </sheetData>
@@ -5565,58 +5563,58 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>33425</v>
+        <v>71516</v>
       </c>
       <c r="F2" t="n">
-        <v>34557</v>
+        <v>75092</v>
       </c>
       <c r="G2" t="n">
-        <v>35728</v>
+        <v>78847</v>
       </c>
       <c r="H2" t="n">
-        <v>36938</v>
+        <v>82789</v>
       </c>
       <c r="I2" t="n">
-        <v>38189</v>
+        <v>86929</v>
       </c>
       <c r="J2" t="n">
-        <v>39483</v>
+        <v>91275</v>
       </c>
       <c r="K2" t="n">
-        <v>40820</v>
+        <v>95839</v>
       </c>
       <c r="L2" t="n">
-        <v>42203</v>
+        <v>100631</v>
       </c>
       <c r="M2" t="n">
-        <v>43633</v>
+        <v>105662</v>
       </c>
       <c r="N2" t="n">
-        <v>45111</v>
+        <v>110945</v>
       </c>
       <c r="O2" t="n">
-        <v>46639</v>
+        <v>116493</v>
       </c>
       <c r="P2" t="n">
-        <v>48219</v>
+        <v>122317</v>
       </c>
       <c r="Q2" t="n">
-        <v>49852</v>
+        <v>128433</v>
       </c>
       <c r="R2" t="n">
-        <v>51541</v>
+        <v>134855</v>
       </c>
       <c r="S2" t="n">
-        <v>53287</v>
+        <v>141598</v>
       </c>
       <c r="T2" t="n">
-        <v>55092</v>
+        <v>148678</v>
       </c>
       <c r="U2" t="n">
-        <v>56958</v>
+        <v>156111</v>
       </c>
       <c r="V2" t="n">
-        <v>58888</v>
+        <v>163917</v>
       </c>
     </row>
     <row r="3">
@@ -5627,58 +5625,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1855</v>
+        <v>5400</v>
       </c>
       <c r="F3" t="n">
-        <v>2030</v>
+        <v>5512</v>
       </c>
       <c r="G3" t="n">
-        <v>2204</v>
+        <v>5632</v>
       </c>
       <c r="H3" t="n">
-        <v>2377</v>
+        <v>5749</v>
       </c>
       <c r="I3" t="n">
-        <v>2566</v>
+        <v>5883</v>
       </c>
       <c r="J3" t="n">
-        <v>2784</v>
+        <v>6064</v>
       </c>
       <c r="K3" t="n">
-        <v>3027</v>
+        <v>6307</v>
       </c>
       <c r="L3" t="n">
-        <v>3292</v>
+        <v>6605</v>
       </c>
       <c r="M3" t="n">
-        <v>3579</v>
+        <v>6942</v>
       </c>
       <c r="N3" t="n">
-        <v>3887</v>
+        <v>7319</v>
       </c>
       <c r="O3" t="n">
-        <v>4216</v>
+        <v>7739</v>
       </c>
       <c r="P3" t="n">
-        <v>4563</v>
+        <v>8203</v>
       </c>
       <c r="Q3" t="n">
-        <v>4929</v>
+        <v>8717</v>
       </c>
       <c r="R3" t="n">
-        <v>5312</v>
+        <v>9285</v>
       </c>
       <c r="S3" t="n">
-        <v>5710</v>
+        <v>9913</v>
       </c>
       <c r="T3" t="n">
-        <v>6121</v>
+        <v>10606</v>
       </c>
       <c r="U3" t="n">
-        <v>6543</v>
+        <v>11372</v>
       </c>
       <c r="V3" t="n">
-        <v>6974</v>
+        <v>12218</v>
       </c>
     </row>
     <row r="4">
@@ -5689,58 +5687,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.056</v>
+        <v>0.0755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.059</v>
+        <v>0.0734</v>
       </c>
       <c r="G4" t="n">
-        <v>0.062</v>
+        <v>0.0714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.064</v>
+        <v>0.0694</v>
       </c>
       <c r="I4" t="n">
-        <v>0.067</v>
+        <v>0.0677</v>
       </c>
       <c r="J4" t="n">
-        <v>0.071</v>
+        <v>0.0664</v>
       </c>
       <c r="K4" t="n">
-        <v>0.074</v>
+        <v>0.0658</v>
       </c>
       <c r="L4" t="n">
-        <v>0.078</v>
+        <v>0.0656</v>
       </c>
       <c r="M4" t="n">
-        <v>0.082</v>
+        <v>0.0657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.086</v>
+        <v>0.066</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09</v>
+        <v>0.0664</v>
       </c>
       <c r="P4" t="n">
-        <v>0.095</v>
+        <v>0.0671</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.099</v>
+        <v>0.0679</v>
       </c>
       <c r="R4" t="n">
-        <v>0.103</v>
+        <v>0.0689</v>
       </c>
       <c r="S4" t="n">
-        <v>0.107</v>
+        <v>0.07</v>
       </c>
       <c r="T4" t="n">
-        <v>0.111</v>
+        <v>0.0713</v>
       </c>
       <c r="U4" t="n">
-        <v>0.115</v>
+        <v>0.0728</v>
       </c>
       <c r="V4" t="n">
-        <v>0.118</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="5">
@@ -5813,58 +5811,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F6" t="n">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G6" t="n">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H6" t="n">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="I6" t="n">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="J6" t="n">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="K6" t="n">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="M6" t="n">
-        <v>339</v>
+        <v>449</v>
       </c>
       <c r="N6" t="n">
-        <v>367</v>
+        <v>498</v>
       </c>
       <c r="O6" t="n">
-        <v>393</v>
+        <v>547</v>
       </c>
       <c r="P6" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
-        <v>445</v>
+        <v>657</v>
       </c>
       <c r="R6" t="n">
-        <v>470</v>
+        <v>720</v>
       </c>
       <c r="S6" t="n">
-        <v>493</v>
+        <v>788</v>
       </c>
       <c r="T6" t="n">
-        <v>515</v>
+        <v>863</v>
       </c>
       <c r="U6" t="n">
-        <v>536</v>
+        <v>946</v>
       </c>
       <c r="V6" t="n">
-        <v>546</v>
+        <v>995</v>
       </c>
     </row>
     <row r="7">
@@ -5875,58 +5873,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F7" t="n">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G7" t="n">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H7" t="n">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="I7" t="n">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="J7" t="n">
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="K7" t="n">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="L7" t="n">
-        <v>361</v>
+        <v>484</v>
       </c>
       <c r="M7" t="n">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="N7" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="O7" t="n">
-        <v>443</v>
+        <v>638</v>
       </c>
       <c r="P7" t="n">
-        <v>470</v>
+        <v>697</v>
       </c>
       <c r="Q7" t="n">
-        <v>495</v>
+        <v>763</v>
       </c>
       <c r="R7" t="n">
-        <v>519</v>
+        <v>835</v>
       </c>
       <c r="S7" t="n">
-        <v>541</v>
+        <v>915</v>
       </c>
       <c r="T7" t="n">
-        <v>562</v>
+        <v>1003</v>
       </c>
       <c r="U7" t="n">
-        <v>580</v>
+        <v>1101</v>
       </c>
       <c r="V7" t="n">
-        <v>589</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="8">
@@ -5937,58 +5935,58 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F8" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G8" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H8" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I8" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="K8" t="n">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="L8" t="n">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="M8" t="n">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="N8" t="n">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="O8" t="n">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="P8" t="n">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="Q8" t="n">
-        <v>201</v>
+        <v>303</v>
       </c>
       <c r="R8" t="n">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="S8" t="n">
-        <v>221</v>
+        <v>363</v>
       </c>
       <c r="T8" t="n">
-        <v>230</v>
+        <v>398</v>
       </c>
       <c r="U8" t="n">
-        <v>238</v>
+        <v>436</v>
       </c>
       <c r="V8" t="n">
-        <v>242</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9">
@@ -5999,58 +5997,58 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F9" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H9" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I9" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J9" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K9" t="n">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="L9" t="n">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="M9" t="n">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="N9" t="n">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="O9" t="n">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="P9" t="n">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="Q9" t="n">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="R9" t="n">
-        <v>259</v>
+        <v>388</v>
       </c>
       <c r="S9" t="n">
-        <v>273</v>
+        <v>425</v>
       </c>
       <c r="T9" t="n">
-        <v>286</v>
+        <v>466</v>
       </c>
       <c r="U9" t="n">
-        <v>298</v>
+        <v>510</v>
       </c>
       <c r="V9" t="n">
-        <v>304</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10">
@@ -6061,58 +6059,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.883</v>
+        <v>0.9567</v>
       </c>
       <c r="F10" t="n">
-        <v>0.899</v>
+        <v>0.9598</v>
       </c>
       <c r="G10" t="n">
-        <v>0.905</v>
+        <v>0.9595</v>
       </c>
       <c r="H10" t="n">
-        <v>0.896</v>
+        <v>0.9529</v>
       </c>
       <c r="I10" t="n">
-        <v>0.885</v>
+        <v>0.9459</v>
       </c>
       <c r="J10" t="n">
-        <v>0.878</v>
+        <v>0.9373</v>
       </c>
       <c r="K10" t="n">
-        <v>0.873</v>
+        <v>0.9273</v>
       </c>
       <c r="L10" t="n">
-        <v>0.87</v>
+        <v>0.9184</v>
       </c>
       <c r="M10" t="n">
-        <v>0.87</v>
+        <v>0.9121</v>
       </c>
       <c r="N10" t="n">
-        <v>0.87</v>
+        <v>0.9072</v>
       </c>
       <c r="O10" t="n">
-        <v>0.871</v>
+        <v>0.9033</v>
       </c>
       <c r="P10" t="n">
-        <v>0.873</v>
+        <v>0.8998</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.875</v>
+        <v>0.8967</v>
       </c>
       <c r="R10" t="n">
-        <v>0.877</v>
+        <v>0.8939</v>
       </c>
       <c r="S10" t="n">
-        <v>0.88</v>
+        <v>0.8912</v>
       </c>
       <c r="T10" t="n">
-        <v>0.883</v>
+        <v>0.8886</v>
       </c>
       <c r="U10" t="n">
-        <v>0.886</v>
+        <v>0.8861</v>
       </c>
       <c r="V10" t="n">
-        <v>0.889</v>
+        <v>0.8838</v>
       </c>
     </row>
   </sheetData>
@@ -6205,58 +6203,58 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>33425</v>
+        <v>71516</v>
       </c>
       <c r="F2" t="n">
-        <v>34557</v>
+        <v>75092</v>
       </c>
       <c r="G2" t="n">
-        <v>35728</v>
+        <v>78847</v>
       </c>
       <c r="H2" t="n">
-        <v>36938</v>
+        <v>82789</v>
       </c>
       <c r="I2" t="n">
-        <v>38189</v>
+        <v>86929</v>
       </c>
       <c r="J2" t="n">
-        <v>39483</v>
+        <v>91275</v>
       </c>
       <c r="K2" t="n">
-        <v>40820</v>
+        <v>95839</v>
       </c>
       <c r="L2" t="n">
-        <v>42203</v>
+        <v>100631</v>
       </c>
       <c r="M2" t="n">
-        <v>43633</v>
+        <v>105662</v>
       </c>
       <c r="N2" t="n">
-        <v>45111</v>
+        <v>110945</v>
       </c>
       <c r="O2" t="n">
-        <v>46639</v>
+        <v>116493</v>
       </c>
       <c r="P2" t="n">
-        <v>48219</v>
+        <v>122317</v>
       </c>
       <c r="Q2" t="n">
-        <v>49852</v>
+        <v>128433</v>
       </c>
       <c r="R2" t="n">
-        <v>51541</v>
+        <v>134855</v>
       </c>
       <c r="S2" t="n">
-        <v>53287</v>
+        <v>141598</v>
       </c>
       <c r="T2" t="n">
-        <v>55092</v>
+        <v>148678</v>
       </c>
       <c r="U2" t="n">
-        <v>56958</v>
+        <v>156111</v>
       </c>
       <c r="V2" t="n">
-        <v>58888</v>
+        <v>163917</v>
       </c>
     </row>
     <row r="3">
@@ -6267,58 +6265,58 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1853</v>
+        <v>5397</v>
       </c>
       <c r="F3" t="n">
-        <v>1996</v>
+        <v>5480</v>
       </c>
       <c r="G3" t="n">
-        <v>2132</v>
+        <v>5568</v>
       </c>
       <c r="H3" t="n">
-        <v>2262</v>
+        <v>5650</v>
       </c>
       <c r="I3" t="n">
-        <v>2399</v>
+        <v>5743</v>
       </c>
       <c r="J3" t="n">
-        <v>2555</v>
+        <v>5873</v>
       </c>
       <c r="K3" t="n">
-        <v>2725</v>
+        <v>6049</v>
       </c>
       <c r="L3" t="n">
-        <v>2910</v>
+        <v>6265</v>
       </c>
       <c r="M3" t="n">
-        <v>3108</v>
+        <v>6507</v>
       </c>
       <c r="N3" t="n">
-        <v>3318</v>
+        <v>6774</v>
       </c>
       <c r="O3" t="n">
-        <v>3542</v>
+        <v>7069</v>
       </c>
       <c r="P3" t="n">
-        <v>3779</v>
+        <v>7391</v>
       </c>
       <c r="Q3" t="n">
-        <v>4028</v>
+        <v>7744</v>
       </c>
       <c r="R3" t="n">
-        <v>4289</v>
+        <v>8130</v>
       </c>
       <c r="S3" t="n">
-        <v>4562</v>
+        <v>8550</v>
       </c>
       <c r="T3" t="n">
-        <v>4845</v>
+        <v>9009</v>
       </c>
       <c r="U3" t="n">
-        <v>5138</v>
+        <v>9511</v>
       </c>
       <c r="V3" t="n">
-        <v>5439</v>
+        <v>10057</v>
       </c>
     </row>
     <row r="4">
@@ -6329,58 +6327,58 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.055</v>
+        <v>0.0755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.058</v>
+        <v>0.073</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06</v>
+        <v>0.0706</v>
       </c>
       <c r="H4" t="n">
-        <v>0.061</v>
+        <v>0.0682</v>
       </c>
       <c r="I4" t="n">
-        <v>0.063</v>
+        <v>0.0661</v>
       </c>
       <c r="J4" t="n">
-        <v>0.065</v>
+        <v>0.0643</v>
       </c>
       <c r="K4" t="n">
-        <v>0.067</v>
+        <v>0.0631</v>
       </c>
       <c r="L4" t="n">
-        <v>0.069</v>
+        <v>0.0623</v>
       </c>
       <c r="M4" t="n">
-        <v>0.071</v>
+        <v>0.0616</v>
       </c>
       <c r="N4" t="n">
-        <v>0.074</v>
+        <v>0.0611</v>
       </c>
       <c r="O4" t="n">
-        <v>0.076</v>
+        <v>0.0607</v>
       </c>
       <c r="P4" t="n">
-        <v>0.078</v>
+        <v>0.0604</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.081</v>
+        <v>0.0603</v>
       </c>
       <c r="R4" t="n">
-        <v>0.083</v>
+        <v>0.0603</v>
       </c>
       <c r="S4" t="n">
-        <v>0.086</v>
+        <v>0.0604</v>
       </c>
       <c r="T4" t="n">
-        <v>0.088</v>
+        <v>0.0606</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09</v>
+        <v>0.0609</v>
       </c>
       <c r="V4" t="n">
-        <v>0.092</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="5">
@@ -6453,58 +6451,58 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F6" t="n">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G6" t="n">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H6" t="n">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="I6" t="n">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="J6" t="n">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="K6" t="n">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="L6" t="n">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c r="M6" t="n">
-        <v>249</v>
+        <v>355</v>
       </c>
       <c r="N6" t="n">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="O6" t="n">
-        <v>283</v>
+        <v>420</v>
       </c>
       <c r="P6" t="n">
-        <v>301</v>
+        <v>454</v>
       </c>
       <c r="Q6" t="n">
-        <v>318</v>
+        <v>490</v>
       </c>
       <c r="R6" t="n">
-        <v>335</v>
+        <v>529</v>
       </c>
       <c r="S6" t="n">
-        <v>352</v>
+        <v>571</v>
       </c>
       <c r="T6" t="n">
-        <v>369</v>
+        <v>616</v>
       </c>
       <c r="U6" t="n">
-        <v>384</v>
+        <v>665</v>
       </c>
       <c r="V6" t="n">
-        <v>401</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7">
@@ -6515,58 +6513,58 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F7" t="n">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="G7" t="n">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="H7" t="n">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="I7" t="n">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="J7" t="n">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="K7" t="n">
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="L7" t="n">
-        <v>263</v>
+        <v>381</v>
       </c>
       <c r="M7" t="n">
-        <v>281</v>
+        <v>413</v>
       </c>
       <c r="N7" t="n">
-        <v>299</v>
+        <v>446</v>
       </c>
       <c r="O7" t="n">
-        <v>317</v>
+        <v>481</v>
       </c>
       <c r="P7" t="n">
-        <v>335</v>
+        <v>518</v>
       </c>
       <c r="Q7" t="n">
-        <v>352</v>
+        <v>559</v>
       </c>
       <c r="R7" t="n">
-        <v>370</v>
+        <v>603</v>
       </c>
       <c r="S7" t="n">
-        <v>387</v>
+        <v>651</v>
       </c>
       <c r="T7" t="n">
-        <v>403</v>
+        <v>703</v>
       </c>
       <c r="U7" t="n">
-        <v>418</v>
+        <v>760</v>
       </c>
       <c r="V7" t="n">
-        <v>427</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8">
@@ -6577,58 +6575,58 @@
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F8" t="n">
+        <v>110</v>
+      </c>
+      <c r="G8" t="n">
+        <v>89</v>
+      </c>
+      <c r="H8" t="n">
+        <v>86</v>
+      </c>
+      <c r="I8" t="n">
         <v>98</v>
       </c>
-      <c r="G8" t="n">
-        <v>78</v>
-      </c>
-      <c r="H8" t="n">
-        <v>75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>83</v>
-      </c>
       <c r="J8" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="K8" t="n">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="L8" t="n">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="M8" t="n">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="N8" t="n">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="O8" t="n">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="P8" t="n">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="Q8" t="n">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="R8" t="n">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="S8" t="n">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="T8" t="n">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="U8" t="n">
-        <v>172</v>
+        <v>304</v>
       </c>
       <c r="V8" t="n">
-        <v>178</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9">
@@ -6639,58 +6637,58 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F9" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G9" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H9" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I9" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J9" t="n">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="K9" t="n">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="L9" t="n">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="M9" t="n">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="N9" t="n">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="O9" t="n">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="P9" t="n">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="Q9" t="n">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="R9" t="n">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="S9" t="n">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="T9" t="n">
-        <v>203</v>
+        <v>335</v>
       </c>
       <c r="U9" t="n">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="V9" t="n">
-        <v>219</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10">
@@ -6701,58 +6699,58 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.881</v>
+        <v>0.9562</v>
       </c>
       <c r="F10" t="n">
-        <v>0.888</v>
+        <v>0.9558</v>
       </c>
       <c r="G10" t="n">
-        <v>0.892</v>
+        <v>0.9539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.879</v>
+        <v>0.9456</v>
       </c>
       <c r="I10" t="n">
-        <v>0.866</v>
+        <v>0.9368</v>
       </c>
       <c r="J10" t="n">
-        <v>0.856</v>
+        <v>0.9263</v>
       </c>
       <c r="K10" t="n">
-        <v>0.85</v>
+        <v>0.914</v>
       </c>
       <c r="L10" t="n">
-        <v>0.848</v>
+        <v>0.9033</v>
       </c>
       <c r="M10" t="n">
-        <v>0.848</v>
+        <v>0.8957</v>
       </c>
       <c r="N10" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="O10" t="n">
-        <v>0.853</v>
+        <v>0.8854</v>
       </c>
       <c r="P10" t="n">
-        <v>0.856</v>
+        <v>0.8817</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.861</v>
+        <v>0.8784</v>
       </c>
       <c r="R10" t="n">
-        <v>0.865</v>
+        <v>0.8755</v>
       </c>
       <c r="S10" t="n">
-        <v>0.87</v>
+        <v>0.8728</v>
       </c>
       <c r="T10" t="n">
-        <v>0.875</v>
+        <v>0.8703</v>
       </c>
       <c r="U10" t="n">
-        <v>0.88</v>
+        <v>0.8681</v>
       </c>
       <c r="V10" t="n">
-        <v>0.883</v>
+        <v>0.8662</v>
       </c>
     </row>
   </sheetData>

--- a/plots/results.xlsx
+++ b/plots/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">plot</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t xml:space="preserve">care_cascade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagnosed_treated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treated_virally_suppressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prev_lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prev_hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prev_pr</t>
   </si>
 </sst>
 </file>
@@ -831,6 +846,136 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -919,60 +1064,62 @@
       </c>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>77455</v>
+      </c>
       <c r="E2" t="n">
-        <v>71516</v>
+        <v>79778</v>
       </c>
       <c r="F2" t="n">
-        <v>75092</v>
+        <v>82172</v>
       </c>
       <c r="G2" t="n">
-        <v>78847</v>
+        <v>84637</v>
       </c>
       <c r="H2" t="n">
-        <v>82789</v>
+        <v>87176</v>
       </c>
       <c r="I2" t="n">
-        <v>86929</v>
+        <v>89791</v>
       </c>
       <c r="J2" t="n">
-        <v>91275</v>
+        <v>92485</v>
       </c>
       <c r="K2" t="n">
-        <v>95839</v>
+        <v>95259</v>
       </c>
       <c r="L2" t="n">
-        <v>100631</v>
+        <v>98117</v>
       </c>
       <c r="M2" t="n">
-        <v>105662</v>
+        <v>101061</v>
       </c>
       <c r="N2" t="n">
-        <v>110945</v>
+        <v>104093</v>
       </c>
       <c r="O2" t="n">
-        <v>116493</v>
+        <v>107215</v>
       </c>
       <c r="P2" t="n">
-        <v>122317</v>
+        <v>110432</v>
       </c>
       <c r="Q2" t="n">
-        <v>128433</v>
+        <v>113745</v>
       </c>
       <c r="R2" t="n">
-        <v>134855</v>
+        <v>117157</v>
       </c>
       <c r="S2" t="n">
-        <v>141598</v>
+        <v>120672</v>
       </c>
       <c r="T2" t="n">
-        <v>148678</v>
+        <v>124292</v>
       </c>
       <c r="U2" t="n">
-        <v>156111</v>
+        <v>128021</v>
       </c>
       <c r="V2" t="n">
-        <v>163917</v>
+        <v>131861</v>
       </c>
     </row>
     <row r="3">
@@ -981,60 +1128,62 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>5124</v>
+      </c>
       <c r="E3" t="n">
-        <v>5403</v>
+        <v>5255</v>
       </c>
       <c r="F3" t="n">
-        <v>5558</v>
+        <v>5400</v>
       </c>
       <c r="G3" t="n">
-        <v>5725</v>
+        <v>5528</v>
       </c>
       <c r="H3" t="n">
-        <v>5895</v>
+        <v>5622</v>
       </c>
       <c r="I3" t="n">
-        <v>6089</v>
+        <v>5697</v>
       </c>
       <c r="J3" t="n">
-        <v>6350</v>
+        <v>5775</v>
       </c>
       <c r="K3" t="n">
-        <v>6698</v>
+        <v>5854</v>
       </c>
       <c r="L3" t="n">
-        <v>7127</v>
+        <v>5935</v>
       </c>
       <c r="M3" t="n">
-        <v>7620</v>
+        <v>6016</v>
       </c>
       <c r="N3" t="n">
-        <v>8178</v>
+        <v>6097</v>
       </c>
       <c r="O3" t="n">
-        <v>8805</v>
+        <v>6178</v>
       </c>
       <c r="P3" t="n">
-        <v>9509</v>
+        <v>6258</v>
       </c>
       <c r="Q3" t="n">
-        <v>10293</v>
+        <v>6337</v>
       </c>
       <c r="R3" t="n">
-        <v>11164</v>
+        <v>6413</v>
       </c>
       <c r="S3" t="n">
-        <v>12133</v>
+        <v>6487</v>
       </c>
       <c r="T3" t="n">
-        <v>13209</v>
+        <v>6557</v>
       </c>
       <c r="U3" t="n">
-        <v>14402</v>
+        <v>6622</v>
       </c>
       <c r="V3" t="n">
-        <v>15721</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="4">
@@ -1043,60 +1192,62 @@
       </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4"/>
+      <c r="D4" t="n">
+        <v>0.0662</v>
+      </c>
       <c r="E4" t="n">
-        <v>0.0755</v>
+        <v>0.0659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.074</v>
+        <v>0.0657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0726</v>
+        <v>0.0653</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0712</v>
+        <v>0.0645</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07</v>
+        <v>0.0635</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0696</v>
+        <v>0.0624</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0699</v>
+        <v>0.0615</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0708</v>
+        <v>0.0605</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0721</v>
+        <v>0.0595</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0737</v>
+        <v>0.0586</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0756</v>
+        <v>0.0576</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0777</v>
+        <v>0.0567</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0801</v>
+        <v>0.0557</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0828</v>
+        <v>0.0547</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0857</v>
+        <v>0.0538</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0888</v>
+        <v>0.0528</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0923</v>
+        <v>0.0517</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0959</v>
+        <v>0.0507</v>
       </c>
     </row>
     <row r="5">
@@ -1105,7 +1256,9 @@
       </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -1167,60 +1320,62 @@
       </c>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>234</v>
+      </c>
       <c r="E6" t="n">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F6" t="n">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G6" t="n">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="H6" t="n">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="I6" t="n">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="J6" t="n">
-        <v>366</v>
+        <v>195</v>
       </c>
       <c r="K6" t="n">
-        <v>448</v>
+        <v>199</v>
       </c>
       <c r="L6" t="n">
-        <v>527</v>
+        <v>203</v>
       </c>
       <c r="M6" t="n">
-        <v>603</v>
+        <v>206</v>
       </c>
       <c r="N6" t="n">
-        <v>680</v>
+        <v>208</v>
       </c>
       <c r="O6" t="n">
-        <v>760</v>
+        <v>210</v>
       </c>
       <c r="P6" t="n">
-        <v>847</v>
+        <v>211</v>
       </c>
       <c r="Q6" t="n">
-        <v>940</v>
+        <v>212</v>
       </c>
       <c r="R6" t="n">
-        <v>1041</v>
+        <v>211</v>
       </c>
       <c r="S6" t="n">
-        <v>1152</v>
+        <v>211</v>
       </c>
       <c r="T6" t="n">
-        <v>1274</v>
+        <v>209</v>
       </c>
       <c r="U6" t="n">
-        <v>1408</v>
+        <v>206</v>
       </c>
       <c r="V6" t="n">
-        <v>1457</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7">
@@ -1229,60 +1384,62 @@
       </c>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7"/>
+      <c r="D7" t="n">
+        <v>236</v>
+      </c>
       <c r="E7" t="n">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F7" t="n">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="G7" t="n">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="H7" t="n">
-        <v>323</v>
+        <v>201</v>
       </c>
       <c r="I7" t="n">
-        <v>393</v>
+        <v>205</v>
       </c>
       <c r="J7" t="n">
-        <v>484</v>
+        <v>208</v>
       </c>
       <c r="K7" t="n">
-        <v>577</v>
+        <v>211</v>
       </c>
       <c r="L7" t="n">
-        <v>651</v>
+        <v>214</v>
       </c>
       <c r="M7" t="n">
-        <v>727</v>
+        <v>216</v>
       </c>
       <c r="N7" t="n">
-        <v>809</v>
+        <v>218</v>
       </c>
       <c r="O7" t="n">
-        <v>897</v>
+        <v>219</v>
       </c>
       <c r="P7" t="n">
-        <v>994</v>
+        <v>219</v>
       </c>
       <c r="Q7" t="n">
-        <v>1101</v>
+        <v>219</v>
       </c>
       <c r="R7" t="n">
-        <v>1219</v>
+        <v>217</v>
       </c>
       <c r="S7" t="n">
-        <v>1347</v>
+        <v>215</v>
       </c>
       <c r="T7" t="n">
-        <v>1488</v>
+        <v>212</v>
       </c>
       <c r="U7" t="n">
-        <v>1642</v>
+        <v>208</v>
       </c>
       <c r="V7" t="n">
-        <v>1728</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
@@ -1291,60 +1448,62 @@
       </c>
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>114</v>
+      </c>
       <c r="E8" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G8" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="I8" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="J8" t="n">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="K8" t="n">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="L8" t="n">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="N8" t="n">
-        <v>322</v>
+        <v>90</v>
       </c>
       <c r="O8" t="n">
-        <v>358</v>
+        <v>91</v>
       </c>
       <c r="P8" t="n">
-        <v>398</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="n">
-        <v>441</v>
+        <v>91</v>
       </c>
       <c r="R8" t="n">
-        <v>489</v>
+        <v>91</v>
       </c>
       <c r="S8" t="n">
-        <v>541</v>
+        <v>90</v>
       </c>
       <c r="T8" t="n">
-        <v>599</v>
+        <v>89</v>
       </c>
       <c r="U8" t="n">
-        <v>662</v>
+        <v>88</v>
       </c>
       <c r="V8" t="n">
-        <v>706</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1353,60 +1512,62 @@
       </c>
       <c r="B9"/>
       <c r="C9"/>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>120</v>
+      </c>
       <c r="E9" t="n">
+        <v>132</v>
+      </c>
+      <c r="F9" t="n">
+        <v>127</v>
+      </c>
+      <c r="G9" t="n">
+        <v>99</v>
+      </c>
+      <c r="H9" t="n">
+        <v>99</v>
+      </c>
+      <c r="I9" t="n">
+        <v>105</v>
+      </c>
+      <c r="J9" t="n">
+        <v>109</v>
+      </c>
+      <c r="K9" t="n">
+        <v>112</v>
+      </c>
+      <c r="L9" t="n">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>116</v>
+      </c>
+      <c r="N9" t="n">
+        <v>118</v>
+      </c>
+      <c r="O9" t="n">
+        <v>119</v>
+      </c>
+      <c r="P9" t="n">
         <v>120</v>
       </c>
-      <c r="F9" t="n">
-        <v>125</v>
-      </c>
-      <c r="G9" t="n">
-        <v>109</v>
-      </c>
-      <c r="H9" t="n">
-        <v>124</v>
-      </c>
-      <c r="I9" t="n">
-        <v>152</v>
-      </c>
-      <c r="J9" t="n">
-        <v>184</v>
-      </c>
-      <c r="K9" t="n">
-        <v>226</v>
-      </c>
-      <c r="L9" t="n">
-        <v>271</v>
-      </c>
-      <c r="M9" t="n">
-        <v>314</v>
-      </c>
-      <c r="N9" t="n">
-        <v>357</v>
-      </c>
-      <c r="O9" t="n">
-        <v>400</v>
-      </c>
-      <c r="P9" t="n">
-        <v>446</v>
-      </c>
       <c r="Q9" t="n">
-        <v>496</v>
+        <v>120</v>
       </c>
       <c r="R9" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="S9" t="n">
-        <v>609</v>
+        <v>120</v>
       </c>
       <c r="T9" t="n">
-        <v>674</v>
+        <v>120</v>
       </c>
       <c r="U9" t="n">
-        <v>745</v>
+        <v>118</v>
       </c>
       <c r="V9" t="n">
-        <v>783</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1415,61 +1576,345 @@
       </c>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>0.9496</v>
+      </c>
       <c r="E10" t="n">
-        <v>0.9572</v>
+        <v>0.9513</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9633</v>
+        <v>0.9612</v>
       </c>
       <c r="G10" t="n">
+        <v>0.9658</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9651</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9648</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9645</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.9642</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.959</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9533</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9464</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9381</v>
-      </c>
       <c r="L10" t="n">
-        <v>0.9309</v>
+        <v>0.9641</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9257</v>
+        <v>0.9642</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9218</v>
+        <v>0.9643</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9185</v>
+        <v>0.9645</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9157</v>
+        <v>0.9649</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9131</v>
+        <v>0.9653</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9107</v>
+        <v>0.9658</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9084</v>
+        <v>0.9664</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9062</v>
+        <v>0.9671</v>
       </c>
       <c r="U10" t="n">
-        <v>0.904</v>
+        <v>0.968</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9019</v>
-      </c>
+        <v>0.969</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9529</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.9671</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9729</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9814</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9843</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9199</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9436</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9471</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9507</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9543</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9578</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9721</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9793</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9864</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0592</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0558</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0541</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0481</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0468</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0429</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0405</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0382</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0716</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0725</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0725</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0723</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0717</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0713</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0704</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0699</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0693</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0687</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0672</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0663</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0654</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,67 +2003,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>61779</v>
+        <v>73008</v>
       </c>
       <c r="C2" t="n">
-        <v>64868</v>
+        <v>75199</v>
       </c>
       <c r="D2" t="n">
-        <v>68111</v>
+        <v>77455</v>
       </c>
       <c r="E2" t="n">
-        <v>71516</v>
+        <v>79778</v>
       </c>
       <c r="F2" t="n">
-        <v>75092</v>
+        <v>82172</v>
       </c>
       <c r="G2" t="n">
-        <v>78847</v>
+        <v>84637</v>
       </c>
       <c r="H2" t="n">
-        <v>82789</v>
+        <v>87176</v>
       </c>
       <c r="I2" t="n">
-        <v>86929</v>
+        <v>89791</v>
       </c>
       <c r="J2" t="n">
-        <v>91275</v>
+        <v>92485</v>
       </c>
       <c r="K2" t="n">
-        <v>95839</v>
+        <v>95259</v>
       </c>
       <c r="L2" t="n">
-        <v>100631</v>
+        <v>98117</v>
       </c>
       <c r="M2" t="n">
-        <v>105662</v>
+        <v>101061</v>
       </c>
       <c r="N2" t="n">
-        <v>110945</v>
+        <v>104093</v>
       </c>
       <c r="O2" t="n">
-        <v>116493</v>
+        <v>107215</v>
       </c>
       <c r="P2" t="n">
-        <v>122317</v>
+        <v>110432</v>
       </c>
       <c r="Q2" t="n">
-        <v>128433</v>
+        <v>113745</v>
       </c>
       <c r="R2" t="n">
-        <v>134855</v>
+        <v>117157</v>
       </c>
       <c r="S2" t="n">
-        <v>141598</v>
+        <v>120672</v>
       </c>
       <c r="T2" t="n">
-        <v>148678</v>
+        <v>124292</v>
       </c>
       <c r="U2" t="n">
-        <v>156111</v>
+        <v>128021</v>
       </c>
       <c r="V2" t="n">
-        <v>163917</v>
+        <v>131861</v>
       </c>
     </row>
     <row r="3">
@@ -1626,67 +2071,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>5100</v>
+        <v>4834</v>
       </c>
       <c r="C3" t="n">
-        <v>5192</v>
+        <v>4987</v>
       </c>
       <c r="D3" t="n">
-        <v>5290</v>
+        <v>5124</v>
       </c>
       <c r="E3" t="n">
-        <v>5391</v>
+        <v>5243</v>
       </c>
       <c r="F3" t="n">
-        <v>5502</v>
+        <v>5353</v>
       </c>
       <c r="G3" t="n">
-        <v>5620</v>
+        <v>5450</v>
       </c>
       <c r="H3" t="n">
-        <v>5716</v>
+        <v>5517</v>
       </c>
       <c r="I3" t="n">
-        <v>5804</v>
+        <v>5564</v>
       </c>
       <c r="J3" t="n">
-        <v>5924</v>
+        <v>5623</v>
       </c>
       <c r="K3" t="n">
-        <v>6086</v>
+        <v>5694</v>
       </c>
       <c r="L3" t="n">
-        <v>6283</v>
+        <v>5774</v>
       </c>
       <c r="M3" t="n">
-        <v>6503</v>
+        <v>5856</v>
       </c>
       <c r="N3" t="n">
-        <v>6746</v>
+        <v>5940</v>
       </c>
       <c r="O3" t="n">
-        <v>7012</v>
+        <v>6023</v>
       </c>
       <c r="P3" t="n">
-        <v>7302</v>
+        <v>6107</v>
       </c>
       <c r="Q3" t="n">
-        <v>7619</v>
+        <v>6189</v>
       </c>
       <c r="R3" t="n">
-        <v>7962</v>
+        <v>6269</v>
       </c>
       <c r="S3" t="n">
-        <v>8336</v>
+        <v>6346</v>
       </c>
       <c r="T3" t="n">
-        <v>8741</v>
+        <v>6420</v>
       </c>
       <c r="U3" t="n">
-        <v>9181</v>
+        <v>6489</v>
       </c>
       <c r="V3" t="n">
-        <v>9658</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="4">
@@ -1694,67 +2139,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0826</v>
+        <v>0.0662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08</v>
+        <v>0.0663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0777</v>
+        <v>0.0662</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0754</v>
+        <v>0.0657</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0733</v>
+        <v>0.0651</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0713</v>
+        <v>0.0644</v>
       </c>
       <c r="H4" t="n">
-        <v>0.069</v>
+        <v>0.0633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0668</v>
+        <v>0.062</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0649</v>
+        <v>0.0608</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0635</v>
+        <v>0.0598</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0624</v>
+        <v>0.0588</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0615</v>
+        <v>0.0579</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0608</v>
+        <v>0.0571</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0602</v>
+        <v>0.0562</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0597</v>
+        <v>0.0553</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0593</v>
+        <v>0.0544</v>
       </c>
       <c r="R4" t="n">
-        <v>0.059</v>
+        <v>0.0535</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0589</v>
+        <v>0.0526</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0588</v>
+        <v>0.0516</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0588</v>
+        <v>0.0507</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0589</v>
+        <v>0.0497</v>
       </c>
     </row>
     <row r="5">
@@ -1774,37 +2219,37 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0368</v>
+        <v>0.0347</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0458</v>
+        <v>0.0442</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0467</v>
+        <v>0.0459</v>
       </c>
       <c r="K5" t="n">
+        <v>0.0504</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0504</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.0503</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.0503</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.0502</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.0502</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.0501</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.0501</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0501</v>
@@ -1813,16 +2258,16 @@
         <v>0.0501</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0501</v>
+        <v>0.05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0501</v>
+        <v>0.05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0501</v>
+        <v>0.0499</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0501</v>
+        <v>0.0499</v>
       </c>
     </row>
     <row r="6">
@@ -1830,67 +2275,67 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="C6" t="n">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="E6" t="n">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F6" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G6" t="n">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="H6" t="n">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="I6" t="n">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="J6" t="n">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="K6" t="n">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="L6" t="n">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="M6" t="n">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="N6" t="n">
-        <v>365</v>
+        <v>205</v>
       </c>
       <c r="O6" t="n">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="P6" t="n">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="Q6" t="n">
-        <v>455</v>
+        <v>211</v>
       </c>
       <c r="R6" t="n">
-        <v>488</v>
+        <v>211</v>
       </c>
       <c r="S6" t="n">
-        <v>524</v>
+        <v>211</v>
       </c>
       <c r="T6" t="n">
-        <v>562</v>
+        <v>209</v>
       </c>
       <c r="U6" t="n">
-        <v>603</v>
+        <v>207</v>
       </c>
       <c r="V6" t="n">
-        <v>627</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
@@ -1898,67 +2343,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="C7" t="n">
+        <v>251</v>
+      </c>
+      <c r="D7" t="n">
+        <v>236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>228</v>
+      </c>
+      <c r="F7" t="n">
+        <v>219</v>
+      </c>
+      <c r="G7" t="n">
+        <v>192</v>
+      </c>
+      <c r="H7" t="n">
+        <v>171</v>
+      </c>
+      <c r="I7" t="n">
+        <v>181</v>
+      </c>
+      <c r="J7" t="n">
+        <v>196</v>
+      </c>
+      <c r="K7" t="n">
+        <v>207</v>
+      </c>
+      <c r="L7" t="n">
+        <v>211</v>
+      </c>
+      <c r="M7" t="n">
         <v>214</v>
       </c>
-      <c r="D7" t="n">
-        <v>220</v>
-      </c>
-      <c r="E7" t="n">
-        <v>231</v>
-      </c>
-      <c r="F7" t="n">
-        <v>241</v>
-      </c>
-      <c r="G7" t="n">
-        <v>226</v>
-      </c>
-      <c r="H7" t="n">
-        <v>214</v>
-      </c>
-      <c r="I7" t="n">
-        <v>247</v>
-      </c>
-      <c r="J7" t="n">
-        <v>292</v>
-      </c>
-      <c r="K7" t="n">
-        <v>332</v>
-      </c>
-      <c r="L7" t="n">
-        <v>360</v>
-      </c>
-      <c r="M7" t="n">
-        <v>388</v>
-      </c>
       <c r="N7" t="n">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="O7" t="n">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="P7" t="n">
-        <v>480</v>
+        <v>219</v>
       </c>
       <c r="Q7" t="n">
-        <v>514</v>
+        <v>219</v>
       </c>
       <c r="R7" t="n">
-        <v>552</v>
+        <v>218</v>
       </c>
       <c r="S7" t="n">
-        <v>592</v>
+        <v>216</v>
       </c>
       <c r="T7" t="n">
-        <v>636</v>
+        <v>213</v>
       </c>
       <c r="U7" t="n">
-        <v>683</v>
+        <v>209</v>
       </c>
       <c r="V7" t="n">
-        <v>710</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8">
@@ -1966,67 +2411,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C8" t="n">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D8" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E8" t="n">
+        <v>121</v>
+      </c>
+      <c r="F8" t="n">
         <v>118</v>
       </c>
-      <c r="F8" t="n">
-        <v>124</v>
-      </c>
       <c r="G8" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H8" t="n">
+        <v>74</v>
+      </c>
+      <c r="I8" t="n">
+        <v>74</v>
+      </c>
+      <c r="J8" t="n">
+        <v>79</v>
+      </c>
+      <c r="K8" t="n">
+        <v>84</v>
+      </c>
+      <c r="L8" t="n">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>89</v>
+      </c>
+      <c r="N8" t="n">
         <v>90</v>
       </c>
-      <c r="I8" t="n">
-        <v>96</v>
-      </c>
-      <c r="J8" t="n">
-        <v>112</v>
-      </c>
-      <c r="K8" t="n">
-        <v>130</v>
-      </c>
-      <c r="L8" t="n">
-        <v>144</v>
-      </c>
-      <c r="M8" t="n">
-        <v>156</v>
-      </c>
-      <c r="N8" t="n">
-        <v>168</v>
-      </c>
       <c r="O8" t="n">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="P8" t="n">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="Q8" t="n">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="R8" t="n">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="S8" t="n">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="T8" t="n">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="U8" t="n">
-        <v>275</v>
+        <v>89</v>
       </c>
       <c r="V8" t="n">
-        <v>286</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -2034,67 +2479,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
+        <v>155</v>
+      </c>
+      <c r="C9" t="n">
+        <v>145</v>
+      </c>
+      <c r="D9" t="n">
+        <v>120</v>
+      </c>
+      <c r="E9" t="n">
+        <v>128</v>
+      </c>
+      <c r="F9" t="n">
+        <v>116</v>
+      </c>
+      <c r="G9" t="n">
+        <v>91</v>
+      </c>
+      <c r="H9" t="n">
+        <v>86</v>
+      </c>
+      <c r="I9" t="n">
+        <v>89</v>
+      </c>
+      <c r="J9" t="n">
+        <v>94</v>
+      </c>
+      <c r="K9" t="n">
+        <v>101</v>
+      </c>
+      <c r="L9" t="n">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>112</v>
+      </c>
+      <c r="N9" t="n">
+        <v>115</v>
+      </c>
+      <c r="O9" t="n">
         <v>117</v>
       </c>
-      <c r="C9" t="n">
-        <v>111</v>
-      </c>
-      <c r="D9" t="n">
-        <v>98</v>
-      </c>
-      <c r="E9" t="n">
-        <v>114</v>
-      </c>
-      <c r="F9" t="n">
-        <v>112</v>
-      </c>
-      <c r="G9" t="n">
-        <v>97</v>
-      </c>
-      <c r="H9" t="n">
-        <v>96</v>
-      </c>
-      <c r="I9" t="n">
-        <v>106</v>
-      </c>
-      <c r="J9" t="n">
-        <v>121</v>
-      </c>
-      <c r="K9" t="n">
-        <v>140</v>
-      </c>
-      <c r="L9" t="n">
-        <v>161</v>
-      </c>
-      <c r="M9" t="n">
-        <v>180</v>
-      </c>
-      <c r="N9" t="n">
-        <v>197</v>
-      </c>
-      <c r="O9" t="n">
-        <v>214</v>
-      </c>
       <c r="P9" t="n">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="Q9" t="n">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="R9" t="n">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="S9" t="n">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="T9" t="n">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="U9" t="n">
-        <v>328</v>
+        <v>118</v>
       </c>
       <c r="V9" t="n">
-        <v>341</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -2102,67 +2547,399 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9537</v>
+        <v>0.9339</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9572</v>
+        <v>0.9421</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9595</v>
+        <v>0.9496</v>
       </c>
       <c r="E10" t="n">
-        <v>0.957</v>
+        <v>0.9509</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9602</v>
+        <v>0.9582</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9598</v>
+        <v>0.9613</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9575</v>
+        <v>0.9609</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9541</v>
+        <v>0.9601</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9482</v>
+        <v>0.958</v>
       </c>
       <c r="K10" t="n">
-        <v>0.941</v>
+        <v>0.9554</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9345</v>
+        <v>0.9533</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9298</v>
+        <v>0.9522</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9262</v>
+        <v>0.9516</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9232</v>
+        <v>0.9515</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9207</v>
+        <v>0.9516</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9183</v>
+        <v>0.9519</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9161</v>
+        <v>0.9524</v>
       </c>
       <c r="S10" t="n">
-        <v>0.914</v>
+        <v>0.9531</v>
       </c>
       <c r="T10" t="n">
-        <v>0.912</v>
+        <v>0.9539</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9101</v>
+        <v>0.9548</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9082</v>
+        <v>0.956</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9529</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.9671</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9729</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9814</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9843</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9199</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9436</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9471</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9507</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9543</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9578</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9721</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9864</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0569</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0549</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0511</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0493</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0459</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0443</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0413</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0399</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0372</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0347</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0685</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0696</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0706</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0706</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0736</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0722</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0713</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0706</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0702</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0698</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0693</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0688</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0682</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0675</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0668</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>4e-04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3e-04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2252,67 +3029,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>55740</v>
+        <v>65970</v>
       </c>
       <c r="C2" t="n">
-        <v>58527</v>
+        <v>67949</v>
       </c>
       <c r="D2" t="n">
-        <v>61454</v>
+        <v>69988</v>
       </c>
       <c r="E2" t="n">
-        <v>64526</v>
+        <v>72087</v>
       </c>
       <c r="F2" t="n">
-        <v>67753</v>
+        <v>74250</v>
       </c>
       <c r="G2" t="n">
-        <v>71140</v>
+        <v>76477</v>
       </c>
       <c r="H2" t="n">
-        <v>74697</v>
+        <v>78772</v>
       </c>
       <c r="I2" t="n">
-        <v>78432</v>
+        <v>81135</v>
       </c>
       <c r="J2" t="n">
-        <v>82354</v>
+        <v>83569</v>
       </c>
       <c r="K2" t="n">
-        <v>86472</v>
+        <v>86076</v>
       </c>
       <c r="L2" t="n">
-        <v>90795</v>
+        <v>88658</v>
       </c>
       <c r="M2" t="n">
-        <v>95335</v>
+        <v>91318</v>
       </c>
       <c r="N2" t="n">
-        <v>100102</v>
+        <v>94057</v>
       </c>
       <c r="O2" t="n">
-        <v>105107</v>
+        <v>96879</v>
       </c>
       <c r="P2" t="n">
-        <v>110362</v>
+        <v>99786</v>
       </c>
       <c r="Q2" t="n">
-        <v>115880</v>
+        <v>102779</v>
       </c>
       <c r="R2" t="n">
-        <v>121674</v>
+        <v>105862</v>
       </c>
       <c r="S2" t="n">
-        <v>127758</v>
+        <v>109038</v>
       </c>
       <c r="T2" t="n">
-        <v>134146</v>
+        <v>112309</v>
       </c>
       <c r="U2" t="n">
-        <v>140853</v>
+        <v>115679</v>
       </c>
       <c r="V2" t="n">
-        <v>147896</v>
+        <v>119149</v>
       </c>
     </row>
     <row r="3">
@@ -2320,67 +3097,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>4327</v>
+        <v>4068</v>
       </c>
       <c r="C3" t="n">
-        <v>4399</v>
+        <v>4183</v>
       </c>
       <c r="D3" t="n">
-        <v>4469</v>
+        <v>4291</v>
       </c>
       <c r="E3" t="n">
+        <v>4384</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4470</v>
+      </c>
+      <c r="G3" t="n">
         <v>4541</v>
       </c>
-      <c r="F3" t="n">
-        <v>4609</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4679</v>
-      </c>
       <c r="H3" t="n">
-        <v>4738</v>
+        <v>4585</v>
       </c>
       <c r="I3" t="n">
-        <v>4785</v>
+        <v>4604</v>
       </c>
       <c r="J3" t="n">
-        <v>4840</v>
+        <v>4630</v>
       </c>
       <c r="K3" t="n">
-        <v>4919</v>
+        <v>4664</v>
       </c>
       <c r="L3" t="n">
-        <v>5020</v>
+        <v>4706</v>
       </c>
       <c r="M3" t="n">
-        <v>5132</v>
+        <v>4749</v>
       </c>
       <c r="N3" t="n">
-        <v>5255</v>
+        <v>4792</v>
       </c>
       <c r="O3" t="n">
-        <v>5388</v>
+        <v>4833</v>
       </c>
       <c r="P3" t="n">
-        <v>5531</v>
+        <v>4869</v>
       </c>
       <c r="Q3" t="n">
-        <v>5685</v>
+        <v>4904</v>
       </c>
       <c r="R3" t="n">
-        <v>5850</v>
+        <v>4937</v>
       </c>
       <c r="S3" t="n">
-        <v>6026</v>
+        <v>4967</v>
       </c>
       <c r="T3" t="n">
-        <v>6214</v>
+        <v>4996</v>
       </c>
       <c r="U3" t="n">
-        <v>6413</v>
+        <v>5021</v>
       </c>
       <c r="V3" t="n">
-        <v>6624</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="4">
@@ -2388,67 +3165,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0749</v>
+        <v>0.0598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0726</v>
+        <v>0.0597</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0704</v>
+        <v>0.0594</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0682</v>
+        <v>0.0586</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0663</v>
+        <v>0.0579</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0644</v>
+        <v>0.057</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0624</v>
+        <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0602</v>
+        <v>0.0545</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0583</v>
+        <v>0.0533</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0565</v>
+        <v>0.0522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0547</v>
+        <v>0.0512</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0532</v>
+        <v>0.0502</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0517</v>
+        <v>0.0492</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0503</v>
+        <v>0.0482</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0491</v>
+        <v>0.0472</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0481</v>
+        <v>0.0463</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0471</v>
+        <v>0.0453</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0462</v>
+        <v>0.0443</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0454</v>
+        <v>0.0432</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0446</v>
+        <v>0.0421</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0439</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="5">
@@ -2468,55 +3245,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0019</v>
+        <v>0.0017</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0018</v>
+        <v>0.0016</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0336</v>
+        <v>0.0315</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0419</v>
+        <v>0.0401</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0427</v>
+        <v>0.0417</v>
       </c>
       <c r="K5" t="n">
-        <v>0.046</v>
+        <v>0.0458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.046</v>
+        <v>0.0457</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0459</v>
+        <v>0.0457</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0459</v>
+        <v>0.0457</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0459</v>
+        <v>0.0456</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0458</v>
+        <v>0.0456</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0458</v>
+        <v>0.0456</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0458</v>
+        <v>0.0455</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0458</v>
+        <v>0.0455</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0458</v>
+        <v>0.0454</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0458</v>
+        <v>0.0454</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0458</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="6">
@@ -2524,67 +3301,67 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="C6" t="n">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="D6" t="n">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="E6" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F6" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H6" t="n">
+        <v>113</v>
+      </c>
+      <c r="I6" t="n">
+        <v>113</v>
+      </c>
+      <c r="J6" t="n">
+        <v>119</v>
+      </c>
+      <c r="K6" t="n">
         <v>126</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>130</v>
+      </c>
+      <c r="M6" t="n">
+        <v>133</v>
+      </c>
+      <c r="N6" t="n">
+        <v>135</v>
+      </c>
+      <c r="O6" t="n">
+        <v>135</v>
+      </c>
+      <c r="P6" t="n">
+        <v>135</v>
+      </c>
+      <c r="Q6" t="n">
         <v>134</v>
       </c>
-      <c r="J6" t="n">
-        <v>152</v>
-      </c>
-      <c r="K6" t="n">
-        <v>172</v>
-      </c>
-      <c r="L6" t="n">
-        <v>190</v>
-      </c>
-      <c r="M6" t="n">
-        <v>205</v>
-      </c>
-      <c r="N6" t="n">
-        <v>218</v>
-      </c>
-      <c r="O6" t="n">
-        <v>230</v>
-      </c>
-      <c r="P6" t="n">
-        <v>242</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>253</v>
-      </c>
       <c r="R6" t="n">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="S6" t="n">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="T6" t="n">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="U6" t="n">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="V6" t="n">
-        <v>314</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -2592,67 +3369,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="C7" t="n">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D7" t="n">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E7" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G7" t="n">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="H7" t="n">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="I7" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="J7" t="n">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="K7" t="n">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="L7" t="n">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="M7" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="N7" t="n">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="O7" t="n">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="P7" t="n">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="Q7" t="n">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="R7" t="n">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="S7" t="n">
-        <v>304</v>
+        <v>132</v>
       </c>
       <c r="T7" t="n">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="U7" t="n">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="V7" t="n">
-        <v>337</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -2660,67 +3437,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E8" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I8" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J8" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K8" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="L8" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="M8" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="N8" t="n">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="O8" t="n">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="P8" t="n">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="Q8" t="n">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="R8" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="S8" t="n">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="T8" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="U8" t="n">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="V8" t="n">
-        <v>142</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -2728,67 +3505,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E9" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F9" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
+        <v>65</v>
+      </c>
+      <c r="H9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I9" t="n">
+        <v>62</v>
+      </c>
+      <c r="J9" t="n">
+        <v>65</v>
+      </c>
+      <c r="K9" t="n">
         <v>68</v>
       </c>
-      <c r="H9" t="n">
-        <v>66</v>
-      </c>
-      <c r="I9" t="n">
-        <v>71</v>
-      </c>
-      <c r="J9" t="n">
-        <v>79</v>
-      </c>
-      <c r="K9" t="n">
-        <v>90</v>
-      </c>
       <c r="L9" t="n">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="M9" t="n">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="N9" t="n">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="O9" t="n">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="P9" t="n">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="Q9" t="n">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="R9" t="n">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="S9" t="n">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="T9" t="n">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="U9" t="n">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="V9" t="n">
-        <v>172</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -2796,67 +3573,399 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9418</v>
+        <v>0.9214</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9484</v>
+        <v>0.9328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9523</v>
+        <v>0.9411</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9497</v>
+        <v>0.9422</v>
       </c>
       <c r="F10" t="n">
+        <v>0.9505</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9539</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.9531</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.9525</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.9491</v>
-      </c>
       <c r="I10" t="n">
-        <v>0.9445</v>
+        <v>0.9517</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9371</v>
+        <v>0.9488</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9279</v>
+        <v>0.9454</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9195</v>
+        <v>0.9425</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9134</v>
+        <v>0.9409</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9088</v>
+        <v>0.9401</v>
       </c>
       <c r="O10" t="n">
-        <v>0.905</v>
+        <v>0.9399</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9017</v>
+        <v>0.9399</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8987</v>
+        <v>0.9402</v>
       </c>
       <c r="R10" t="n">
-        <v>0.896</v>
+        <v>0.9407</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8934</v>
+        <v>0.9414</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8909</v>
+        <v>0.9423</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8886</v>
+        <v>0.9433</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8864</v>
+        <v>0.9446</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9529</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.9671</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9729</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9814</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9843</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9199</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9436</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9471</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9507</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9543</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9578</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9721</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9863</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0582</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0572</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0559</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0544</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0527</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0491</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0473</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0439</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0408</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0393</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0379</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0352</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0339</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0327</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0304</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0616</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0623</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0619</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0629</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0619</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0613</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0593</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0584</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0545</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0534</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0523</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>3e-04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3e-04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2946,67 +4055,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>67846</v>
+        <v>80349</v>
       </c>
       <c r="C2" t="n">
-        <v>71238</v>
+        <v>82760</v>
       </c>
       <c r="D2" t="n">
-        <v>74800</v>
+        <v>85242</v>
       </c>
       <c r="E2" t="n">
-        <v>78540</v>
+        <v>87800</v>
       </c>
       <c r="F2" t="n">
-        <v>82467</v>
+        <v>90434</v>
       </c>
       <c r="G2" t="n">
-        <v>86590</v>
+        <v>93147</v>
       </c>
       <c r="H2" t="n">
-        <v>90920</v>
+        <v>95941</v>
       </c>
       <c r="I2" t="n">
-        <v>95466</v>
+        <v>98819</v>
       </c>
       <c r="J2" t="n">
-        <v>100239</v>
+        <v>101784</v>
       </c>
       <c r="K2" t="n">
-        <v>105251</v>
+        <v>104838</v>
       </c>
       <c r="L2" t="n">
-        <v>110514</v>
+        <v>107983</v>
       </c>
       <c r="M2" t="n">
-        <v>116039</v>
+        <v>111222</v>
       </c>
       <c r="N2" t="n">
-        <v>121841</v>
+        <v>114559</v>
       </c>
       <c r="O2" t="n">
-        <v>127933</v>
+        <v>117996</v>
       </c>
       <c r="P2" t="n">
-        <v>134330</v>
+        <v>121535</v>
       </c>
       <c r="Q2" t="n">
-        <v>141046</v>
+        <v>125181</v>
       </c>
       <c r="R2" t="n">
-        <v>148099</v>
+        <v>128937</v>
       </c>
       <c r="S2" t="n">
-        <v>155504</v>
+        <v>132805</v>
       </c>
       <c r="T2" t="n">
-        <v>163279</v>
+        <v>136789</v>
       </c>
       <c r="U2" t="n">
-        <v>171443</v>
+        <v>140893</v>
       </c>
       <c r="V2" t="n">
-        <v>180015</v>
+        <v>145120</v>
       </c>
     </row>
     <row r="3">
@@ -3014,67 +4123,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>5978</v>
+        <v>5660</v>
       </c>
       <c r="C3" t="n">
-        <v>6112</v>
+        <v>5846</v>
       </c>
       <c r="D3" t="n">
-        <v>6258</v>
+        <v>6020</v>
       </c>
       <c r="E3" t="n">
-        <v>6398</v>
+        <v>6174</v>
       </c>
       <c r="F3" t="n">
-        <v>6567</v>
+        <v>6317</v>
       </c>
       <c r="G3" t="n">
-        <v>6744</v>
+        <v>6445</v>
       </c>
       <c r="H3" t="n">
-        <v>6904</v>
+        <v>6534</v>
       </c>
       <c r="I3" t="n">
-        <v>7056</v>
+        <v>6598</v>
       </c>
       <c r="J3" t="n">
-        <v>7258</v>
+        <v>6694</v>
       </c>
       <c r="K3" t="n">
-        <v>7527</v>
+        <v>6811</v>
       </c>
       <c r="L3" t="n">
-        <v>7854</v>
+        <v>6926</v>
       </c>
       <c r="M3" t="n">
-        <v>8222</v>
+        <v>7068</v>
       </c>
       <c r="N3" t="n">
-        <v>8631</v>
+        <v>7194</v>
       </c>
       <c r="O3" t="n">
-        <v>9084</v>
+        <v>7321</v>
       </c>
       <c r="P3" t="n">
-        <v>9583</v>
+        <v>7454</v>
       </c>
       <c r="Q3" t="n">
-        <v>10131</v>
+        <v>7596</v>
       </c>
       <c r="R3" t="n">
-        <v>10733</v>
+        <v>7737</v>
       </c>
       <c r="S3" t="n">
-        <v>11394</v>
+        <v>7875</v>
       </c>
       <c r="T3" t="n">
-        <v>12119</v>
+        <v>8010</v>
       </c>
       <c r="U3" t="n">
-        <v>12914</v>
+        <v>8143</v>
       </c>
       <c r="V3" t="n">
-        <v>13821</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="4">
@@ -3082,67 +4191,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0909</v>
+        <v>0.0721</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0882</v>
+        <v>0.0724</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0859</v>
+        <v>0.0723</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0838</v>
+        <v>0.0721</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0817</v>
+        <v>0.0717</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0796</v>
+        <v>0.0711</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0773</v>
+        <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0749</v>
+        <v>0.0691</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0732</v>
+        <v>0.0682</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0723</v>
+        <v>0.0673</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0718</v>
+        <v>0.0666</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0716</v>
+        <v>0.066</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0716</v>
+        <v>0.0655</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0718</v>
+        <v>0.0651</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0721</v>
+        <v>0.0646</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0726</v>
+        <v>0.0639</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0732</v>
+        <v>0.0631</v>
       </c>
       <c r="S4" t="n">
-        <v>0.074</v>
+        <v>0.0624</v>
       </c>
       <c r="T4" t="n">
-        <v>0.075</v>
+        <v>0.0616</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0764</v>
+        <v>0.0607</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0781</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="5">
@@ -3162,55 +4271,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0023</v>
+        <v>0.002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0021</v>
+        <v>0.002</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0404</v>
+        <v>0.0383</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0504</v>
+        <v>0.0487</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0513</v>
+        <v>0.0506</v>
       </c>
       <c r="K5" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0554</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0553</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0553</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.0552</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.0551</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.055</v>
       </c>
-      <c r="N5" t="n">
+      <c r="U5" t="n">
         <v>0.055</v>
       </c>
-      <c r="O5" t="n">
+      <c r="V5" t="n">
         <v>0.0549</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.0548</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0548</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0547</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.0546</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.0545</v>
       </c>
     </row>
     <row r="6">
@@ -3218,67 +4327,67 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>286</v>
+        <v>359</v>
       </c>
       <c r="C6" t="n">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="D6" t="n">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="E6" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F6" t="n">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="G6" t="n">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="H6" t="n">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="I6" t="n">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="K6" t="n">
-        <v>397</v>
+        <v>254</v>
       </c>
       <c r="L6" t="n">
-        <v>457</v>
+        <v>269</v>
       </c>
       <c r="M6" t="n">
-        <v>512</v>
+        <v>281</v>
       </c>
       <c r="N6" t="n">
-        <v>567</v>
+        <v>289</v>
       </c>
       <c r="O6" t="n">
-        <v>623</v>
+        <v>296</v>
       </c>
       <c r="P6" t="n">
-        <v>682</v>
+        <v>301</v>
       </c>
       <c r="Q6" t="n">
-        <v>746</v>
+        <v>305</v>
       </c>
       <c r="R6" t="n">
-        <v>815</v>
+        <v>308</v>
       </c>
       <c r="S6" t="n">
-        <v>891</v>
+        <v>310</v>
       </c>
       <c r="T6" t="n">
-        <v>973</v>
+        <v>311</v>
       </c>
       <c r="U6" t="n">
-        <v>1060</v>
+        <v>311</v>
       </c>
       <c r="V6" t="n">
-        <v>1075</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
@@ -3286,67 +4395,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="C7" t="n">
+        <v>321</v>
+      </c>
+      <c r="D7" t="n">
+        <v>303</v>
+      </c>
+      <c r="E7" t="n">
+        <v>296</v>
+      </c>
+      <c r="F7" t="n">
+        <v>286</v>
+      </c>
+      <c r="G7" t="n">
+        <v>254</v>
+      </c>
+      <c r="H7" t="n">
+        <v>230</v>
+      </c>
+      <c r="I7" t="n">
+        <v>246</v>
+      </c>
+      <c r="J7" t="n">
+        <v>270</v>
+      </c>
+      <c r="K7" t="n">
         <v>287</v>
       </c>
-      <c r="D7" t="n">
-        <v>297</v>
-      </c>
-      <c r="E7" t="n">
-        <v>315</v>
-      </c>
-      <c r="F7" t="n">
-        <v>331</v>
-      </c>
-      <c r="G7" t="n">
-        <v>315</v>
-      </c>
-      <c r="H7" t="n">
-        <v>304</v>
-      </c>
-      <c r="I7" t="n">
-        <v>356</v>
-      </c>
-      <c r="J7" t="n">
-        <v>429</v>
-      </c>
-      <c r="K7" t="n">
-        <v>499</v>
-      </c>
       <c r="L7" t="n">
-        <v>551</v>
+        <v>296</v>
       </c>
       <c r="M7" t="n">
-        <v>605</v>
+        <v>302</v>
       </c>
       <c r="N7" t="n">
-        <v>661</v>
+        <v>308</v>
       </c>
       <c r="O7" t="n">
-        <v>723</v>
+        <v>313</v>
       </c>
       <c r="P7" t="n">
-        <v>789</v>
+        <v>316</v>
       </c>
       <c r="Q7" t="n">
-        <v>862</v>
+        <v>319</v>
       </c>
       <c r="R7" t="n">
-        <v>942</v>
+        <v>321</v>
       </c>
       <c r="S7" t="n">
-        <v>1027</v>
+        <v>322</v>
       </c>
       <c r="T7" t="n">
-        <v>1118</v>
+        <v>321</v>
       </c>
       <c r="U7" t="n">
-        <v>1217</v>
+        <v>319</v>
       </c>
       <c r="V7" t="n">
-        <v>1272</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8">
@@ -3354,67 +4463,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C8" t="n">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D8" t="n">
+        <v>148</v>
+      </c>
+      <c r="E8" t="n">
+        <v>158</v>
+      </c>
+      <c r="F8" t="n">
+        <v>155</v>
+      </c>
+      <c r="G8" t="n">
+        <v>121</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>101</v>
+      </c>
+      <c r="J8" t="n">
+        <v>109</v>
+      </c>
+      <c r="K8" t="n">
+        <v>118</v>
+      </c>
+      <c r="L8" t="n">
+        <v>123</v>
+      </c>
+      <c r="M8" t="n">
+        <v>126</v>
+      </c>
+      <c r="N8" t="n">
+        <v>129</v>
+      </c>
+      <c r="O8" t="n">
+        <v>131</v>
+      </c>
+      <c r="P8" t="n">
+        <v>134</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>135</v>
+      </c>
+      <c r="R8" t="n">
+        <v>136</v>
+      </c>
+      <c r="S8" t="n">
         <v>137</v>
       </c>
-      <c r="E8" t="n">
-        <v>160</v>
-      </c>
-      <c r="F8" t="n">
-        <v>170</v>
-      </c>
-      <c r="G8" t="n">
-        <v>144</v>
-      </c>
-      <c r="H8" t="n">
-        <v>126</v>
-      </c>
-      <c r="I8" t="n">
-        <v>138</v>
-      </c>
-      <c r="J8" t="n">
-        <v>164</v>
-      </c>
-      <c r="K8" t="n">
-        <v>193</v>
-      </c>
-      <c r="L8" t="n">
-        <v>218</v>
-      </c>
-      <c r="M8" t="n">
-        <v>241</v>
-      </c>
-      <c r="N8" t="n">
-        <v>264</v>
-      </c>
-      <c r="O8" t="n">
-        <v>289</v>
-      </c>
-      <c r="P8" t="n">
-        <v>316</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>345</v>
-      </c>
-      <c r="R8" t="n">
-        <v>377</v>
-      </c>
-      <c r="S8" t="n">
-        <v>412</v>
-      </c>
       <c r="T8" t="n">
-        <v>450</v>
+        <v>137</v>
       </c>
       <c r="U8" t="n">
-        <v>492</v>
+        <v>136</v>
       </c>
       <c r="V8" t="n">
-        <v>482</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -3422,67 +4531,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="C9" t="n">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D9" t="n">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E9" t="n">
+        <v>165</v>
+      </c>
+      <c r="F9" t="n">
+        <v>149</v>
+      </c>
+      <c r="G9" t="n">
+        <v>117</v>
+      </c>
+      <c r="H9" t="n">
+        <v>112</v>
+      </c>
+      <c r="I9" t="n">
+        <v>118</v>
+      </c>
+      <c r="J9" t="n">
+        <v>126</v>
+      </c>
+      <c r="K9" t="n">
+        <v>136</v>
+      </c>
+      <c r="L9" t="n">
+        <v>146</v>
+      </c>
+      <c r="M9" t="n">
         <v>154</v>
       </c>
-      <c r="F9" t="n">
-        <v>152</v>
-      </c>
-      <c r="G9" t="n">
-        <v>132</v>
-      </c>
-      <c r="H9" t="n">
-        <v>134</v>
-      </c>
-      <c r="I9" t="n">
-        <v>149</v>
-      </c>
-      <c r="J9" t="n">
-        <v>173</v>
-      </c>
-      <c r="K9" t="n">
-        <v>204</v>
-      </c>
-      <c r="L9" t="n">
-        <v>239</v>
-      </c>
-      <c r="M9" t="n">
-        <v>271</v>
-      </c>
       <c r="N9" t="n">
-        <v>303</v>
+        <v>160</v>
       </c>
       <c r="O9" t="n">
-        <v>334</v>
+        <v>164</v>
       </c>
       <c r="P9" t="n">
-        <v>366</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="n">
-        <v>401</v>
+        <v>170</v>
       </c>
       <c r="R9" t="n">
-        <v>438</v>
+        <v>172</v>
       </c>
       <c r="S9" t="n">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="T9" t="n">
-        <v>522</v>
+        <v>175</v>
       </c>
       <c r="U9" t="n">
-        <v>568</v>
+        <v>175</v>
       </c>
       <c r="V9" t="n">
-        <v>588</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -3490,67 +4599,399 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9645</v>
+        <v>0.9463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9645</v>
+        <v>0.9522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.967</v>
+        <v>0.9588</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9656</v>
+        <v>0.9602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9686</v>
+        <v>0.9662</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9684</v>
+        <v>0.9687</v>
       </c>
       <c r="H10" t="n">
-        <v>0.967</v>
+        <v>0.9687</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9648</v>
+        <v>0.9683</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9607</v>
+        <v>0.9669</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9555</v>
+        <v>0.965</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9509</v>
+        <v>0.9636</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9477</v>
+        <v>0.9629</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9453</v>
+        <v>0.9626</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9434</v>
+        <v>0.9626</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9418</v>
+        <v>0.9629</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9403</v>
+        <v>0.9632</v>
       </c>
       <c r="R10" t="n">
-        <v>0.939</v>
+        <v>0.9637</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9377</v>
+        <v>0.9644</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9366</v>
+        <v>0.9652</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9356</v>
+        <v>0.9661</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9347</v>
+        <v>0.9671</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9529</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.9671</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9729</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9814</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9843</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9199</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9436</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9471</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9507</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9543</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9578</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9721</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9793</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9864</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0694</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0681</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0665</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0628</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0606</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0586</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0548</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0479</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0463</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0448</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0409</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0397</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0745</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0758</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0777</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0788</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0827</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0825</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0813</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0809</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0814</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0821</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0821</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0819</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0817</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0813</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0808</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0803</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0797</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>5e-04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4e-04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3641,60 +5082,62 @@
       </c>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>77455</v>
+      </c>
       <c r="E2" t="n">
-        <v>71516</v>
+        <v>79778</v>
       </c>
       <c r="F2" t="n">
-        <v>75092</v>
+        <v>82172</v>
       </c>
       <c r="G2" t="n">
-        <v>78847</v>
+        <v>84637</v>
       </c>
       <c r="H2" t="n">
-        <v>82789</v>
+        <v>87176</v>
       </c>
       <c r="I2" t="n">
-        <v>86929</v>
+        <v>89791</v>
       </c>
       <c r="J2" t="n">
-        <v>91275</v>
+        <v>92485</v>
       </c>
       <c r="K2" t="n">
-        <v>95839</v>
+        <v>95259</v>
       </c>
       <c r="L2" t="n">
-        <v>100631</v>
+        <v>98117</v>
       </c>
       <c r="M2" t="n">
-        <v>105662</v>
+        <v>101061</v>
       </c>
       <c r="N2" t="n">
-        <v>110945</v>
+        <v>104093</v>
       </c>
       <c r="O2" t="n">
-        <v>116493</v>
+        <v>107215</v>
       </c>
       <c r="P2" t="n">
-        <v>122317</v>
+        <v>110432</v>
       </c>
       <c r="Q2" t="n">
-        <v>128433</v>
+        <v>113745</v>
       </c>
       <c r="R2" t="n">
-        <v>134855</v>
+        <v>117157</v>
       </c>
       <c r="S2" t="n">
-        <v>141598</v>
+        <v>120672</v>
       </c>
       <c r="T2" t="n">
-        <v>148678</v>
+        <v>124292</v>
       </c>
       <c r="U2" t="n">
-        <v>156111</v>
+        <v>128021</v>
       </c>
       <c r="V2" t="n">
-        <v>163917</v>
+        <v>131861</v>
       </c>
     </row>
     <row r="3">
@@ -3703,60 +5146,62 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>5124</v>
+      </c>
       <c r="E3" t="n">
-        <v>5400</v>
+        <v>5252</v>
       </c>
       <c r="F3" t="n">
-        <v>5501</v>
+        <v>5362</v>
       </c>
       <c r="G3" t="n">
-        <v>5639</v>
+        <v>5459</v>
       </c>
       <c r="H3" t="n">
-        <v>5808</v>
+        <v>5526</v>
       </c>
       <c r="I3" t="n">
-        <v>6016</v>
+        <v>5576</v>
       </c>
       <c r="J3" t="n">
-        <v>6298</v>
+        <v>5644</v>
       </c>
       <c r="K3" t="n">
-        <v>6677</v>
+        <v>5735</v>
       </c>
       <c r="L3" t="n">
-        <v>7148</v>
+        <v>5844</v>
       </c>
       <c r="M3" t="n">
-        <v>7700</v>
+        <v>5967</v>
       </c>
       <c r="N3" t="n">
-        <v>8341</v>
+        <v>6105</v>
       </c>
       <c r="O3" t="n">
-        <v>9084</v>
+        <v>6257</v>
       </c>
       <c r="P3" t="n">
-        <v>9943</v>
+        <v>6426</v>
       </c>
       <c r="Q3" t="n">
-        <v>10936</v>
+        <v>6612</v>
       </c>
       <c r="R3" t="n">
-        <v>12086</v>
+        <v>6818</v>
       </c>
       <c r="S3" t="n">
-        <v>13415</v>
+        <v>7044</v>
       </c>
       <c r="T3" t="n">
-        <v>14949</v>
+        <v>7294</v>
       </c>
       <c r="U3" t="n">
-        <v>16718</v>
+        <v>7569</v>
       </c>
       <c r="V3" t="n">
-        <v>18751</v>
+        <v>7873</v>
       </c>
     </row>
     <row r="4">
@@ -3765,60 +5210,62 @@
       </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4"/>
+      <c r="D4" t="n">
+        <v>0.0662</v>
+      </c>
       <c r="E4" t="n">
-        <v>0.0755</v>
+        <v>0.0658</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0733</v>
+        <v>0.0653</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0715</v>
+        <v>0.0645</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0702</v>
+        <v>0.0634</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0692</v>
+        <v>0.0621</v>
       </c>
       <c r="J4" t="n">
-        <v>0.069</v>
+        <v>0.061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0697</v>
+        <v>0.0602</v>
       </c>
       <c r="L4" t="n">
-        <v>0.071</v>
+        <v>0.0596</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0729</v>
+        <v>0.059</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0752</v>
+        <v>0.0586</v>
       </c>
       <c r="O4" t="n">
-        <v>0.078</v>
+        <v>0.0584</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0813</v>
+        <v>0.0582</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0852</v>
+        <v>0.0581</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0896</v>
+        <v>0.0582</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0947</v>
+        <v>0.0584</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1005</v>
+        <v>0.0587</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071</v>
+        <v>0.0591</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1144</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="5">
@@ -3827,60 +5274,62 @@
       </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0368</v>
+        <v>0.0347</v>
       </c>
       <c r="I5" t="n">
-        <v>0.046</v>
+        <v>0.0442</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0469</v>
+        <v>0.0459</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0506</v>
+        <v>0.0504</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0507</v>
+        <v>0.0504</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0508</v>
+        <v>0.0504</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0509</v>
+        <v>0.0504</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0511</v>
+        <v>0.0503</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0513</v>
+        <v>0.0503</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0515</v>
+        <v>0.0503</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0517</v>
+        <v>0.0503</v>
       </c>
       <c r="S5" t="n">
-        <v>0.052</v>
+        <v>0.0504</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0524</v>
+        <v>0.0504</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0528</v>
+        <v>0.0504</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0532</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="6">
@@ -3889,60 +5338,62 @@
       </c>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>234</v>
+      </c>
       <c r="E6" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F6" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G6" t="n">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="H6" t="n">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="I6" t="n">
-        <v>303</v>
+        <v>166</v>
       </c>
       <c r="J6" t="n">
-        <v>380</v>
+        <v>182</v>
       </c>
       <c r="K6" t="n">
-        <v>470</v>
+        <v>201</v>
       </c>
       <c r="L6" t="n">
-        <v>562</v>
+        <v>221</v>
       </c>
       <c r="M6" t="n">
-        <v>656</v>
+        <v>238</v>
       </c>
       <c r="N6" t="n">
-        <v>755</v>
+        <v>256</v>
       </c>
       <c r="O6" t="n">
-        <v>866</v>
+        <v>274</v>
       </c>
       <c r="P6" t="n">
-        <v>992</v>
+        <v>293</v>
       </c>
       <c r="Q6" t="n">
-        <v>1136</v>
+        <v>313</v>
       </c>
       <c r="R6" t="n">
-        <v>1302</v>
+        <v>335</v>
       </c>
       <c r="S6" t="n">
-        <v>1493</v>
+        <v>360</v>
       </c>
       <c r="T6" t="n">
-        <v>1713</v>
+        <v>386</v>
       </c>
       <c r="U6" t="n">
-        <v>1964</v>
+        <v>416</v>
       </c>
       <c r="V6" t="n">
-        <v>2112</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7">
@@ -3951,60 +5402,62 @@
       </c>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7"/>
+      <c r="D7" t="n">
+        <v>236</v>
+      </c>
       <c r="E7" t="n">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F7" t="n">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="G7" t="n">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="H7" t="n">
-        <v>335</v>
+        <v>173</v>
       </c>
       <c r="I7" t="n">
-        <v>411</v>
+        <v>191</v>
       </c>
       <c r="J7" t="n">
-        <v>514</v>
+        <v>215</v>
       </c>
       <c r="K7" t="n">
-        <v>618</v>
+        <v>237</v>
       </c>
       <c r="L7" t="n">
-        <v>709</v>
+        <v>253</v>
       </c>
       <c r="M7" t="n">
-        <v>811</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>926</v>
+        <v>289</v>
       </c>
       <c r="O7" t="n">
-        <v>1059</v>
+        <v>308</v>
       </c>
       <c r="P7" t="n">
-        <v>1213</v>
+        <v>330</v>
       </c>
       <c r="Q7" t="n">
-        <v>1390</v>
+        <v>353</v>
       </c>
       <c r="R7" t="n">
-        <v>1595</v>
+        <v>379</v>
       </c>
       <c r="S7" t="n">
-        <v>1830</v>
+        <v>407</v>
       </c>
       <c r="T7" t="n">
-        <v>2098</v>
+        <v>438</v>
       </c>
       <c r="U7" t="n">
-        <v>2402</v>
+        <v>473</v>
       </c>
       <c r="V7" t="n">
-        <v>2580</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8">
@@ -4013,60 +5466,62 @@
       </c>
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>114</v>
+      </c>
       <c r="E8" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F8" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G8" t="n">
+        <v>91</v>
+      </c>
+      <c r="H8" t="n">
+        <v>74</v>
+      </c>
+      <c r="I8" t="n">
+        <v>76</v>
+      </c>
+      <c r="J8" t="n">
+        <v>85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>94</v>
+      </c>
+      <c r="L8" t="n">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>109</v>
+      </c>
+      <c r="N8" t="n">
+        <v>116</v>
+      </c>
+      <c r="O8" t="n">
         <v>124</v>
       </c>
-      <c r="H8" t="n">
-        <v>129</v>
-      </c>
-      <c r="I8" t="n">
-        <v>154</v>
-      </c>
-      <c r="J8" t="n">
-        <v>191</v>
-      </c>
-      <c r="K8" t="n">
-        <v>235</v>
-      </c>
-      <c r="L8" t="n">
-        <v>275</v>
-      </c>
-      <c r="M8" t="n">
-        <v>315</v>
-      </c>
-      <c r="N8" t="n">
-        <v>360</v>
-      </c>
-      <c r="O8" t="n">
-        <v>412</v>
-      </c>
       <c r="P8" t="n">
-        <v>471</v>
+        <v>133</v>
       </c>
       <c r="Q8" t="n">
-        <v>540</v>
+        <v>142</v>
       </c>
       <c r="R8" t="n">
-        <v>619</v>
+        <v>152</v>
       </c>
       <c r="S8" t="n">
-        <v>711</v>
+        <v>164</v>
       </c>
       <c r="T8" t="n">
-        <v>815</v>
+        <v>176</v>
       </c>
       <c r="U8" t="n">
-        <v>934</v>
+        <v>190</v>
       </c>
       <c r="V8" t="n">
-        <v>1004</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
@@ -4075,60 +5530,62 @@
       </c>
       <c r="B9"/>
       <c r="C9"/>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>120</v>
+      </c>
       <c r="E9" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F9" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G9" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H9" t="n">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="I9" t="n">
+        <v>90</v>
+      </c>
+      <c r="J9" t="n">
+        <v>98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>107</v>
+      </c>
+      <c r="L9" t="n">
+        <v>119</v>
+      </c>
+      <c r="M9" t="n">
+        <v>129</v>
+      </c>
+      <c r="N9" t="n">
+        <v>139</v>
+      </c>
+      <c r="O9" t="n">
         <v>149</v>
       </c>
-      <c r="J9" t="n">
-        <v>189</v>
-      </c>
-      <c r="K9" t="n">
-        <v>236</v>
-      </c>
-      <c r="L9" t="n">
-        <v>288</v>
-      </c>
-      <c r="M9" t="n">
-        <v>340</v>
-      </c>
-      <c r="N9" t="n">
-        <v>395</v>
-      </c>
-      <c r="O9" t="n">
-        <v>454</v>
-      </c>
       <c r="P9" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="Q9" t="n">
-        <v>596</v>
+        <v>171</v>
       </c>
       <c r="R9" t="n">
-        <v>683</v>
+        <v>183</v>
       </c>
       <c r="S9" t="n">
-        <v>783</v>
+        <v>196</v>
       </c>
       <c r="T9" t="n">
-        <v>898</v>
+        <v>210</v>
       </c>
       <c r="U9" t="n">
-        <v>1029</v>
+        <v>226</v>
       </c>
       <c r="V9" t="n">
-        <v>1107</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -4137,60 +5594,378 @@
       </c>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>0.9496</v>
+      </c>
       <c r="E10" t="n">
-        <v>0.9567</v>
+        <v>0.9508</v>
       </c>
       <c r="F10" t="n">
-        <v>0.961</v>
+        <v>0.9582</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9574</v>
+        <v>0.9613</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9478</v>
+        <v>0.9609</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9361</v>
+        <v>0.9597</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9229</v>
+        <v>0.9566</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9087</v>
+        <v>0.9525</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8962</v>
+        <v>0.9485</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8868</v>
+        <v>0.9453</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8793</v>
+        <v>0.9425</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8728</v>
+        <v>0.9399</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8669</v>
+        <v>0.9374</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8614</v>
+        <v>0.935</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8563</v>
+        <v>0.9325</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8516</v>
+        <v>0.9299</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8472</v>
+        <v>0.9274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8434</v>
+        <v>0.9247</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8401</v>
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9199</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0569</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0513</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0479</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0465</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0451</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0427</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0407</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0398</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0391</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0384</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0742</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0738</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0726</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0721</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0723</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0738</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0754</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0777</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0805</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>4e-04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3e-04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4281,60 +6056,62 @@
       </c>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>77455</v>
+      </c>
       <c r="E2" t="n">
-        <v>71516</v>
+        <v>79778</v>
       </c>
       <c r="F2" t="n">
-        <v>75092</v>
+        <v>82172</v>
       </c>
       <c r="G2" t="n">
-        <v>78847</v>
+        <v>84637</v>
       </c>
       <c r="H2" t="n">
-        <v>82789</v>
+        <v>87176</v>
       </c>
       <c r="I2" t="n">
-        <v>86929</v>
+        <v>89791</v>
       </c>
       <c r="J2" t="n">
-        <v>91275</v>
+        <v>92485</v>
       </c>
       <c r="K2" t="n">
-        <v>95839</v>
+        <v>95259</v>
       </c>
       <c r="L2" t="n">
-        <v>100631</v>
+        <v>98117</v>
       </c>
       <c r="M2" t="n">
-        <v>105662</v>
+        <v>101061</v>
       </c>
       <c r="N2" t="n">
-        <v>110945</v>
+        <v>104093</v>
       </c>
       <c r="O2" t="n">
-        <v>116493</v>
+        <v>107215</v>
       </c>
       <c r="P2" t="n">
-        <v>122317</v>
+        <v>110432</v>
       </c>
       <c r="Q2" t="n">
-        <v>128433</v>
+        <v>113745</v>
       </c>
       <c r="R2" t="n">
-        <v>134855</v>
+        <v>117157</v>
       </c>
       <c r="S2" t="n">
-        <v>141598</v>
+        <v>120672</v>
       </c>
       <c r="T2" t="n">
-        <v>148678</v>
+        <v>124292</v>
       </c>
       <c r="U2" t="n">
-        <v>156111</v>
+        <v>128021</v>
       </c>
       <c r="V2" t="n">
-        <v>163917</v>
+        <v>131861</v>
       </c>
     </row>
     <row r="3">
@@ -4343,60 +6120,62 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>5124</v>
+      </c>
       <c r="E3" t="n">
-        <v>5397</v>
+        <v>5250</v>
       </c>
       <c r="F3" t="n">
-        <v>5470</v>
+        <v>5333</v>
       </c>
       <c r="G3" t="n">
+        <v>5404</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5445</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5472</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5513</v>
+      </c>
+      <c r="K3" t="n">
         <v>5572</v>
       </c>
-      <c r="H3" t="n">
-        <v>5700</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5859</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6076</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6371</v>
-      </c>
       <c r="L3" t="n">
-        <v>6736</v>
+        <v>5645</v>
       </c>
       <c r="M3" t="n">
-        <v>7162</v>
+        <v>5729</v>
       </c>
       <c r="N3" t="n">
-        <v>7655</v>
+        <v>5824</v>
       </c>
       <c r="O3" t="n">
-        <v>8224</v>
+        <v>5930</v>
       </c>
       <c r="P3" t="n">
-        <v>8880</v>
+        <v>6048</v>
       </c>
       <c r="Q3" t="n">
-        <v>9637</v>
+        <v>6179</v>
       </c>
       <c r="R3" t="n">
-        <v>10512</v>
+        <v>6324</v>
       </c>
       <c r="S3" t="n">
-        <v>11523</v>
+        <v>6484</v>
       </c>
       <c r="T3" t="n">
-        <v>12694</v>
+        <v>6661</v>
       </c>
       <c r="U3" t="n">
-        <v>14050</v>
+        <v>6857</v>
       </c>
       <c r="V3" t="n">
-        <v>15620</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="4">
@@ -4405,60 +6184,62 @@
       </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4"/>
+      <c r="D4" t="n">
+        <v>0.0662</v>
+      </c>
       <c r="E4" t="n">
-        <v>0.0755</v>
+        <v>0.0658</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0728</v>
+        <v>0.0649</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0707</v>
+        <v>0.0638</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0689</v>
+        <v>0.0625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0674</v>
+        <v>0.0609</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0666</v>
+        <v>0.0596</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0665</v>
+        <v>0.0585</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0669</v>
+        <v>0.0575</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0678</v>
+        <v>0.0567</v>
       </c>
       <c r="N4" t="n">
-        <v>0.069</v>
+        <v>0.0559</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0706</v>
+        <v>0.0553</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0726</v>
+        <v>0.0548</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.075</v>
+        <v>0.0543</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0779</v>
+        <v>0.054</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0814</v>
+        <v>0.0537</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0854</v>
+        <v>0.0536</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09</v>
+        <v>0.0536</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0953</v>
+        <v>0.0536</v>
       </c>
     </row>
     <row r="5">
@@ -4467,60 +6248,62 @@
       </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0367</v>
+        <v>0.0347</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0459</v>
+        <v>0.0441</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0468</v>
+        <v>0.0458</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0505</v>
+        <v>0.0504</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0505</v>
+        <v>0.0503</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0505</v>
+        <v>0.0503</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0506</v>
+        <v>0.0502</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0507</v>
+        <v>0.0502</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0508</v>
+        <v>0.0502</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0509</v>
+        <v>0.0501</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0511</v>
+        <v>0.0501</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0513</v>
+        <v>0.0501</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0515</v>
+        <v>0.0501</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0518</v>
+        <v>0.0501</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0521</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="6">
@@ -4529,60 +6312,62 @@
       </c>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>234</v>
+      </c>
       <c r="E6" t="n">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F6" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G6" t="n">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="H6" t="n">
+        <v>139</v>
+      </c>
+      <c r="I6" t="n">
+        <v>143</v>
+      </c>
+      <c r="J6" t="n">
+        <v>155</v>
+      </c>
+      <c r="K6" t="n">
+        <v>170</v>
+      </c>
+      <c r="L6" t="n">
+        <v>184</v>
+      </c>
+      <c r="M6" t="n">
+        <v>197</v>
+      </c>
+      <c r="N6" t="n">
         <v>210</v>
       </c>
-      <c r="I6" t="n">
-        <v>255</v>
-      </c>
-      <c r="J6" t="n">
-        <v>316</v>
-      </c>
-      <c r="K6" t="n">
-        <v>387</v>
-      </c>
-      <c r="L6" t="n">
-        <v>458</v>
-      </c>
-      <c r="M6" t="n">
-        <v>529</v>
-      </c>
-      <c r="N6" t="n">
-        <v>604</v>
-      </c>
       <c r="O6" t="n">
-        <v>687</v>
+        <v>224</v>
       </c>
       <c r="P6" t="n">
-        <v>782</v>
+        <v>238</v>
       </c>
       <c r="Q6" t="n">
-        <v>890</v>
+        <v>253</v>
       </c>
       <c r="R6" t="n">
-        <v>1015</v>
+        <v>269</v>
       </c>
       <c r="S6" t="n">
-        <v>1160</v>
+        <v>286</v>
       </c>
       <c r="T6" t="n">
-        <v>1329</v>
+        <v>306</v>
       </c>
       <c r="U6" t="n">
-        <v>1524</v>
+        <v>327</v>
       </c>
       <c r="V6" t="n">
-        <v>1636</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7">
@@ -4591,60 +6376,62 @@
       </c>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7"/>
+      <c r="D7" t="n">
+        <v>236</v>
+      </c>
       <c r="E7" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F7" t="n">
+        <v>191</v>
+      </c>
+      <c r="G7" t="n">
+        <v>166</v>
+      </c>
+      <c r="H7" t="n">
+        <v>148</v>
+      </c>
+      <c r="I7" t="n">
+        <v>161</v>
+      </c>
+      <c r="J7" t="n">
+        <v>180</v>
+      </c>
+      <c r="K7" t="n">
+        <v>197</v>
+      </c>
+      <c r="L7" t="n">
+        <v>209</v>
+      </c>
+      <c r="M7" t="n">
         <v>222</v>
       </c>
-      <c r="G7" t="n">
-        <v>252</v>
-      </c>
-      <c r="H7" t="n">
-        <v>283</v>
-      </c>
-      <c r="I7" t="n">
-        <v>344</v>
-      </c>
-      <c r="J7" t="n">
-        <v>425</v>
-      </c>
-      <c r="K7" t="n">
-        <v>506</v>
-      </c>
-      <c r="L7" t="n">
-        <v>575</v>
-      </c>
-      <c r="M7" t="n">
-        <v>651</v>
-      </c>
       <c r="N7" t="n">
-        <v>738</v>
+        <v>235</v>
       </c>
       <c r="O7" t="n">
-        <v>838</v>
+        <v>250</v>
       </c>
       <c r="P7" t="n">
-        <v>953</v>
+        <v>265</v>
       </c>
       <c r="Q7" t="n">
-        <v>1087</v>
+        <v>282</v>
       </c>
       <c r="R7" t="n">
-        <v>1243</v>
+        <v>301</v>
       </c>
       <c r="S7" t="n">
-        <v>1424</v>
+        <v>321</v>
       </c>
       <c r="T7" t="n">
-        <v>1634</v>
+        <v>343</v>
       </c>
       <c r="U7" t="n">
-        <v>1877</v>
+        <v>368</v>
       </c>
       <c r="V7" t="n">
-        <v>2024</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8">
@@ -4653,60 +6440,62 @@
       </c>
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>114</v>
+      </c>
       <c r="E8" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F8" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G8" t="n">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="I8" t="n">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="J8" t="n">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="K8" t="n">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="L8" t="n">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="M8" t="n">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="O8" t="n">
-        <v>323</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
-        <v>367</v>
+        <v>107</v>
       </c>
       <c r="Q8" t="n">
-        <v>418</v>
+        <v>114</v>
       </c>
       <c r="R8" t="n">
-        <v>477</v>
+        <v>122</v>
       </c>
       <c r="S8" t="n">
-        <v>546</v>
+        <v>130</v>
       </c>
       <c r="T8" t="n">
-        <v>627</v>
+        <v>139</v>
       </c>
       <c r="U8" t="n">
-        <v>719</v>
+        <v>148</v>
       </c>
       <c r="V8" t="n">
-        <v>728</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -4715,60 +6504,62 @@
       </c>
       <c r="B9"/>
       <c r="C9"/>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>120</v>
+      </c>
       <c r="E9" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F9" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G9" t="n">
+        <v>81</v>
+      </c>
+      <c r="H9" t="n">
+        <v>75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>78</v>
+      </c>
+      <c r="J9" t="n">
+        <v>83</v>
+      </c>
+      <c r="K9" t="n">
         <v>91</v>
       </c>
-      <c r="H9" t="n">
-        <v>102</v>
-      </c>
-      <c r="I9" t="n">
-        <v>127</v>
-      </c>
-      <c r="J9" t="n">
-        <v>159</v>
-      </c>
-      <c r="K9" t="n">
-        <v>197</v>
-      </c>
       <c r="L9" t="n">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="N9" t="n">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="O9" t="n">
-        <v>364</v>
+        <v>122</v>
       </c>
       <c r="P9" t="n">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="Q9" t="n">
-        <v>471</v>
+        <v>138</v>
       </c>
       <c r="R9" t="n">
-        <v>537</v>
+        <v>147</v>
       </c>
       <c r="S9" t="n">
-        <v>613</v>
+        <v>156</v>
       </c>
       <c r="T9" t="n">
-        <v>701</v>
+        <v>167</v>
       </c>
       <c r="U9" t="n">
-        <v>803</v>
+        <v>178</v>
       </c>
       <c r="V9" t="n">
-        <v>851</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
@@ -4777,60 +6568,378 @@
       </c>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>0.9496</v>
+      </c>
       <c r="E10" t="n">
+        <v>0.9503</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.9561</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.9571</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9515</v>
-      </c>
       <c r="H10" t="n">
+        <v>0.9548</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9529</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9489</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9437</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9388</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9349</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9316</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9286</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9258</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9202</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9147</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9118</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9199</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.9399</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.9261</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9108</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.8945</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.8803</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.8701</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.8623</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.8558</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.8503</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.8456</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.8416</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.8382</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.8354</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.8335</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.8319</v>
+      <c r="I12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0545</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0488</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0471</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0427</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0402</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0373</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0365</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0705</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0697</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0726</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0719</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0693</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0689</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0685</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0683</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0682</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0682</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0684</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0686</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0689</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0694</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0707</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>4e-04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3e-04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4921,60 +7030,62 @@
       </c>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>77455</v>
+      </c>
       <c r="E2" t="n">
-        <v>71516</v>
+        <v>79778</v>
       </c>
       <c r="F2" t="n">
-        <v>75092</v>
+        <v>82172</v>
       </c>
       <c r="G2" t="n">
-        <v>78847</v>
+        <v>84637</v>
       </c>
       <c r="H2" t="n">
-        <v>82789</v>
+        <v>87176</v>
       </c>
       <c r="I2" t="n">
-        <v>86929</v>
+        <v>89791</v>
       </c>
       <c r="J2" t="n">
-        <v>91275</v>
+        <v>92485</v>
       </c>
       <c r="K2" t="n">
-        <v>95839</v>
+        <v>95259</v>
       </c>
       <c r="L2" t="n">
-        <v>100631</v>
+        <v>98117</v>
       </c>
       <c r="M2" t="n">
-        <v>105662</v>
+        <v>101061</v>
       </c>
       <c r="N2" t="n">
-        <v>110945</v>
+        <v>104093</v>
       </c>
       <c r="O2" t="n">
-        <v>116493</v>
+        <v>107215</v>
       </c>
       <c r="P2" t="n">
-        <v>122317</v>
+        <v>110432</v>
       </c>
       <c r="Q2" t="n">
-        <v>128433</v>
+        <v>113745</v>
       </c>
       <c r="R2" t="n">
-        <v>134855</v>
+        <v>117157</v>
       </c>
       <c r="S2" t="n">
-        <v>141598</v>
+        <v>120672</v>
       </c>
       <c r="T2" t="n">
-        <v>148678</v>
+        <v>124292</v>
       </c>
       <c r="U2" t="n">
-        <v>156111</v>
+        <v>128021</v>
       </c>
       <c r="V2" t="n">
-        <v>163917</v>
+        <v>131861</v>
       </c>
     </row>
     <row r="3">
@@ -4983,60 +7094,62 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>5124</v>
+      </c>
       <c r="E3" t="n">
-        <v>5403</v>
+        <v>5255</v>
       </c>
       <c r="F3" t="n">
-        <v>5541</v>
+        <v>5399</v>
       </c>
       <c r="G3" t="n">
-        <v>5726</v>
+        <v>5533</v>
       </c>
       <c r="H3" t="n">
-        <v>5952</v>
+        <v>5633</v>
       </c>
       <c r="I3" t="n">
-        <v>6229</v>
+        <v>5716</v>
       </c>
       <c r="J3" t="n">
-        <v>6601</v>
+        <v>5822</v>
       </c>
       <c r="K3" t="n">
-        <v>7101</v>
+        <v>5959</v>
       </c>
       <c r="L3" t="n">
-        <v>7728</v>
+        <v>6120</v>
       </c>
       <c r="M3" t="n">
-        <v>8465</v>
+        <v>6301</v>
       </c>
       <c r="N3" t="n">
-        <v>9326</v>
+        <v>6503</v>
       </c>
       <c r="O3" t="n">
-        <v>10327</v>
+        <v>6725</v>
       </c>
       <c r="P3" t="n">
-        <v>11487</v>
+        <v>6971</v>
       </c>
       <c r="Q3" t="n">
-        <v>12828</v>
+        <v>7243</v>
       </c>
       <c r="R3" t="n">
-        <v>14375</v>
+        <v>7542</v>
       </c>
       <c r="S3" t="n">
-        <v>16151</v>
+        <v>7872</v>
       </c>
       <c r="T3" t="n">
-        <v>18185</v>
+        <v>8237</v>
       </c>
       <c r="U3" t="n">
-        <v>20499</v>
+        <v>8639</v>
       </c>
       <c r="V3" t="n">
-        <v>23117</v>
+        <v>9084</v>
       </c>
     </row>
     <row r="4">
@@ -5045,60 +7158,62 @@
       </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4"/>
+      <c r="D4" t="n">
+        <v>0.0662</v>
+      </c>
       <c r="E4" t="n">
-        <v>0.0755</v>
+        <v>0.0659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0738</v>
+        <v>0.0657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0726</v>
+        <v>0.0654</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0719</v>
+        <v>0.0646</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0717</v>
+        <v>0.0637</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0723</v>
+        <v>0.063</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0741</v>
+        <v>0.0626</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0768</v>
+        <v>0.0624</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0801</v>
+        <v>0.0624</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0841</v>
+        <v>0.0625</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0886</v>
+        <v>0.0627</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0939</v>
+        <v>0.0631</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0999</v>
+        <v>0.0637</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1066</v>
+        <v>0.0644</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1141</v>
+        <v>0.0652</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1223</v>
+        <v>0.0663</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1313</v>
+        <v>0.0675</v>
       </c>
       <c r="V4" t="n">
-        <v>0.141</v>
+        <v>0.0689</v>
       </c>
     </row>
     <row r="5">
@@ -5107,60 +7222,62 @@
       </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0369</v>
+        <v>0.0347</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0461</v>
+        <v>0.0442</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0471</v>
+        <v>0.046</v>
       </c>
       <c r="K5" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0507</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0507</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0508</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0508</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.0509</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0512</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0514</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.0517</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0523</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0527</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.0532</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0537</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.0542</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.0548</v>
       </c>
     </row>
     <row r="6">
@@ -5169,60 +7286,62 @@
       </c>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>234</v>
+      </c>
       <c r="E6" t="n">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F6" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G6" t="n">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="H6" t="n">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="I6" t="n">
-        <v>368</v>
+        <v>199</v>
       </c>
       <c r="J6" t="n">
-        <v>468</v>
+        <v>221</v>
       </c>
       <c r="K6" t="n">
-        <v>587</v>
+        <v>247</v>
       </c>
       <c r="L6" t="n">
-        <v>712</v>
+        <v>273</v>
       </c>
       <c r="M6" t="n">
-        <v>839</v>
+        <v>298</v>
       </c>
       <c r="N6" t="n">
-        <v>975</v>
+        <v>322</v>
       </c>
       <c r="O6" t="n">
-        <v>1127</v>
+        <v>348</v>
       </c>
       <c r="P6" t="n">
-        <v>1299</v>
+        <v>375</v>
       </c>
       <c r="Q6" t="n">
-        <v>1494</v>
+        <v>405</v>
       </c>
       <c r="R6" t="n">
-        <v>1714</v>
+        <v>437</v>
       </c>
       <c r="S6" t="n">
-        <v>1963</v>
+        <v>472</v>
       </c>
       <c r="T6" t="n">
-        <v>2241</v>
+        <v>512</v>
       </c>
       <c r="U6" t="n">
-        <v>2548</v>
+        <v>555</v>
       </c>
       <c r="V6" t="n">
-        <v>2769</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7">
@@ -5231,60 +7350,62 @@
       </c>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7"/>
+      <c r="D7" t="n">
+        <v>236</v>
+      </c>
       <c r="E7" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F7" t="n">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="G7" t="n">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="H7" t="n">
-        <v>406</v>
+        <v>209</v>
       </c>
       <c r="I7" t="n">
-        <v>504</v>
+        <v>232</v>
       </c>
       <c r="J7" t="n">
-        <v>640</v>
+        <v>264</v>
       </c>
       <c r="K7" t="n">
-        <v>782</v>
+        <v>294</v>
       </c>
       <c r="L7" t="n">
-        <v>907</v>
+        <v>317</v>
       </c>
       <c r="M7" t="n">
-        <v>1047</v>
+        <v>342</v>
       </c>
       <c r="N7" t="n">
-        <v>1206</v>
+        <v>368</v>
       </c>
       <c r="O7" t="n">
-        <v>1387</v>
+        <v>396</v>
       </c>
       <c r="P7" t="n">
-        <v>1594</v>
+        <v>427</v>
       </c>
       <c r="Q7" t="n">
-        <v>1829</v>
+        <v>461</v>
       </c>
       <c r="R7" t="n">
-        <v>2094</v>
+        <v>499</v>
       </c>
       <c r="S7" t="n">
-        <v>2390</v>
+        <v>540</v>
       </c>
       <c r="T7" t="n">
-        <v>2717</v>
+        <v>586</v>
       </c>
       <c r="U7" t="n">
-        <v>3074</v>
+        <v>637</v>
       </c>
       <c r="V7" t="n">
-        <v>3282</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8">
@@ -5293,60 +7414,62 @@
       </c>
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>114</v>
+      </c>
       <c r="E8" t="n">
+        <v>132</v>
+      </c>
+      <c r="F8" t="n">
+        <v>136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>107</v>
+      </c>
+      <c r="H8" t="n">
+        <v>89</v>
+      </c>
+      <c r="I8" t="n">
+        <v>92</v>
+      </c>
+      <c r="J8" t="n">
+        <v>103</v>
+      </c>
+      <c r="K8" t="n">
+        <v>116</v>
+      </c>
+      <c r="L8" t="n">
         <v>127</v>
       </c>
-      <c r="F8" t="n">
-        <v>147</v>
-      </c>
-      <c r="G8" t="n">
-        <v>149</v>
-      </c>
-      <c r="H8" t="n">
-        <v>156</v>
-      </c>
-      <c r="I8" t="n">
-        <v>189</v>
-      </c>
-      <c r="J8" t="n">
-        <v>239</v>
-      </c>
-      <c r="K8" t="n">
-        <v>297</v>
-      </c>
-      <c r="L8" t="n">
-        <v>352</v>
-      </c>
       <c r="M8" t="n">
-        <v>409</v>
+        <v>137</v>
       </c>
       <c r="N8" t="n">
-        <v>472</v>
+        <v>148</v>
       </c>
       <c r="O8" t="n">
-        <v>543</v>
+        <v>159</v>
       </c>
       <c r="P8" t="n">
-        <v>624</v>
+        <v>171</v>
       </c>
       <c r="Q8" t="n">
-        <v>717</v>
+        <v>185</v>
       </c>
       <c r="R8" t="n">
-        <v>822</v>
+        <v>200</v>
       </c>
       <c r="S8" t="n">
-        <v>940</v>
+        <v>216</v>
       </c>
       <c r="T8" t="n">
-        <v>1071</v>
+        <v>234</v>
       </c>
       <c r="U8" t="n">
-        <v>1215</v>
+        <v>255</v>
       </c>
       <c r="V8" t="n">
-        <v>1288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
@@ -5355,60 +7478,62 @@
       </c>
       <c r="B9"/>
       <c r="C9"/>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>120</v>
+      </c>
       <c r="E9" t="n">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F9" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G9" t="n">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H9" t="n">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="J9" t="n">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="K9" t="n">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="L9" t="n">
-        <v>360</v>
+        <v>146</v>
       </c>
       <c r="M9" t="n">
-        <v>430</v>
+        <v>161</v>
       </c>
       <c r="N9" t="n">
-        <v>504</v>
+        <v>175</v>
       </c>
       <c r="O9" t="n">
-        <v>584</v>
+        <v>189</v>
       </c>
       <c r="P9" t="n">
-        <v>675</v>
+        <v>204</v>
       </c>
       <c r="Q9" t="n">
-        <v>777</v>
+        <v>220</v>
       </c>
       <c r="R9" t="n">
-        <v>892</v>
+        <v>237</v>
       </c>
       <c r="S9" t="n">
-        <v>1023</v>
+        <v>256</v>
       </c>
       <c r="T9" t="n">
-        <v>1170</v>
+        <v>277</v>
       </c>
       <c r="U9" t="n">
-        <v>1333</v>
+        <v>300</v>
       </c>
       <c r="V9" t="n">
-        <v>1486</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
@@ -5417,60 +7542,378 @@
       </c>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>0.9496</v>
+      </c>
       <c r="E10" t="n">
-        <v>0.9572</v>
+        <v>0.9512</v>
       </c>
       <c r="F10" t="n">
-        <v>0.964</v>
+        <v>0.9614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.962</v>
+        <v>0.9654</v>
       </c>
       <c r="H10" t="n">
-        <v>0.954</v>
+        <v>0.9656</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9438</v>
+        <v>0.9648</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9323</v>
+        <v>0.9623</v>
       </c>
       <c r="K10" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9555</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9528</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9505</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9483</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9461</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9418</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9395</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9372</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9348</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.9324</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.9199</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.9088</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9003</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.8933</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.887</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.8811</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.8754</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.8699</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.8645</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.8594</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.8545</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.8501</v>
+      <c r="H12" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0592</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0574</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0521</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0505</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0477</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0465</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0444</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0413</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0719</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0722</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0763</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0764</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0757</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0757</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0766</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0788</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0802</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0817</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0835</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0875</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0898</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0924</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0952</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>5e-04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4e-04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1e-04</v>
       </c>
     </row>
   </sheetData>
@@ -5561,60 +8004,62 @@
       </c>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>77455</v>
+      </c>
       <c r="E2" t="n">
-        <v>71516</v>
+        <v>79778</v>
       </c>
       <c r="F2" t="n">
-        <v>75092</v>
+        <v>82172</v>
       </c>
       <c r="G2" t="n">
-        <v>78847</v>
+        <v>84637</v>
       </c>
       <c r="H2" t="n">
-        <v>82789</v>
+        <v>87176</v>
       </c>
       <c r="I2" t="n">
-        <v>86929</v>
+        <v>89791</v>
       </c>
       <c r="J2" t="n">
-        <v>91275</v>
+        <v>92485</v>
       </c>
       <c r="K2" t="n">
-        <v>95839</v>
+        <v>95259</v>
       </c>
       <c r="L2" t="n">
-        <v>100631</v>
+        <v>98117</v>
       </c>
       <c r="M2" t="n">
-        <v>105662</v>
+        <v>101061</v>
       </c>
       <c r="N2" t="n">
-        <v>110945</v>
+        <v>104093</v>
       </c>
       <c r="O2" t="n">
-        <v>116493</v>
+        <v>107215</v>
       </c>
       <c r="P2" t="n">
-        <v>122317</v>
+        <v>110432</v>
       </c>
       <c r="Q2" t="n">
-        <v>128433</v>
+        <v>113745</v>
       </c>
       <c r="R2" t="n">
-        <v>134855</v>
+        <v>117157</v>
       </c>
       <c r="S2" t="n">
-        <v>141598</v>
+        <v>120672</v>
       </c>
       <c r="T2" t="n">
-        <v>148678</v>
+        <v>124292</v>
       </c>
       <c r="U2" t="n">
-        <v>156111</v>
+        <v>128021</v>
       </c>
       <c r="V2" t="n">
-        <v>163917</v>
+        <v>131861</v>
       </c>
     </row>
     <row r="3">
@@ -5623,60 +8068,62 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>5124</v>
+      </c>
       <c r="E3" t="n">
-        <v>5400</v>
+        <v>5252</v>
       </c>
       <c r="F3" t="n">
-        <v>5512</v>
+        <v>5364</v>
       </c>
       <c r="G3" t="n">
-        <v>5632</v>
+        <v>5458</v>
       </c>
       <c r="H3" t="n">
-        <v>5749</v>
+        <v>5521</v>
       </c>
       <c r="I3" t="n">
-        <v>5883</v>
+        <v>5566</v>
       </c>
       <c r="J3" t="n">
-        <v>6064</v>
+        <v>5612</v>
       </c>
       <c r="K3" t="n">
-        <v>6307</v>
+        <v>5659</v>
       </c>
       <c r="L3" t="n">
-        <v>6605</v>
+        <v>5707</v>
       </c>
       <c r="M3" t="n">
-        <v>6942</v>
+        <v>5754</v>
       </c>
       <c r="N3" t="n">
-        <v>7319</v>
+        <v>5801</v>
       </c>
       <c r="O3" t="n">
-        <v>7739</v>
+        <v>5847</v>
       </c>
       <c r="P3" t="n">
-        <v>8203</v>
+        <v>5891</v>
       </c>
       <c r="Q3" t="n">
-        <v>8717</v>
+        <v>5933</v>
       </c>
       <c r="R3" t="n">
-        <v>9285</v>
+        <v>5973</v>
       </c>
       <c r="S3" t="n">
-        <v>9913</v>
+        <v>6010</v>
       </c>
       <c r="T3" t="n">
-        <v>10606</v>
+        <v>6043</v>
       </c>
       <c r="U3" t="n">
-        <v>11372</v>
+        <v>6072</v>
       </c>
       <c r="V3" t="n">
-        <v>12218</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="4">
@@ -5685,60 +8132,62 @@
       </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4"/>
+      <c r="D4" t="n">
+        <v>0.0662</v>
+      </c>
       <c r="E4" t="n">
-        <v>0.0755</v>
+        <v>0.0658</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0734</v>
+        <v>0.0653</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0714</v>
+        <v>0.0645</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0694</v>
+        <v>0.0633</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0677</v>
+        <v>0.062</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0664</v>
+        <v>0.0607</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0658</v>
+        <v>0.0594</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0656</v>
+        <v>0.0582</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0657</v>
+        <v>0.0569</v>
       </c>
       <c r="N4" t="n">
-        <v>0.066</v>
+        <v>0.0557</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0664</v>
+        <v>0.0545</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0671</v>
+        <v>0.0533</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0679</v>
+        <v>0.0522</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0689</v>
+        <v>0.051</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07</v>
+        <v>0.0498</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0713</v>
+        <v>0.0486</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0728</v>
+        <v>0.0474</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0745</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="5">
@@ -5747,7 +8196,9 @@
       </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -5809,60 +8260,62 @@
       </c>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>234</v>
+      </c>
       <c r="E6" t="n">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F6" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G6" t="n">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H6" t="n">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="I6" t="n">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="J6" t="n">
-        <v>288</v>
+        <v>163</v>
       </c>
       <c r="K6" t="n">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="L6" t="n">
-        <v>399</v>
+        <v>167</v>
       </c>
       <c r="M6" t="n">
-        <v>449</v>
+        <v>169</v>
       </c>
       <c r="N6" t="n">
-        <v>498</v>
+        <v>169</v>
       </c>
       <c r="O6" t="n">
-        <v>547</v>
+        <v>170</v>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>169</v>
       </c>
       <c r="Q6" t="n">
-        <v>657</v>
+        <v>169</v>
       </c>
       <c r="R6" t="n">
-        <v>720</v>
+        <v>167</v>
       </c>
       <c r="S6" t="n">
-        <v>788</v>
+        <v>165</v>
       </c>
       <c r="T6" t="n">
-        <v>863</v>
+        <v>163</v>
       </c>
       <c r="U6" t="n">
-        <v>946</v>
+        <v>159</v>
       </c>
       <c r="V6" t="n">
-        <v>995</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
@@ -5871,60 +8324,62 @@
       </c>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7"/>
+      <c r="D7" t="n">
+        <v>236</v>
+      </c>
       <c r="E7" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F7" t="n">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G7" t="n">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="H7" t="n">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="I7" t="n">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="J7" t="n">
-        <v>375</v>
+        <v>172</v>
       </c>
       <c r="K7" t="n">
-        <v>438</v>
+        <v>174</v>
       </c>
       <c r="L7" t="n">
-        <v>484</v>
+        <v>175</v>
       </c>
       <c r="M7" t="n">
-        <v>532</v>
+        <v>175</v>
       </c>
       <c r="N7" t="n">
-        <v>583</v>
+        <v>175</v>
       </c>
       <c r="O7" t="n">
-        <v>638</v>
+        <v>175</v>
       </c>
       <c r="P7" t="n">
-        <v>697</v>
+        <v>174</v>
       </c>
       <c r="Q7" t="n">
-        <v>763</v>
+        <v>173</v>
       </c>
       <c r="R7" t="n">
-        <v>835</v>
+        <v>170</v>
       </c>
       <c r="S7" t="n">
-        <v>915</v>
+        <v>167</v>
       </c>
       <c r="T7" t="n">
-        <v>1003</v>
+        <v>164</v>
       </c>
       <c r="U7" t="n">
-        <v>1101</v>
+        <v>159</v>
       </c>
       <c r="V7" t="n">
-        <v>1157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
@@ -5933,60 +8388,62 @@
       </c>
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>114</v>
+      </c>
       <c r="E8" t="n">
+        <v>121</v>
+      </c>
+      <c r="F8" t="n">
         <v>118</v>
       </c>
-      <c r="F8" t="n">
-        <v>125</v>
-      </c>
       <c r="G8" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H8" t="n">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="I8" t="n">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="J8" t="n">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="K8" t="n">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="L8" t="n">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="M8" t="n">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="N8" t="n">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="O8" t="n">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="P8" t="n">
-        <v>277</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="n">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="R8" t="n">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="S8" t="n">
-        <v>363</v>
+        <v>71</v>
       </c>
       <c r="T8" t="n">
-        <v>398</v>
+        <v>69</v>
       </c>
       <c r="U8" t="n">
-        <v>436</v>
+        <v>68</v>
       </c>
       <c r="V8" t="n">
-        <v>458</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -5995,60 +8452,62 @@
       </c>
       <c r="B9"/>
       <c r="C9"/>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>120</v>
+      </c>
       <c r="E9" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F9" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G9" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H9" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="I9" t="n">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="J9" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="K9" t="n">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="L9" t="n">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="N9" t="n">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c r="O9" t="n">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="P9" t="n">
-        <v>324</v>
+        <v>96</v>
       </c>
       <c r="Q9" t="n">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="R9" t="n">
-        <v>388</v>
+        <v>96</v>
       </c>
       <c r="S9" t="n">
-        <v>425</v>
+        <v>95</v>
       </c>
       <c r="T9" t="n">
-        <v>466</v>
+        <v>93</v>
       </c>
       <c r="U9" t="n">
-        <v>510</v>
+        <v>92</v>
       </c>
       <c r="V9" t="n">
-        <v>536</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -6057,61 +8516,345 @@
       </c>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>0.9496</v>
+      </c>
       <c r="E10" t="n">
-        <v>0.9567</v>
+        <v>0.9508</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9598</v>
+        <v>0.9579</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9595</v>
+        <v>0.9617</v>
       </c>
       <c r="H10" t="n">
+        <v>0.9603</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9596</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9591</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9587</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9589</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9592</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.9596</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9602</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9608</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9616</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.9635</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.9529</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.9459</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9373</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9273</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9184</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9121</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.9072</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.9033</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.8998</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.8967</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.8939</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.8912</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.8886</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.8861</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.8838</v>
-      </c>
+      <c r="J11" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.9671</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9729</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9814</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9843</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9199</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9436</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9471</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9507</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9543</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9578</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9721</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9864</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0589</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0571</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0552</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0534</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0517</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0501</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0485</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0441</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0427</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0401</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0363</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0692</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0684</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0677</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0668</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0651</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0642</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0633</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0623</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0613</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0602</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0579</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6201,60 +8944,62 @@
       </c>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>77455</v>
+      </c>
       <c r="E2" t="n">
-        <v>71516</v>
+        <v>79778</v>
       </c>
       <c r="F2" t="n">
-        <v>75092</v>
+        <v>82172</v>
       </c>
       <c r="G2" t="n">
-        <v>78847</v>
+        <v>84637</v>
       </c>
       <c r="H2" t="n">
-        <v>82789</v>
+        <v>87176</v>
       </c>
       <c r="I2" t="n">
-        <v>86929</v>
+        <v>89791</v>
       </c>
       <c r="J2" t="n">
-        <v>91275</v>
+        <v>92485</v>
       </c>
       <c r="K2" t="n">
-        <v>95839</v>
+        <v>95259</v>
       </c>
       <c r="L2" t="n">
-        <v>100631</v>
+        <v>98117</v>
       </c>
       <c r="M2" t="n">
-        <v>105662</v>
+        <v>101061</v>
       </c>
       <c r="N2" t="n">
-        <v>110945</v>
+        <v>104093</v>
       </c>
       <c r="O2" t="n">
-        <v>116493</v>
+        <v>107215</v>
       </c>
       <c r="P2" t="n">
-        <v>122317</v>
+        <v>110432</v>
       </c>
       <c r="Q2" t="n">
-        <v>128433</v>
+        <v>113745</v>
       </c>
       <c r="R2" t="n">
-        <v>134855</v>
+        <v>117157</v>
       </c>
       <c r="S2" t="n">
-        <v>141598</v>
+        <v>120672</v>
       </c>
       <c r="T2" t="n">
-        <v>148678</v>
+        <v>124292</v>
       </c>
       <c r="U2" t="n">
-        <v>156111</v>
+        <v>128021</v>
       </c>
       <c r="V2" t="n">
-        <v>163917</v>
+        <v>131861</v>
       </c>
     </row>
     <row r="3">
@@ -6263,60 +9008,62 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>5124</v>
+      </c>
       <c r="E3" t="n">
-        <v>5397</v>
+        <v>5250</v>
       </c>
       <c r="F3" t="n">
-        <v>5480</v>
+        <v>5334</v>
       </c>
       <c r="G3" t="n">
-        <v>5568</v>
+        <v>5400</v>
       </c>
       <c r="H3" t="n">
+        <v>5438</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5460</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5482</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5505</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5527</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5549</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5571</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5591</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5609</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5625</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5639</v>
+      </c>
+      <c r="S3" t="n">
         <v>5650</v>
       </c>
-      <c r="I3" t="n">
-        <v>5743</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5873</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6049</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6265</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6507</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6774</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7069</v>
-      </c>
-      <c r="P3" t="n">
-        <v>7391</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>7744</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8130</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8550</v>
-      </c>
       <c r="T3" t="n">
-        <v>9009</v>
+        <v>5658</v>
       </c>
       <c r="U3" t="n">
-        <v>9511</v>
+        <v>5661</v>
       </c>
       <c r="V3" t="n">
-        <v>10057</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="4">
@@ -6325,60 +9072,62 @@
       </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4"/>
+      <c r="D4" t="n">
+        <v>0.0662</v>
+      </c>
       <c r="E4" t="n">
-        <v>0.0755</v>
+        <v>0.0658</v>
       </c>
       <c r="F4" t="n">
-        <v>0.073</v>
+        <v>0.0649</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0706</v>
+        <v>0.0638</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0682</v>
+        <v>0.0624</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0661</v>
+        <v>0.0608</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0643</v>
+        <v>0.0593</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0631</v>
+        <v>0.0578</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0623</v>
+        <v>0.0563</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0616</v>
+        <v>0.0549</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0611</v>
+        <v>0.0535</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0607</v>
+        <v>0.0521</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0604</v>
+        <v>0.0508</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0603</v>
+        <v>0.0495</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0603</v>
+        <v>0.0481</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0604</v>
+        <v>0.0468</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0606</v>
+        <v>0.0455</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0609</v>
+        <v>0.0442</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0614</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="5">
@@ -6387,7 +9136,9 @@
       </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -6449,60 +9200,62 @@
       </c>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>234</v>
+      </c>
       <c r="E6" t="n">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F6" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G6" t="n">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H6" t="n">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="I6" t="n">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="J6" t="n">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="K6" t="n">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="L6" t="n">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="M6" t="n">
-        <v>355</v>
+        <v>140</v>
       </c>
       <c r="N6" t="n">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="O6" t="n">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="P6" t="n">
-        <v>454</v>
+        <v>139</v>
       </c>
       <c r="Q6" t="n">
-        <v>490</v>
+        <v>137</v>
       </c>
       <c r="R6" t="n">
-        <v>529</v>
+        <v>136</v>
       </c>
       <c r="S6" t="n">
-        <v>571</v>
+        <v>133</v>
       </c>
       <c r="T6" t="n">
-        <v>616</v>
+        <v>130</v>
       </c>
       <c r="U6" t="n">
-        <v>665</v>
+        <v>127</v>
       </c>
       <c r="V6" t="n">
-        <v>696</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -6511,60 +9264,62 @@
       </c>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7"/>
+      <c r="D7" t="n">
+        <v>236</v>
+      </c>
       <c r="E7" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F7" t="n">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="G7" t="n">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="H7" t="n">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="I7" t="n">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="J7" t="n">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="K7" t="n">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="L7" t="n">
-        <v>381</v>
+        <v>145</v>
       </c>
       <c r="M7" t="n">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="N7" t="n">
-        <v>446</v>
+        <v>144</v>
       </c>
       <c r="O7" t="n">
-        <v>481</v>
+        <v>143</v>
       </c>
       <c r="P7" t="n">
-        <v>518</v>
+        <v>142</v>
       </c>
       <c r="Q7" t="n">
-        <v>559</v>
+        <v>139</v>
       </c>
       <c r="R7" t="n">
-        <v>603</v>
+        <v>137</v>
       </c>
       <c r="S7" t="n">
-        <v>651</v>
+        <v>134</v>
       </c>
       <c r="T7" t="n">
-        <v>703</v>
+        <v>130</v>
       </c>
       <c r="U7" t="n">
-        <v>760</v>
+        <v>125</v>
       </c>
       <c r="V7" t="n">
-        <v>793</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -6573,60 +9328,62 @@
       </c>
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>114</v>
+      </c>
       <c r="E8" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F8" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G8" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H8" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I8" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="J8" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="L8" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="M8" t="n">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="N8" t="n">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="O8" t="n">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="P8" t="n">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="Q8" t="n">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="R8" t="n">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="S8" t="n">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="T8" t="n">
-        <v>281</v>
+        <v>55</v>
       </c>
       <c r="U8" t="n">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="V8" t="n">
-        <v>314</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -6635,60 +9392,62 @@
       </c>
       <c r="B9"/>
       <c r="C9"/>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>120</v>
+      </c>
       <c r="E9" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F9" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G9" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I9" t="n">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="J9" t="n">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="K9" t="n">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="L9" t="n">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="M9" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="O9" t="n">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="P9" t="n">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="n">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="R9" t="n">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="S9" t="n">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="T9" t="n">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="U9" t="n">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="V9" t="n">
-        <v>368</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -6697,61 +9456,345 @@
       </c>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>0.9496</v>
+      </c>
       <c r="E10" t="n">
+        <v>0.9503</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9537</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9564</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9522</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9516</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9513</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9512</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9512</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9514</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9517</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.9521</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9527</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9533</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9551</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.9562</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.9558</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9539</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.9456</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.9263</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9033</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.8957</v>
-      </c>
-      <c r="N10" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.89</v>
       </c>
-      <c r="O10" t="n">
-        <v>0.8854</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.8817</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.8784</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.8755</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.8728</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.8703</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.8681</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.8662</v>
-      </c>
+      <c r="G11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9529</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.9671</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9729</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9814</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9843</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" t="n">
+        <v>0.8798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9199</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9399</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9436</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9471</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9507</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9543</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9578</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9721</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9864</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0586</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0547</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0528</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0511</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0493</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0477</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0446</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0431</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0416</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0402</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0389</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0362</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="n">
+        <v>0.0703</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0702</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0699</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0691</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0668</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0635</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0623</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0611</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0576</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0563</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0525</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plots/results.xlsx
+++ b/plots/results.xlsx
@@ -559,28 +559,28 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>5306</v>
+        <v>4564</v>
       </c>
       <c r="C3" t="n">
-        <v>5615</v>
+        <v>4816</v>
       </c>
       <c r="D3" t="n">
-        <v>5899</v>
+        <v>5041</v>
       </c>
       <c r="E3" t="n">
-        <v>6205</v>
+        <v>5351</v>
       </c>
       <c r="F3" t="n">
-        <v>6554</v>
+        <v>5698</v>
       </c>
       <c r="G3" t="n">
-        <v>6864</v>
+        <v>5947</v>
       </c>
       <c r="H3" t="n">
-        <v>7224</v>
+        <v>6346</v>
       </c>
       <c r="I3" t="n">
-        <v>7509</v>
+        <v>6630</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -1065,61 +1065,61 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>77455</v>
+        <v>22636</v>
       </c>
       <c r="E2" t="n">
-        <v>79778</v>
+        <v>23315</v>
       </c>
       <c r="F2" t="n">
-        <v>82172</v>
+        <v>24015</v>
       </c>
       <c r="G2" t="n">
-        <v>84637</v>
+        <v>24735</v>
       </c>
       <c r="H2" t="n">
-        <v>87176</v>
+        <v>25477</v>
       </c>
       <c r="I2" t="n">
-        <v>89791</v>
+        <v>26242</v>
       </c>
       <c r="J2" t="n">
-        <v>92485</v>
+        <v>27029</v>
       </c>
       <c r="K2" t="n">
-        <v>95259</v>
+        <v>27840</v>
       </c>
       <c r="L2" t="n">
-        <v>98117</v>
+        <v>28675</v>
       </c>
       <c r="M2" t="n">
-        <v>101061</v>
+        <v>29535</v>
       </c>
       <c r="N2" t="n">
-        <v>104093</v>
+        <v>30421</v>
       </c>
       <c r="O2" t="n">
-        <v>107215</v>
+        <v>31334</v>
       </c>
       <c r="P2" t="n">
-        <v>110432</v>
+        <v>32274</v>
       </c>
       <c r="Q2" t="n">
-        <v>113745</v>
+        <v>33242</v>
       </c>
       <c r="R2" t="n">
-        <v>117157</v>
+        <v>34240</v>
       </c>
       <c r="S2" t="n">
-        <v>120672</v>
+        <v>35267</v>
       </c>
       <c r="T2" t="n">
-        <v>124292</v>
+        <v>36325</v>
       </c>
       <c r="U2" t="n">
-        <v>128021</v>
+        <v>37414</v>
       </c>
       <c r="V2" t="n">
-        <v>131861</v>
+        <v>38537</v>
       </c>
     </row>
     <row r="3">
@@ -1129,61 +1129,61 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>5124</v>
+        <v>1161</v>
       </c>
       <c r="E3" t="n">
-        <v>5255</v>
+        <v>1396</v>
       </c>
       <c r="F3" t="n">
-        <v>5400</v>
+        <v>1686</v>
       </c>
       <c r="G3" t="n">
-        <v>5528</v>
+        <v>2038</v>
       </c>
       <c r="H3" t="n">
-        <v>5622</v>
+        <v>2414</v>
       </c>
       <c r="I3" t="n">
-        <v>5697</v>
+        <v>2836</v>
       </c>
       <c r="J3" t="n">
-        <v>5775</v>
+        <v>3322</v>
       </c>
       <c r="K3" t="n">
-        <v>5854</v>
+        <v>3867</v>
       </c>
       <c r="L3" t="n">
-        <v>5935</v>
+        <v>4458</v>
       </c>
       <c r="M3" t="n">
-        <v>6016</v>
+        <v>5083</v>
       </c>
       <c r="N3" t="n">
-        <v>6097</v>
+        <v>5729</v>
       </c>
       <c r="O3" t="n">
-        <v>6178</v>
+        <v>6384</v>
       </c>
       <c r="P3" t="n">
-        <v>6258</v>
+        <v>7038</v>
       </c>
       <c r="Q3" t="n">
-        <v>6337</v>
+        <v>7682</v>
       </c>
       <c r="R3" t="n">
-        <v>6413</v>
+        <v>8311</v>
       </c>
       <c r="S3" t="n">
-        <v>6487</v>
+        <v>8922</v>
       </c>
       <c r="T3" t="n">
-        <v>6557</v>
+        <v>9510</v>
       </c>
       <c r="U3" t="n">
-        <v>6622</v>
+        <v>10076</v>
       </c>
       <c r="V3" t="n">
-        <v>6681</v>
+        <v>10617</v>
       </c>
     </row>
     <row r="4">
@@ -1193,61 +1193,61 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.0662</v>
+        <v>0.0513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0659</v>
+        <v>0.0599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0657</v>
+        <v>0.0702</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0653</v>
+        <v>0.0824</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0645</v>
+        <v>0.0947</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0635</v>
+        <v>0.1081</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0624</v>
+        <v>0.1229</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0615</v>
+        <v>0.1389</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0605</v>
+        <v>0.1555</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0595</v>
+        <v>0.1721</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0586</v>
+        <v>0.1883</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0576</v>
+        <v>0.2037</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0567</v>
+        <v>0.2181</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0557</v>
+        <v>0.2311</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0547</v>
+        <v>0.2427</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0538</v>
+        <v>0.253</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0528</v>
+        <v>0.2618</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0517</v>
+        <v>0.2693</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0507</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="5">
@@ -1321,61 +1321,61 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E6" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F6" t="n">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="G6" t="n">
-        <v>199</v>
+        <v>312</v>
       </c>
       <c r="H6" t="n">
-        <v>185</v>
+        <v>352</v>
       </c>
       <c r="I6" t="n">
-        <v>191</v>
+        <v>429</v>
       </c>
       <c r="J6" t="n">
-        <v>195</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>199</v>
+        <v>570</v>
       </c>
       <c r="L6" t="n">
-        <v>203</v>
+        <v>630</v>
       </c>
       <c r="M6" t="n">
-        <v>206</v>
+        <v>680</v>
       </c>
       <c r="N6" t="n">
-        <v>208</v>
+        <v>719</v>
       </c>
       <c r="O6" t="n">
-        <v>210</v>
+        <v>747</v>
       </c>
       <c r="P6" t="n">
-        <v>211</v>
+        <v>765</v>
       </c>
       <c r="Q6" t="n">
-        <v>212</v>
+        <v>775</v>
       </c>
       <c r="R6" t="n">
-        <v>211</v>
+        <v>778</v>
       </c>
       <c r="S6" t="n">
-        <v>211</v>
+        <v>776</v>
       </c>
       <c r="T6" t="n">
-        <v>209</v>
+        <v>771</v>
       </c>
       <c r="U6" t="n">
-        <v>206</v>
+        <v>762</v>
       </c>
       <c r="V6" t="n">
-        <v>204</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7">
@@ -1385,61 +1385,61 @@
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E7" t="n">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="F7" t="n">
-        <v>252</v>
+        <v>391</v>
       </c>
       <c r="G7" t="n">
-        <v>221</v>
+        <v>423</v>
       </c>
       <c r="H7" t="n">
-        <v>201</v>
+        <v>475</v>
       </c>
       <c r="I7" t="n">
-        <v>205</v>
+        <v>550</v>
       </c>
       <c r="J7" t="n">
-        <v>208</v>
+        <v>619</v>
       </c>
       <c r="K7" t="n">
-        <v>211</v>
+        <v>680</v>
       </c>
       <c r="L7" t="n">
-        <v>214</v>
+        <v>728</v>
       </c>
       <c r="M7" t="n">
-        <v>216</v>
+        <v>764</v>
       </c>
       <c r="N7" t="n">
-        <v>218</v>
+        <v>789</v>
       </c>
       <c r="O7" t="n">
-        <v>219</v>
+        <v>803</v>
       </c>
       <c r="P7" t="n">
-        <v>219</v>
+        <v>808</v>
       </c>
       <c r="Q7" t="n">
-        <v>219</v>
+        <v>808</v>
       </c>
       <c r="R7" t="n">
-        <v>217</v>
+        <v>803</v>
       </c>
       <c r="S7" t="n">
-        <v>215</v>
+        <v>795</v>
       </c>
       <c r="T7" t="n">
-        <v>212</v>
+        <v>785</v>
       </c>
       <c r="U7" t="n">
-        <v>208</v>
+        <v>773</v>
       </c>
       <c r="V7" t="n">
-        <v>205</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8">
@@ -1449,61 +1449,61 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F8" t="n">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="H8" t="n">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="I8" t="n">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="J8" t="n">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="K8" t="n">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="M8" t="n">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="N8" t="n">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="O8" t="n">
-        <v>91</v>
+        <v>332</v>
       </c>
       <c r="P8" t="n">
-        <v>91</v>
+        <v>336</v>
       </c>
       <c r="Q8" t="n">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c r="R8" t="n">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="S8" t="n">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="T8" t="n">
-        <v>89</v>
+        <v>330</v>
       </c>
       <c r="U8" t="n">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="V8" t="n">
-        <v>88</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9">
@@ -1513,61 +1513,61 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F9" t="n">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="G9" t="n">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="H9" t="n">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="I9" t="n">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="J9" t="n">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="K9" t="n">
-        <v>112</v>
+        <v>301</v>
       </c>
       <c r="L9" t="n">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="M9" t="n">
-        <v>116</v>
+        <v>370</v>
       </c>
       <c r="N9" t="n">
-        <v>118</v>
+        <v>396</v>
       </c>
       <c r="O9" t="n">
-        <v>119</v>
+        <v>415</v>
       </c>
       <c r="P9" t="n">
-        <v>120</v>
+        <v>429</v>
       </c>
       <c r="Q9" t="n">
-        <v>120</v>
+        <v>438</v>
       </c>
       <c r="R9" t="n">
-        <v>120</v>
+        <v>442</v>
       </c>
       <c r="S9" t="n">
-        <v>120</v>
+        <v>442</v>
       </c>
       <c r="T9" t="n">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="U9" t="n">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="V9" t="n">
-        <v>119</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10">
@@ -1577,61 +1577,61 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>0.9496</v>
+        <v>0.804</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9513</v>
+        <v>0.8168</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9612</v>
+        <v>0.8418</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9658</v>
+        <v>0.8467</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9651</v>
+        <v>0.8331</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9648</v>
+        <v>0.8237</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9645</v>
+        <v>0.8203</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9642</v>
+        <v>0.8207</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9641</v>
+        <v>0.8243</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9642</v>
+        <v>0.8301</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9643</v>
+        <v>0.8371</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9645</v>
+        <v>0.8449</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9649</v>
+        <v>0.8531</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9653</v>
+        <v>0.8612</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9658</v>
+        <v>0.8691</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9664</v>
+        <v>0.8767</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9671</v>
+        <v>0.8848</v>
       </c>
       <c r="U10" t="n">
-        <v>0.968</v>
+        <v>0.8924</v>
       </c>
       <c r="V10" t="n">
-        <v>0.969</v>
+        <v>0.8992</v>
       </c>
     </row>
     <row r="11">
@@ -1705,7 +1705,7 @@
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>0.8798</v>
+        <v>0.8794</v>
       </c>
       <c r="E12" t="n">
         <v>0.9</v>
@@ -1714,52 +1714,52 @@
         <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9199</v>
+        <v>0.9197</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399</v>
+        <v>0.9396</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9436</v>
+        <v>0.9435</v>
       </c>
       <c r="J12" t="n">
         <v>0.9471</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9507</v>
+        <v>0.9506</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9543</v>
+        <v>0.9542</v>
       </c>
       <c r="M12" t="n">
         <v>0.9578</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9614</v>
+        <v>0.9613</v>
       </c>
       <c r="O12" t="n">
-        <v>0.965</v>
+        <v>0.9649</v>
       </c>
       <c r="P12" t="n">
         <v>0.9685</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9721</v>
+        <v>0.972</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9757</v>
+        <v>0.9756</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9793</v>
+        <v>0.9792</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9828</v>
+        <v>0.9827</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9864</v>
+        <v>0.9863</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9899</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="13">
@@ -1769,61 +1769,61 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>0.0634</v>
+        <v>0.0473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0621</v>
+        <v>0.0551</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0607</v>
+        <v>0.0618</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0592</v>
+        <v>0.0676</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0575</v>
+        <v>0.0738</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0558</v>
+        <v>0.0808</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0541</v>
+        <v>0.0891</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0525</v>
+        <v>0.0984</v>
       </c>
       <c r="L13" t="n">
-        <v>0.051</v>
+        <v>0.1084</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0495</v>
+        <v>0.119</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0481</v>
+        <v>0.1296</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0468</v>
+        <v>0.1401</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0454</v>
+        <v>0.1502</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0442</v>
+        <v>0.1597</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0429</v>
+        <v>0.1685</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0417</v>
+        <v>0.1764</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0405</v>
+        <v>0.1835</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0394</v>
+        <v>0.1896</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0382</v>
+        <v>0.1949</v>
       </c>
     </row>
     <row r="14">
@@ -1833,61 +1833,61 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>0.0703</v>
+        <v>0.0615</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0709</v>
+        <v>0.071</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0716</v>
+        <v>0.0801</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0725</v>
+        <v>0.0997</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0727</v>
+        <v>0.1193</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0725</v>
+        <v>0.1401</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0723</v>
+        <v>0.1627</v>
       </c>
       <c r="K14" t="n">
-        <v>0.072</v>
+        <v>0.1865</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0717</v>
+        <v>0.2107</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0713</v>
+        <v>0.2345</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0709</v>
+        <v>0.2573</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0704</v>
+        <v>0.2784</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0699</v>
+        <v>0.2977</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0693</v>
+        <v>0.3149</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0687</v>
+        <v>0.3299</v>
       </c>
       <c r="S14" t="n">
-        <v>0.068</v>
+        <v>0.3429</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0672</v>
+        <v>0.3538</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0663</v>
+        <v>0.3629</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0654</v>
+        <v>0.3702</v>
       </c>
     </row>
     <row r="15">
@@ -2003,67 +2003,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>73008</v>
+        <v>21337</v>
       </c>
       <c r="C2" t="n">
-        <v>75199</v>
+        <v>21977</v>
       </c>
       <c r="D2" t="n">
-        <v>77455</v>
+        <v>22636</v>
       </c>
       <c r="E2" t="n">
-        <v>79778</v>
+        <v>23315</v>
       </c>
       <c r="F2" t="n">
-        <v>82172</v>
+        <v>24015</v>
       </c>
       <c r="G2" t="n">
-        <v>84637</v>
+        <v>24735</v>
       </c>
       <c r="H2" t="n">
-        <v>87176</v>
+        <v>25477</v>
       </c>
       <c r="I2" t="n">
-        <v>89791</v>
+        <v>26242</v>
       </c>
       <c r="J2" t="n">
-        <v>92485</v>
+        <v>27029</v>
       </c>
       <c r="K2" t="n">
-        <v>95259</v>
+        <v>27840</v>
       </c>
       <c r="L2" t="n">
-        <v>98117</v>
+        <v>28675</v>
       </c>
       <c r="M2" t="n">
-        <v>101061</v>
+        <v>29535</v>
       </c>
       <c r="N2" t="n">
-        <v>104093</v>
+        <v>30421</v>
       </c>
       <c r="O2" t="n">
-        <v>107215</v>
+        <v>31334</v>
       </c>
       <c r="P2" t="n">
-        <v>110432</v>
+        <v>32274</v>
       </c>
       <c r="Q2" t="n">
-        <v>113745</v>
+        <v>33242</v>
       </c>
       <c r="R2" t="n">
-        <v>117157</v>
+        <v>34240</v>
       </c>
       <c r="S2" t="n">
-        <v>120672</v>
+        <v>35267</v>
       </c>
       <c r="T2" t="n">
-        <v>124292</v>
+        <v>36325</v>
       </c>
       <c r="U2" t="n">
-        <v>128021</v>
+        <v>37414</v>
       </c>
       <c r="V2" t="n">
-        <v>131861</v>
+        <v>38537</v>
       </c>
     </row>
     <row r="3">
@@ -2071,67 +2071,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>4834</v>
+        <v>751</v>
       </c>
       <c r="C3" t="n">
-        <v>4987</v>
+        <v>951</v>
       </c>
       <c r="D3" t="n">
-        <v>5124</v>
+        <v>1161</v>
       </c>
       <c r="E3" t="n">
-        <v>5243</v>
+        <v>1376</v>
       </c>
       <c r="F3" t="n">
-        <v>5353</v>
+        <v>1603</v>
       </c>
       <c r="G3" t="n">
-        <v>5450</v>
+        <v>1829</v>
       </c>
       <c r="H3" t="n">
-        <v>5517</v>
+        <v>2009</v>
       </c>
       <c r="I3" t="n">
-        <v>5564</v>
+        <v>2150</v>
       </c>
       <c r="J3" t="n">
-        <v>5623</v>
+        <v>2312</v>
       </c>
       <c r="K3" t="n">
-        <v>5694</v>
+        <v>2505</v>
       </c>
       <c r="L3" t="n">
-        <v>5774</v>
+        <v>2730</v>
       </c>
       <c r="M3" t="n">
-        <v>5856</v>
+        <v>2977</v>
       </c>
       <c r="N3" t="n">
-        <v>5940</v>
+        <v>3242</v>
       </c>
       <c r="O3" t="n">
-        <v>6023</v>
+        <v>3523</v>
       </c>
       <c r="P3" t="n">
-        <v>6107</v>
+        <v>3817</v>
       </c>
       <c r="Q3" t="n">
-        <v>6189</v>
+        <v>4121</v>
       </c>
       <c r="R3" t="n">
-        <v>6269</v>
+        <v>4434</v>
       </c>
       <c r="S3" t="n">
-        <v>6346</v>
+        <v>4752</v>
       </c>
       <c r="T3" t="n">
-        <v>6420</v>
+        <v>5074</v>
       </c>
       <c r="U3" t="n">
-        <v>6489</v>
+        <v>5397</v>
       </c>
       <c r="V3" t="n">
-        <v>6552</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="4">
@@ -2139,67 +2139,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0662</v>
+        <v>0.0352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0663</v>
+        <v>0.0433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0662</v>
+        <v>0.0513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0657</v>
+        <v>0.059</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0651</v>
+        <v>0.0668</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0644</v>
+        <v>0.0739</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0633</v>
+        <v>0.0788</v>
       </c>
       <c r="I4" t="n">
-        <v>0.062</v>
+        <v>0.0819</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0608</v>
+        <v>0.0855</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0598</v>
+        <v>0.09</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0588</v>
+        <v>0.0952</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0579</v>
+        <v>0.1008</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0571</v>
+        <v>0.1066</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0562</v>
+        <v>0.1124</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0553</v>
+        <v>0.1183</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0544</v>
+        <v>0.124</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0535</v>
+        <v>0.1295</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0526</v>
+        <v>0.1348</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0516</v>
+        <v>0.1397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0507</v>
+        <v>0.1442</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0497</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="5">
@@ -2219,55 +2219,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0019</v>
+        <v>0.0064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0018</v>
+        <v>0.0062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0347</v>
+        <v>0.1205</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0442</v>
+        <v>0.1543</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0459</v>
+        <v>0.1613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0504</v>
+        <v>0.1782</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0504</v>
+        <v>0.1793</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0503</v>
+        <v>0.1804</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0503</v>
+        <v>0.1815</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0502</v>
+        <v>0.1827</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0502</v>
+        <v>0.1839</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0501</v>
+        <v>0.1851</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0501</v>
+        <v>0.1863</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05</v>
+        <v>0.1874</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05</v>
+        <v>0.1885</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0499</v>
+        <v>0.1895</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0499</v>
+        <v>0.1904</v>
       </c>
     </row>
     <row r="6">
@@ -2275,67 +2275,67 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="C6" t="n">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="D6" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E6" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F6" t="n">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="G6" t="n">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="H6" t="n">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="I6" t="n">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J6" t="n">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="K6" t="n">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="L6" t="n">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="M6" t="n">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="N6" t="n">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="O6" t="n">
-        <v>208</v>
+        <v>335</v>
       </c>
       <c r="P6" t="n">
-        <v>210</v>
+        <v>355</v>
       </c>
       <c r="Q6" t="n">
-        <v>211</v>
+        <v>373</v>
       </c>
       <c r="R6" t="n">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="S6" t="n">
-        <v>211</v>
+        <v>402</v>
       </c>
       <c r="T6" t="n">
-        <v>209</v>
+        <v>413</v>
       </c>
       <c r="U6" t="n">
-        <v>207</v>
+        <v>421</v>
       </c>
       <c r="V6" t="n">
-        <v>205</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
@@ -2343,67 +2343,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
+        <v>217</v>
+      </c>
+      <c r="C7" t="n">
+        <v>232</v>
+      </c>
+      <c r="D7" t="n">
+        <v>242</v>
+      </c>
+      <c r="E7" t="n">
+        <v>260</v>
+      </c>
+      <c r="F7" t="n">
         <v>263</v>
       </c>
-      <c r="C7" t="n">
-        <v>251</v>
-      </c>
-      <c r="D7" t="n">
-        <v>236</v>
-      </c>
-      <c r="E7" t="n">
-        <v>228</v>
-      </c>
-      <c r="F7" t="n">
-        <v>219</v>
-      </c>
       <c r="G7" t="n">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="H7" t="n">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="I7" t="n">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="J7" t="n">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="K7" t="n">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="M7" t="n">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="N7" t="n">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="O7" t="n">
-        <v>218</v>
+        <v>374</v>
       </c>
       <c r="P7" t="n">
-        <v>219</v>
+        <v>392</v>
       </c>
       <c r="Q7" t="n">
-        <v>219</v>
+        <v>407</v>
       </c>
       <c r="R7" t="n">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="S7" t="n">
-        <v>216</v>
+        <v>431</v>
       </c>
       <c r="T7" t="n">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="U7" t="n">
-        <v>209</v>
+        <v>445</v>
       </c>
       <c r="V7" t="n">
-        <v>206</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
@@ -2411,67 +2411,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C8" t="n">
+        <v>115</v>
+      </c>
+      <c r="D8" t="n">
+        <v>111</v>
+      </c>
+      <c r="E8" t="n">
         <v>132</v>
       </c>
-      <c r="D8" t="n">
-        <v>114</v>
-      </c>
-      <c r="E8" t="n">
-        <v>121</v>
-      </c>
       <c r="F8" t="n">
+        <v>137</v>
+      </c>
+      <c r="G8" t="n">
         <v>118</v>
       </c>
-      <c r="G8" t="n">
-        <v>91</v>
-      </c>
       <c r="H8" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I8" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J8" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="K8" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="L8" t="n">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="M8" t="n">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="N8" t="n">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="O8" t="n">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="P8" t="n">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="Q8" t="n">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="R8" t="n">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="S8" t="n">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="T8" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="U8" t="n">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="V8" t="n">
-        <v>88</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
@@ -2479,67 +2479,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C9" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D9" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G9" t="n">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="H9" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I9" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J9" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K9" t="n">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="L9" t="n">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="M9" t="n">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="N9" t="n">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="O9" t="n">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="P9" t="n">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="Q9" t="n">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="R9" t="n">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="S9" t="n">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="T9" t="n">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="U9" t="n">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="V9" t="n">
-        <v>117</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
@@ -2547,67 +2547,67 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9339</v>
+        <v>0.7051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9421</v>
+        <v>0.7624</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9496</v>
+        <v>0.804</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9509</v>
+        <v>0.8158</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9582</v>
+        <v>0.8486</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9613</v>
+        <v>0.8644</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9609</v>
+        <v>0.8822</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9601</v>
+        <v>0.8896</v>
       </c>
       <c r="J10" t="n">
-        <v>0.958</v>
+        <v>0.887</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9554</v>
+        <v>0.8816</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9533</v>
+        <v>0.8745</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9522</v>
+        <v>0.8713</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9516</v>
+        <v>0.8708</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9515</v>
+        <v>0.872</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9516</v>
+        <v>0.8743</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9519</v>
+        <v>0.8774</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9524</v>
+        <v>0.8809</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9531</v>
+        <v>0.8848</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9539</v>
+        <v>0.8889</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9548</v>
+        <v>0.8931</v>
       </c>
       <c r="V10" t="n">
-        <v>0.956</v>
+        <v>0.8974</v>
       </c>
     </row>
     <row r="11">
@@ -2686,25 +2686,25 @@
         <v>0.8</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8398</v>
+        <v>0.8394</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8798</v>
+        <v>0.8794</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8999</v>
+        <v>0.8997</v>
       </c>
       <c r="F12" t="n">
         <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9199</v>
+        <v>0.9197</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399</v>
+        <v>0.9397</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9436</v>
+        <v>0.9435</v>
       </c>
       <c r="J12" t="n">
         <v>0.9471</v>
@@ -2713,7 +2713,7 @@
         <v>0.9507</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9543</v>
+        <v>0.9542</v>
       </c>
       <c r="M12" t="n">
         <v>0.9578</v>
@@ -2722,7 +2722,7 @@
         <v>0.9614</v>
       </c>
       <c r="O12" t="n">
-        <v>0.965</v>
+        <v>0.9649</v>
       </c>
       <c r="P12" t="n">
         <v>0.9685</v>
@@ -2731,19 +2731,19 @@
         <v>0.9721</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9757</v>
+        <v>0.9756</v>
       </c>
       <c r="S12" t="n">
         <v>0.9792</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9828</v>
+        <v>0.9827</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9864</v>
+        <v>0.9863</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9899</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="13">
@@ -2751,67 +2751,67 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.065</v>
+        <v>0.0333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0644</v>
+        <v>0.0401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0634</v>
+        <v>0.0473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.062</v>
+        <v>0.0543</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0605</v>
+        <v>0.061</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0588</v>
+        <v>0.0667</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0569</v>
+        <v>0.0712</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0549</v>
+        <v>0.0739</v>
       </c>
       <c r="J13" t="n">
-        <v>0.053</v>
+        <v>0.076</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0511</v>
+        <v>0.0776</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0493</v>
+        <v>0.0793</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0475</v>
+        <v>0.0813</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0459</v>
+        <v>0.0836</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0443</v>
+        <v>0.0861</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0428</v>
+        <v>0.0887</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0413</v>
+        <v>0.0914</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0399</v>
+        <v>0.0942</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0385</v>
+        <v>0.0969</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0372</v>
+        <v>0.0996</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0359</v>
+        <v>0.1021</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0347</v>
+        <v>0.1045</v>
       </c>
     </row>
     <row r="14">
@@ -2819,67 +2819,67 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0685</v>
+        <v>0.0393</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0696</v>
+        <v>0.0504</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0703</v>
+        <v>0.0615</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0706</v>
+        <v>0.0699</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0709</v>
+        <v>0.0802</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0706</v>
+        <v>0.0884</v>
       </c>
       <c r="H14" t="n">
-        <v>0.074</v>
+        <v>0.1268</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0736</v>
+        <v>0.1257</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0722</v>
+        <v>0.1297</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0713</v>
+        <v>0.135</v>
       </c>
       <c r="L14" t="n">
-        <v>0.071</v>
+        <v>0.1456</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0706</v>
+        <v>0.1566</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0702</v>
+        <v>0.1678</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0698</v>
+        <v>0.179</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0693</v>
+        <v>0.19</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0688</v>
+        <v>0.2006</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0682</v>
+        <v>0.2108</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0675</v>
+        <v>0.2203</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0668</v>
+        <v>0.2292</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0659</v>
+        <v>0.2374</v>
       </c>
       <c r="V14" t="n">
-        <v>0.065</v>
+        <v>0.2447</v>
       </c>
     </row>
     <row r="15">
@@ -2891,55 +2891,55 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>4e-04</v>
+        <v>0.0013</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3e-04</v>
+        <v>0.0013</v>
       </c>
       <c r="I15" t="n">
-        <v>1e-04</v>
+        <v>0.0004</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K15" t="n">
-        <v>1e-04</v>
+        <v>0.0003</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
   </sheetData>
@@ -3029,67 +3029,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>65970</v>
+        <v>19437</v>
       </c>
       <c r="C2" t="n">
-        <v>67949</v>
+        <v>20020</v>
       </c>
       <c r="D2" t="n">
-        <v>69988</v>
+        <v>20621</v>
       </c>
       <c r="E2" t="n">
-        <v>72087</v>
+        <v>21239</v>
       </c>
       <c r="F2" t="n">
-        <v>74250</v>
+        <v>21877</v>
       </c>
       <c r="G2" t="n">
-        <v>76477</v>
+        <v>22533</v>
       </c>
       <c r="H2" t="n">
-        <v>78772</v>
+        <v>23209</v>
       </c>
       <c r="I2" t="n">
-        <v>81135</v>
+        <v>23905</v>
       </c>
       <c r="J2" t="n">
-        <v>83569</v>
+        <v>24622</v>
       </c>
       <c r="K2" t="n">
-        <v>86076</v>
+        <v>25361</v>
       </c>
       <c r="L2" t="n">
-        <v>88658</v>
+        <v>26122</v>
       </c>
       <c r="M2" t="n">
-        <v>91318</v>
+        <v>26906</v>
       </c>
       <c r="N2" t="n">
-        <v>94057</v>
+        <v>27713</v>
       </c>
       <c r="O2" t="n">
-        <v>96879</v>
+        <v>28544</v>
       </c>
       <c r="P2" t="n">
-        <v>99786</v>
+        <v>29400</v>
       </c>
       <c r="Q2" t="n">
-        <v>102779</v>
+        <v>30282</v>
       </c>
       <c r="R2" t="n">
-        <v>105862</v>
+        <v>31191</v>
       </c>
       <c r="S2" t="n">
-        <v>109038</v>
+        <v>32127</v>
       </c>
       <c r="T2" t="n">
-        <v>112309</v>
+        <v>33090</v>
       </c>
       <c r="U2" t="n">
-        <v>115679</v>
+        <v>34083</v>
       </c>
       <c r="V2" t="n">
-        <v>119149</v>
+        <v>35106</v>
       </c>
     </row>
     <row r="3">
@@ -3097,67 +3097,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>4068</v>
+        <v>624</v>
       </c>
       <c r="C3" t="n">
-        <v>4183</v>
+        <v>775</v>
       </c>
       <c r="D3" t="n">
-        <v>4291</v>
+        <v>927</v>
       </c>
       <c r="E3" t="n">
-        <v>4384</v>
+        <v>1082</v>
       </c>
       <c r="F3" t="n">
-        <v>4470</v>
+        <v>1244</v>
       </c>
       <c r="G3" t="n">
-        <v>4541</v>
+        <v>1403</v>
       </c>
       <c r="H3" t="n">
-        <v>4585</v>
+        <v>1528</v>
       </c>
       <c r="I3" t="n">
-        <v>4604</v>
+        <v>1623</v>
       </c>
       <c r="J3" t="n">
-        <v>4630</v>
+        <v>1722</v>
       </c>
       <c r="K3" t="n">
-        <v>4664</v>
+        <v>1840</v>
       </c>
       <c r="L3" t="n">
-        <v>4706</v>
+        <v>1977</v>
       </c>
       <c r="M3" t="n">
-        <v>4749</v>
+        <v>2127</v>
       </c>
       <c r="N3" t="n">
-        <v>4792</v>
+        <v>2288</v>
       </c>
       <c r="O3" t="n">
-        <v>4833</v>
+        <v>2458</v>
       </c>
       <c r="P3" t="n">
-        <v>4869</v>
+        <v>2629</v>
       </c>
       <c r="Q3" t="n">
-        <v>4904</v>
+        <v>2807</v>
       </c>
       <c r="R3" t="n">
-        <v>4937</v>
+        <v>2993</v>
       </c>
       <c r="S3" t="n">
-        <v>4967</v>
+        <v>3184</v>
       </c>
       <c r="T3" t="n">
-        <v>4996</v>
+        <v>3380</v>
       </c>
       <c r="U3" t="n">
-        <v>5021</v>
+        <v>3580</v>
       </c>
       <c r="V3" t="n">
-        <v>5041</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="4">
@@ -3165,67 +3165,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0598</v>
+        <v>0.031</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0597</v>
+        <v>0.0373</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0594</v>
+        <v>0.0433</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0586</v>
+        <v>0.049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0579</v>
+        <v>0.0547</v>
       </c>
       <c r="G4" t="n">
-        <v>0.057</v>
+        <v>0.0599</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0558</v>
+        <v>0.0634</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0545</v>
+        <v>0.0654</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0533</v>
+        <v>0.0677</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0522</v>
+        <v>0.0704</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0512</v>
+        <v>0.0735</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0502</v>
+        <v>0.0767</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0492</v>
+        <v>0.0801</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0482</v>
+        <v>0.0836</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0472</v>
+        <v>0.0871</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0463</v>
+        <v>0.0907</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0453</v>
+        <v>0.0941</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0443</v>
+        <v>0.0975</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0432</v>
+        <v>0.1005</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0421</v>
+        <v>0.1033</v>
       </c>
       <c r="V4" t="n">
-        <v>0.041</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="5">
@@ -3245,55 +3245,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0017</v>
+        <v>0.006</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0016</v>
+        <v>0.006</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0315</v>
+        <v>0.1154</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0401</v>
+        <v>0.1482</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0417</v>
+        <v>0.1552</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0458</v>
+        <v>0.172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0457</v>
+        <v>0.1736</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0457</v>
+        <v>0.1752</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0457</v>
+        <v>0.1769</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0456</v>
+        <v>0.1786</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0456</v>
+        <v>0.1802</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0456</v>
+        <v>0.1818</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0455</v>
+        <v>0.1833</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0455</v>
+        <v>0.1846</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0454</v>
+        <v>0.1858</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0454</v>
+        <v>0.1869</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0453</v>
+        <v>0.1879</v>
       </c>
     </row>
     <row r="6">
@@ -3301,67 +3301,67 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="C6" t="n">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D6" t="n">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E6" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" t="n">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G6" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H6" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I6" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J6" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K6" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L6" t="n">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="M6" t="n">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="N6" t="n">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="O6" t="n">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="P6" t="n">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="Q6" t="n">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="R6" t="n">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="S6" t="n">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="T6" t="n">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="U6" t="n">
-        <v>125</v>
+        <v>265</v>
       </c>
       <c r="V6" t="n">
-        <v>123</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
@@ -3369,67 +3369,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D7" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E7" t="n">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F7" t="n">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="G7" t="n">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H7" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I7" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J7" t="n">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="K7" t="n">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L7" t="n">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="M7" t="n">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="N7" t="n">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="O7" t="n">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="P7" t="n">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="Q7" t="n">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="R7" t="n">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="S7" t="n">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="T7" t="n">
-        <v>129</v>
+        <v>277</v>
       </c>
       <c r="U7" t="n">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="V7" t="n">
-        <v>122</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
@@ -3437,67 +3437,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F8" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G8" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H8" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I8" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J8" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K8" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L8" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="M8" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="N8" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="O8" t="n">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="P8" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="Q8" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="R8" t="n">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="S8" t="n">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="T8" t="n">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="U8" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="V8" t="n">
-        <v>51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -3505,67 +3505,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
+        <v>77</v>
+      </c>
+      <c r="E9" t="n">
+        <v>90</v>
+      </c>
+      <c r="F9" t="n">
         <v>88</v>
       </c>
-      <c r="E9" t="n">
-        <v>93</v>
-      </c>
-      <c r="F9" t="n">
-        <v>83</v>
-      </c>
       <c r="G9" t="n">
+        <v>78</v>
+      </c>
+      <c r="H9" t="n">
+        <v>67</v>
+      </c>
+      <c r="I9" t="n">
         <v>65</v>
       </c>
-      <c r="H9" t="n">
-        <v>60</v>
-      </c>
-      <c r="I9" t="n">
-        <v>62</v>
-      </c>
       <c r="J9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L9" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="M9" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="N9" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="O9" t="n">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="P9" t="n">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="n">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="R9" t="n">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="S9" t="n">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="T9" t="n">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="U9" t="n">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="V9" t="n">
-        <v>70</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -3573,67 +3573,67 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9214</v>
+        <v>0.6852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9328</v>
+        <v>0.743</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9411</v>
+        <v>0.7864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9422</v>
+        <v>0.7989</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9505</v>
+        <v>0.8358</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9539</v>
+        <v>0.8538</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9531</v>
+        <v>0.8726</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9517</v>
+        <v>0.8808</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9488</v>
+        <v>0.879</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9454</v>
+        <v>0.8746</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9425</v>
+        <v>0.8688</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9409</v>
+        <v>0.8665</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9401</v>
+        <v>0.8665</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9399</v>
+        <v>0.8683</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9399</v>
+        <v>0.8709</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9402</v>
+        <v>0.8743</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9407</v>
+        <v>0.8782</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9414</v>
+        <v>0.8822</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9423</v>
+        <v>0.8854</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9433</v>
+        <v>0.8888</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9446</v>
+        <v>0.8925</v>
       </c>
     </row>
     <row r="11">
@@ -3712,25 +3712,25 @@
         <v>0.8</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8398</v>
+        <v>0.8393</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8798</v>
+        <v>0.8793</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8999</v>
+        <v>0.8997</v>
       </c>
       <c r="F12" t="n">
         <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9199</v>
+        <v>0.9197</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399</v>
+        <v>0.9397</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9436</v>
+        <v>0.9435</v>
       </c>
       <c r="J12" t="n">
         <v>0.9471</v>
@@ -3739,7 +3739,7 @@
         <v>0.9507</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9543</v>
+        <v>0.9542</v>
       </c>
       <c r="M12" t="n">
         <v>0.9578</v>
@@ -3748,7 +3748,7 @@
         <v>0.9614</v>
       </c>
       <c r="O12" t="n">
-        <v>0.965</v>
+        <v>0.9649</v>
       </c>
       <c r="P12" t="n">
         <v>0.9685</v>
@@ -3757,19 +3757,19 @@
         <v>0.9721</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9757</v>
+        <v>0.9756</v>
       </c>
       <c r="S12" t="n">
         <v>0.9792</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9828</v>
+        <v>0.9827</v>
       </c>
       <c r="U12" t="n">
         <v>0.9863</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9899</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="13">
@@ -3777,67 +3777,67 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0588</v>
+        <v>0.0293</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0582</v>
+        <v>0.0345</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0572</v>
+        <v>0.0399</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0559</v>
+        <v>0.0451</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0544</v>
+        <v>0.0499</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0527</v>
+        <v>0.054</v>
       </c>
       <c r="H13" t="n">
-        <v>0.051</v>
+        <v>0.057</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0491</v>
+        <v>0.0589</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0473</v>
+        <v>0.0601</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0455</v>
+        <v>0.0611</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0439</v>
+        <v>0.0621</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0423</v>
+        <v>0.0633</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0408</v>
+        <v>0.0644</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0393</v>
+        <v>0.0657</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0379</v>
+        <v>0.0671</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0365</v>
+        <v>0.0685</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0352</v>
+        <v>0.07</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0339</v>
+        <v>0.0716</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0327</v>
+        <v>0.0731</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0315</v>
+        <v>0.0746</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0304</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="14">
@@ -3845,67 +3845,67 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0616</v>
+        <v>0.0346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0623</v>
+        <v>0.0433</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0625</v>
+        <v>0.052</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0625</v>
+        <v>0.0583</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0625</v>
+        <v>0.066</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0619</v>
+        <v>0.0719</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0649</v>
+        <v>0.1046</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0644</v>
+        <v>0.1028</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0629</v>
+        <v>0.1047</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0619</v>
+        <v>0.1075</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0613</v>
+        <v>0.114</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0607</v>
+        <v>0.1208</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06</v>
+        <v>0.1278</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0593</v>
+        <v>0.1348</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0584</v>
+        <v>0.1419</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0575</v>
+        <v>0.1488</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0565</v>
+        <v>0.1552</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0555</v>
+        <v>0.1612</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0545</v>
+        <v>0.167</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0534</v>
+        <v>0.1724</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0523</v>
+        <v>0.1774</v>
       </c>
     </row>
     <row r="15">
@@ -3917,55 +3917,55 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>3e-04</v>
+        <v>0.001</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3e-04</v>
+        <v>0.0009</v>
       </c>
       <c r="I15" t="n">
-        <v>1e-04</v>
+        <v>0.0003</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -4055,67 +4055,67 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>80349</v>
+        <v>22835</v>
       </c>
       <c r="C2" t="n">
-        <v>82760</v>
+        <v>23520</v>
       </c>
       <c r="D2" t="n">
-        <v>85242</v>
+        <v>24226</v>
       </c>
       <c r="E2" t="n">
-        <v>87800</v>
+        <v>24953</v>
       </c>
       <c r="F2" t="n">
-        <v>90434</v>
+        <v>25701</v>
       </c>
       <c r="G2" t="n">
-        <v>93147</v>
+        <v>26472</v>
       </c>
       <c r="H2" t="n">
-        <v>95941</v>
+        <v>27267</v>
       </c>
       <c r="I2" t="n">
-        <v>98819</v>
+        <v>28085</v>
       </c>
       <c r="J2" t="n">
-        <v>101784</v>
+        <v>28927</v>
       </c>
       <c r="K2" t="n">
-        <v>104838</v>
+        <v>29795</v>
       </c>
       <c r="L2" t="n">
-        <v>107983</v>
+        <v>30689</v>
       </c>
       <c r="M2" t="n">
-        <v>111222</v>
+        <v>31609</v>
       </c>
       <c r="N2" t="n">
-        <v>114559</v>
+        <v>32558</v>
       </c>
       <c r="O2" t="n">
-        <v>117996</v>
+        <v>33534</v>
       </c>
       <c r="P2" t="n">
-        <v>121535</v>
+        <v>34541</v>
       </c>
       <c r="Q2" t="n">
-        <v>125181</v>
+        <v>35577</v>
       </c>
       <c r="R2" t="n">
-        <v>128937</v>
+        <v>36644</v>
       </c>
       <c r="S2" t="n">
-        <v>132805</v>
+        <v>37743</v>
       </c>
       <c r="T2" t="n">
-        <v>136789</v>
+        <v>38876</v>
       </c>
       <c r="U2" t="n">
-        <v>140893</v>
+        <v>40042</v>
       </c>
       <c r="V2" t="n">
-        <v>145120</v>
+        <v>41243</v>
       </c>
     </row>
     <row r="3">
@@ -4123,67 +4123,67 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>5660</v>
+        <v>923</v>
       </c>
       <c r="C3" t="n">
-        <v>5846</v>
+        <v>1212</v>
       </c>
       <c r="D3" t="n">
-        <v>6020</v>
+        <v>1524</v>
       </c>
       <c r="E3" t="n">
-        <v>6174</v>
+        <v>1852</v>
       </c>
       <c r="F3" t="n">
-        <v>6317</v>
+        <v>2202</v>
       </c>
       <c r="G3" t="n">
-        <v>6445</v>
+        <v>2551</v>
       </c>
       <c r="H3" t="n">
-        <v>6534</v>
+        <v>2834</v>
       </c>
       <c r="I3" t="n">
-        <v>6598</v>
+        <v>3061</v>
       </c>
       <c r="J3" t="n">
-        <v>6694</v>
+        <v>3317</v>
       </c>
       <c r="K3" t="n">
-        <v>6811</v>
+        <v>3621</v>
       </c>
       <c r="L3" t="n">
-        <v>6926</v>
+        <v>3972</v>
       </c>
       <c r="M3" t="n">
-        <v>7068</v>
+        <v>4349</v>
       </c>
       <c r="N3" t="n">
-        <v>7194</v>
+        <v>4746</v>
       </c>
       <c r="O3" t="n">
-        <v>7321</v>
+        <v>5157</v>
       </c>
       <c r="P3" t="n">
-        <v>7454</v>
+        <v>5576</v>
       </c>
       <c r="Q3" t="n">
-        <v>7596</v>
+        <v>6000</v>
       </c>
       <c r="R3" t="n">
-        <v>7737</v>
+        <v>6425</v>
       </c>
       <c r="S3" t="n">
-        <v>7875</v>
+        <v>6846</v>
       </c>
       <c r="T3" t="n">
-        <v>8010</v>
+        <v>7262</v>
       </c>
       <c r="U3" t="n">
-        <v>8143</v>
+        <v>7670</v>
       </c>
       <c r="V3" t="n">
-        <v>8272</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="4">
@@ -4191,67 +4191,67 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0721</v>
+        <v>0.0412</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0724</v>
+        <v>0.0526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0723</v>
+        <v>0.0642</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0721</v>
+        <v>0.0757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0717</v>
+        <v>0.0874</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0711</v>
+        <v>0.0983</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0701</v>
+        <v>0.1059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0691</v>
+        <v>0.1109</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0682</v>
+        <v>0.1166</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0673</v>
+        <v>0.1234</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0666</v>
+        <v>0.1313</v>
       </c>
       <c r="M4" t="n">
-        <v>0.066</v>
+        <v>0.1395</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0655</v>
+        <v>0.1476</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0651</v>
+        <v>0.1556</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0646</v>
+        <v>0.1632</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0639</v>
+        <v>0.1703</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0631</v>
+        <v>0.1769</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0624</v>
+        <v>0.1828</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0616</v>
+        <v>0.1881</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0607</v>
+        <v>0.1927</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0598</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="5">
@@ -4271,55 +4271,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002</v>
+        <v>0.0069</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002</v>
+        <v>0.0068</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0383</v>
+        <v>0.1312</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0487</v>
+        <v>0.1676</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0506</v>
+        <v>0.1749</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0556</v>
+        <v>0.1929</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0555</v>
+        <v>0.1935</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0555</v>
+        <v>0.1943</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0554</v>
+        <v>0.1952</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0553</v>
+        <v>0.1961</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0553</v>
+        <v>0.197</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0552</v>
+        <v>0.1979</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0551</v>
+        <v>0.1988</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0551</v>
+        <v>0.1997</v>
       </c>
       <c r="T5" t="n">
-        <v>0.055</v>
+        <v>0.2005</v>
       </c>
       <c r="U5" t="n">
-        <v>0.055</v>
+        <v>0.2013</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0549</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="6">
@@ -4327,67 +4327,67 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>359</v>
+        <v>281</v>
       </c>
       <c r="C6" t="n">
+        <v>321</v>
+      </c>
+      <c r="D6" t="n">
+        <v>314</v>
+      </c>
+      <c r="E6" t="n">
+        <v>386</v>
+      </c>
+      <c r="F6" t="n">
+        <v>394</v>
+      </c>
+      <c r="G6" t="n">
+        <v>350</v>
+      </c>
+      <c r="H6" t="n">
+        <v>284</v>
+      </c>
+      <c r="I6" t="n">
+        <v>282</v>
+      </c>
+      <c r="J6" t="n">
+        <v>315</v>
+      </c>
+      <c r="K6" t="n">
         <v>354</v>
       </c>
-      <c r="D6" t="n">
-        <v>299</v>
-      </c>
-      <c r="E6" t="n">
-        <v>321</v>
-      </c>
-      <c r="F6" t="n">
-        <v>302</v>
-      </c>
-      <c r="G6" t="n">
-        <v>237</v>
-      </c>
-      <c r="H6" t="n">
-        <v>212</v>
-      </c>
-      <c r="I6" t="n">
-        <v>219</v>
-      </c>
-      <c r="J6" t="n">
-        <v>235</v>
-      </c>
-      <c r="K6" t="n">
-        <v>254</v>
-      </c>
       <c r="L6" t="n">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="M6" t="n">
-        <v>281</v>
+        <v>437</v>
       </c>
       <c r="N6" t="n">
-        <v>289</v>
+        <v>468</v>
       </c>
       <c r="O6" t="n">
-        <v>296</v>
+        <v>493</v>
       </c>
       <c r="P6" t="n">
-        <v>301</v>
+        <v>513</v>
       </c>
       <c r="Q6" t="n">
-        <v>305</v>
+        <v>529</v>
       </c>
       <c r="R6" t="n">
-        <v>308</v>
+        <v>540</v>
       </c>
       <c r="S6" t="n">
-        <v>310</v>
+        <v>548</v>
       </c>
       <c r="T6" t="n">
-        <v>311</v>
+        <v>553</v>
       </c>
       <c r="U6" t="n">
-        <v>311</v>
+        <v>555</v>
       </c>
       <c r="V6" t="n">
-        <v>324</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7">
@@ -4395,67 +4395,67 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="C7" t="n">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="D7" t="n">
-        <v>303</v>
+        <v>365</v>
       </c>
       <c r="E7" t="n">
-        <v>296</v>
+        <v>396</v>
       </c>
       <c r="F7" t="n">
-        <v>286</v>
+        <v>402</v>
       </c>
       <c r="G7" t="n">
-        <v>254</v>
+        <v>354</v>
       </c>
       <c r="H7" t="n">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="I7" t="n">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="J7" t="n">
-        <v>270</v>
+        <v>376</v>
       </c>
       <c r="K7" t="n">
-        <v>287</v>
+        <v>432</v>
       </c>
       <c r="L7" t="n">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="M7" t="n">
-        <v>302</v>
+        <v>496</v>
       </c>
       <c r="N7" t="n">
-        <v>308</v>
+        <v>520</v>
       </c>
       <c r="O7" t="n">
-        <v>313</v>
+        <v>538</v>
       </c>
       <c r="P7" t="n">
-        <v>316</v>
+        <v>552</v>
       </c>
       <c r="Q7" t="n">
-        <v>319</v>
+        <v>562</v>
       </c>
       <c r="R7" t="n">
-        <v>321</v>
+        <v>569</v>
       </c>
       <c r="S7" t="n">
-        <v>322</v>
+        <v>573</v>
       </c>
       <c r="T7" t="n">
-        <v>321</v>
+        <v>574</v>
       </c>
       <c r="U7" t="n">
-        <v>319</v>
+        <v>573</v>
       </c>
       <c r="V7" t="n">
-        <v>317</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8">
@@ -4463,67 +4463,67 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
+        <v>142</v>
+      </c>
+      <c r="C8" t="n">
+        <v>168</v>
+      </c>
+      <c r="D8" t="n">
         <v>166</v>
       </c>
-      <c r="C8" t="n">
-        <v>169</v>
-      </c>
-      <c r="D8" t="n">
-        <v>148</v>
-      </c>
       <c r="E8" t="n">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="F8" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="G8" t="n">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="I8" t="n">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="J8" t="n">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="K8" t="n">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="L8" t="n">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="M8" t="n">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="N8" t="n">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="O8" t="n">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="P8" t="n">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="Q8" t="n">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="R8" t="n">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="S8" t="n">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="T8" t="n">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="U8" t="n">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="V8" t="n">
-        <v>140</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
@@ -4531,67 +4531,67 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="C9" t="n">
+        <v>153</v>
+      </c>
+      <c r="D9" t="n">
+        <v>148</v>
+      </c>
+      <c r="E9" t="n">
+        <v>184</v>
+      </c>
+      <c r="F9" t="n">
+        <v>185</v>
+      </c>
+      <c r="G9" t="n">
+        <v>169</v>
+      </c>
+      <c r="H9" t="n">
+        <v>150</v>
+      </c>
+      <c r="I9" t="n">
+        <v>149</v>
+      </c>
+      <c r="J9" t="n">
+        <v>165</v>
+      </c>
+      <c r="K9" t="n">
         <v>182</v>
       </c>
-      <c r="D9" t="n">
-        <v>153</v>
-      </c>
-      <c r="E9" t="n">
-        <v>165</v>
-      </c>
-      <c r="F9" t="n">
-        <v>149</v>
-      </c>
-      <c r="G9" t="n">
-        <v>117</v>
-      </c>
-      <c r="H9" t="n">
-        <v>112</v>
-      </c>
-      <c r="I9" t="n">
-        <v>118</v>
-      </c>
-      <c r="J9" t="n">
-        <v>126</v>
-      </c>
-      <c r="K9" t="n">
-        <v>136</v>
-      </c>
       <c r="L9" t="n">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="M9" t="n">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="N9" t="n">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="O9" t="n">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="P9" t="n">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="Q9" t="n">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="R9" t="n">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="S9" t="n">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="T9" t="n">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="U9" t="n">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="V9" t="n">
-        <v>184</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10">
@@ -4599,67 +4599,67 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9463</v>
+        <v>0.7308</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9522</v>
+        <v>0.7877</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9588</v>
+        <v>0.827</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9602</v>
+        <v>0.8385</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9662</v>
+        <v>0.8676</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9687</v>
+        <v>0.8815</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9687</v>
+        <v>0.8982</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9683</v>
+        <v>0.9057</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9669</v>
+        <v>0.9041</v>
       </c>
       <c r="K10" t="n">
-        <v>0.965</v>
+        <v>0.8999</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9636</v>
+        <v>0.8945</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9629</v>
+        <v>0.8921</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9626</v>
+        <v>0.8913</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9626</v>
+        <v>0.8916</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9629</v>
+        <v>0.8926</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9632</v>
+        <v>0.8941</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9637</v>
+        <v>0.896</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9644</v>
+        <v>0.8981</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9652</v>
+        <v>0.9005</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9661</v>
+        <v>0.903</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9671</v>
+        <v>0.9075</v>
       </c>
     </row>
     <row r="11">
@@ -4738,25 +4738,25 @@
         <v>0.8</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8398</v>
+        <v>0.8395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8798</v>
+        <v>0.8794</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8999</v>
+        <v>0.8997</v>
       </c>
       <c r="F12" t="n">
         <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9199</v>
+        <v>0.9197</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399</v>
+        <v>0.9397</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9436</v>
+        <v>0.9435</v>
       </c>
       <c r="J12" t="n">
         <v>0.9471</v>
@@ -4765,7 +4765,7 @@
         <v>0.9507</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9543</v>
+        <v>0.9542</v>
       </c>
       <c r="M12" t="n">
         <v>0.9578</v>
@@ -4774,7 +4774,7 @@
         <v>0.9614</v>
       </c>
       <c r="O12" t="n">
-        <v>0.965</v>
+        <v>0.9649</v>
       </c>
       <c r="P12" t="n">
         <v>0.9685</v>
@@ -4783,19 +4783,19 @@
         <v>0.9721</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9757</v>
+        <v>0.9756</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9793</v>
+        <v>0.9792</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9828</v>
+        <v>0.9827</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9864</v>
+        <v>0.9863</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9899</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="13">
@@ -4803,67 +4803,67 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0709</v>
+        <v>0.0385</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0703</v>
+        <v>0.0482</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0587</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.0694</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.0681</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.0665</v>
+        <v>0.0797</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0648</v>
+        <v>0.0885</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0628</v>
+        <v>0.0956</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0606</v>
+        <v>0.1002</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0586</v>
+        <v>0.1037</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0566</v>
+        <v>0.1066</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0548</v>
+        <v>0.1095</v>
       </c>
       <c r="M13" t="n">
-        <v>0.053</v>
+        <v>0.1128</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0512</v>
+        <v>0.1164</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0495</v>
+        <v>0.1202</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0479</v>
+        <v>0.124</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0463</v>
+        <v>0.1278</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0448</v>
+        <v>0.1315</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0435</v>
+        <v>0.1349</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0422</v>
+        <v>0.1381</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0409</v>
+        <v>0.141</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0397</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="14">
@@ -4871,67 +4871,67 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0745</v>
+        <v>0.0472</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0758</v>
+        <v>0.0629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0769</v>
+        <v>0.0791</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0777</v>
+        <v>0.0916</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0787</v>
+        <v>0.1068</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0788</v>
+        <v>0.1192</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0827</v>
+        <v>0.1702</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0825</v>
+        <v>0.1693</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0813</v>
+        <v>0.1758</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0809</v>
+        <v>0.1842</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0814</v>
+        <v>0.1997</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0818</v>
+        <v>0.2153</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0821</v>
+        <v>0.2306</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0822</v>
+        <v>0.2453</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0821</v>
+        <v>0.2592</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0819</v>
+        <v>0.272</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0817</v>
+        <v>0.2837</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0813</v>
+        <v>0.2941</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0808</v>
+        <v>0.3033</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0803</v>
+        <v>0.3113</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0797</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="15">
@@ -4943,55 +4943,55 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>5e-04</v>
+        <v>0.0019</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>4e-04</v>
+        <v>0.002</v>
       </c>
       <c r="I15" t="n">
-        <v>1e-04</v>
+        <v>0.0006</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="K15" t="n">
-        <v>1e-04</v>
+        <v>0.0004</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
   </sheetData>
@@ -5083,61 +5083,61 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>77455</v>
+        <v>22636</v>
       </c>
       <c r="E2" t="n">
-        <v>79778</v>
+        <v>23315</v>
       </c>
       <c r="F2" t="n">
-        <v>82172</v>
+        <v>24015</v>
       </c>
       <c r="G2" t="n">
-        <v>84637</v>
+        <v>24735</v>
       </c>
       <c r="H2" t="n">
-        <v>87176</v>
+        <v>25477</v>
       </c>
       <c r="I2" t="n">
-        <v>89791</v>
+        <v>26242</v>
       </c>
       <c r="J2" t="n">
-        <v>92485</v>
+        <v>27029</v>
       </c>
       <c r="K2" t="n">
-        <v>95259</v>
+        <v>27840</v>
       </c>
       <c r="L2" t="n">
-        <v>98117</v>
+        <v>28675</v>
       </c>
       <c r="M2" t="n">
-        <v>101061</v>
+        <v>29535</v>
       </c>
       <c r="N2" t="n">
-        <v>104093</v>
+        <v>30421</v>
       </c>
       <c r="O2" t="n">
-        <v>107215</v>
+        <v>31334</v>
       </c>
       <c r="P2" t="n">
-        <v>110432</v>
+        <v>32274</v>
       </c>
       <c r="Q2" t="n">
-        <v>113745</v>
+        <v>33242</v>
       </c>
       <c r="R2" t="n">
-        <v>117157</v>
+        <v>34240</v>
       </c>
       <c r="S2" t="n">
-        <v>120672</v>
+        <v>35267</v>
       </c>
       <c r="T2" t="n">
-        <v>124292</v>
+        <v>36325</v>
       </c>
       <c r="U2" t="n">
-        <v>128021</v>
+        <v>37414</v>
       </c>
       <c r="V2" t="n">
-        <v>131861</v>
+        <v>38537</v>
       </c>
     </row>
     <row r="3">
@@ -5147,61 +5147,61 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="n">
+        <v>1161</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1395</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1624</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1851</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2032</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2177</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2348</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2560</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2818</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3112</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3443</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3810</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4213</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4651</v>
+      </c>
+      <c r="R3" t="n">
         <v>5124</v>
       </c>
-      <c r="E3" t="n">
-        <v>5252</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5362</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5459</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5526</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5576</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5644</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5735</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5844</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5967</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6105</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6257</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6426</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6612</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6818</v>
-      </c>
       <c r="S3" t="n">
-        <v>7044</v>
+        <v>5632</v>
       </c>
       <c r="T3" t="n">
-        <v>7294</v>
+        <v>6172</v>
       </c>
       <c r="U3" t="n">
-        <v>7569</v>
+        <v>6744</v>
       </c>
       <c r="V3" t="n">
-        <v>7873</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="4">
@@ -5211,61 +5211,61 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.0662</v>
+        <v>0.0513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0658</v>
+        <v>0.0598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0653</v>
+        <v>0.0676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0645</v>
+        <v>0.0748</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0634</v>
+        <v>0.0798</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0621</v>
+        <v>0.083</v>
       </c>
       <c r="J4" t="n">
-        <v>0.061</v>
+        <v>0.0869</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0602</v>
+        <v>0.0919</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0596</v>
+        <v>0.0983</v>
       </c>
       <c r="M4" t="n">
-        <v>0.059</v>
+        <v>0.1054</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0586</v>
+        <v>0.1132</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0584</v>
+        <v>0.1216</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0582</v>
+        <v>0.1305</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0581</v>
+        <v>0.1399</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0582</v>
+        <v>0.1497</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0584</v>
+        <v>0.1597</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0587</v>
+        <v>0.1699</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0591</v>
+        <v>0.1803</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0597</v>
+        <v>0.1906</v>
       </c>
     </row>
     <row r="5">
@@ -5281,55 +5281,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0019</v>
+        <v>0.0064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0018</v>
+        <v>0.0062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0347</v>
+        <v>0.1206</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0442</v>
+        <v>0.1545</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0459</v>
+        <v>0.1615</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0504</v>
+        <v>0.1786</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0504</v>
+        <v>0.1799</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0504</v>
+        <v>0.1813</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0504</v>
+        <v>0.1829</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0503</v>
+        <v>0.1846</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0503</v>
+        <v>0.1865</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0503</v>
+        <v>0.1885</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0503</v>
+        <v>0.1907</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0504</v>
+        <v>0.1929</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0504</v>
+        <v>0.1953</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0504</v>
+        <v>0.1978</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0504</v>
+        <v>0.2003</v>
       </c>
     </row>
     <row r="6">
@@ -5339,61 +5339,61 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E6" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F6" t="n">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="G6" t="n">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="H6" t="n">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="I6" t="n">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J6" t="n">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="K6" t="n">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="L6" t="n">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="M6" t="n">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="N6" t="n">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="O6" t="n">
-        <v>274</v>
+        <v>417</v>
       </c>
       <c r="P6" t="n">
-        <v>293</v>
+        <v>460</v>
       </c>
       <c r="Q6" t="n">
-        <v>313</v>
+        <v>503</v>
       </c>
       <c r="R6" t="n">
-        <v>335</v>
+        <v>547</v>
       </c>
       <c r="S6" t="n">
-        <v>360</v>
+        <v>591</v>
       </c>
       <c r="T6" t="n">
-        <v>386</v>
+        <v>634</v>
       </c>
       <c r="U6" t="n">
-        <v>416</v>
+        <v>677</v>
       </c>
       <c r="V6" t="n">
-        <v>433</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7">
@@ -5403,61 +5403,61 @@
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E7" t="n">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="F7" t="n">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="G7" t="n">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="H7" t="n">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="I7" t="n">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="J7" t="n">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="K7" t="n">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="L7" t="n">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
-        <v>289</v>
+        <v>444</v>
       </c>
       <c r="O7" t="n">
-        <v>308</v>
+        <v>489</v>
       </c>
       <c r="P7" t="n">
-        <v>330</v>
+        <v>533</v>
       </c>
       <c r="Q7" t="n">
-        <v>353</v>
+        <v>579</v>
       </c>
       <c r="R7" t="n">
-        <v>379</v>
+        <v>624</v>
       </c>
       <c r="S7" t="n">
-        <v>407</v>
+        <v>668</v>
       </c>
       <c r="T7" t="n">
-        <v>438</v>
+        <v>713</v>
       </c>
       <c r="U7" t="n">
-        <v>473</v>
+        <v>756</v>
       </c>
       <c r="V7" t="n">
-        <v>493</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8">
@@ -5467,61 +5467,61 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" t="n">
+        <v>133</v>
+      </c>
+      <c r="F8" t="n">
+        <v>138</v>
+      </c>
+      <c r="G8" t="n">
+        <v>119</v>
+      </c>
+      <c r="H8" t="n">
+        <v>87</v>
+      </c>
+      <c r="I8" t="n">
+        <v>87</v>
+      </c>
+      <c r="J8" t="n">
+        <v>102</v>
+      </c>
+      <c r="K8" t="n">
         <v>121</v>
       </c>
-      <c r="F8" t="n">
-        <v>118</v>
-      </c>
-      <c r="G8" t="n">
-        <v>91</v>
-      </c>
-      <c r="H8" t="n">
-        <v>74</v>
-      </c>
-      <c r="I8" t="n">
-        <v>76</v>
-      </c>
-      <c r="J8" t="n">
-        <v>85</v>
-      </c>
-      <c r="K8" t="n">
-        <v>94</v>
-      </c>
       <c r="L8" t="n">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="M8" t="n">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="N8" t="n">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="O8" t="n">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="P8" t="n">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="Q8" t="n">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="R8" t="n">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="S8" t="n">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="T8" t="n">
-        <v>176</v>
+        <v>293</v>
       </c>
       <c r="U8" t="n">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="V8" t="n">
-        <v>198</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
@@ -5531,61 +5531,61 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F9" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G9" t="n">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="H9" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I9" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J9" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="K9" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="L9" t="n">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M9" t="n">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="N9" t="n">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="O9" t="n">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="P9" t="n">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="Q9" t="n">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="R9" t="n">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="S9" t="n">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="T9" t="n">
-        <v>210</v>
+        <v>342</v>
       </c>
       <c r="U9" t="n">
-        <v>226</v>
+        <v>366</v>
       </c>
       <c r="V9" t="n">
-        <v>235</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
@@ -5595,61 +5595,61 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>0.9496</v>
+        <v>0.804</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9508</v>
+        <v>0.816</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9582</v>
+        <v>0.8489</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9613</v>
+        <v>0.8648</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9609</v>
+        <v>0.8826</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9597</v>
+        <v>0.8894</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9566</v>
+        <v>0.8849</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9525</v>
+        <v>0.8767</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9485</v>
+        <v>0.8663</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9453</v>
+        <v>0.86</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9425</v>
+        <v>0.8565</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9399</v>
+        <v>0.8549</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9374</v>
+        <v>0.8548</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.935</v>
+        <v>0.8557</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9325</v>
+        <v>0.8574</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9299</v>
+        <v>0.8596</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9274</v>
+        <v>0.8623</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9247</v>
+        <v>0.8652</v>
       </c>
       <c r="V10" t="n">
-        <v>0.922</v>
+        <v>0.8683</v>
       </c>
     </row>
     <row r="11">
@@ -5723,7 +5723,7 @@
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>0.8798</v>
+        <v>0.8794</v>
       </c>
       <c r="E12" t="n">
         <v>0.9</v>
@@ -5732,10 +5732,10 @@
         <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9199</v>
+        <v>0.9197</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399</v>
+        <v>0.9397</v>
       </c>
       <c r="I12" t="n">
         <v>0.94</v>
@@ -5787,61 +5787,61 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>0.0634</v>
+        <v>0.0473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0621</v>
+        <v>0.055</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0605</v>
+        <v>0.0618</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0588</v>
+        <v>0.0675</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0569</v>
+        <v>0.072</v>
       </c>
       <c r="I13" t="n">
-        <v>0.055</v>
+        <v>0.0749</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0531</v>
+        <v>0.0771</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0513</v>
+        <v>0.0792</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0495</v>
+        <v>0.0814</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0479</v>
+        <v>0.0844</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0465</v>
+        <v>0.0879</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0451</v>
+        <v>0.092</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0438</v>
+        <v>0.0968</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0427</v>
+        <v>0.102</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0416</v>
+        <v>0.1078</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0407</v>
+        <v>0.1141</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0398</v>
+        <v>0.1208</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0391</v>
+        <v>0.1278</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0384</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="14">
@@ -5851,61 +5851,61 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>0.0703</v>
+        <v>0.0615</v>
       </c>
       <c r="E14" t="n">
         <v>0.0709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0711</v>
+        <v>0.0813</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0708</v>
+        <v>0.0895</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0742</v>
+        <v>0.1283</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0738</v>
+        <v>0.1273</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0726</v>
+        <v>0.1317</v>
       </c>
       <c r="K14" t="n">
-        <v>0.072</v>
+        <v>0.1381</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0721</v>
+        <v>0.1507</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0723</v>
+        <v>0.1643</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0727</v>
+        <v>0.179</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0732</v>
+        <v>0.1945</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0738</v>
+        <v>0.2108</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0746</v>
+        <v>0.2275</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0754</v>
+        <v>0.2446</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0765</v>
+        <v>0.2619</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0777</v>
+        <v>0.2792</v>
       </c>
       <c r="U14" t="n">
-        <v>0.079</v>
+        <v>0.2964</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0805</v>
+        <v>0.3134</v>
       </c>
     </row>
     <row r="15">
@@ -5917,55 +5917,55 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>4e-04</v>
+        <v>0.0013</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3e-04</v>
+        <v>0.0013</v>
       </c>
       <c r="I15" t="n">
-        <v>1e-04</v>
+        <v>0.0004</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K15" t="n">
-        <v>1e-04</v>
+        <v>0.0003</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
   </sheetData>
@@ -6057,61 +6057,61 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>77455</v>
+        <v>22636</v>
       </c>
       <c r="E2" t="n">
-        <v>79778</v>
+        <v>23315</v>
       </c>
       <c r="F2" t="n">
-        <v>82172</v>
+        <v>24015</v>
       </c>
       <c r="G2" t="n">
-        <v>84637</v>
+        <v>24735</v>
       </c>
       <c r="H2" t="n">
-        <v>87176</v>
+        <v>25477</v>
       </c>
       <c r="I2" t="n">
-        <v>89791</v>
+        <v>26242</v>
       </c>
       <c r="J2" t="n">
-        <v>92485</v>
+        <v>27029</v>
       </c>
       <c r="K2" t="n">
-        <v>95259</v>
+        <v>27840</v>
       </c>
       <c r="L2" t="n">
-        <v>98117</v>
+        <v>28675</v>
       </c>
       <c r="M2" t="n">
-        <v>101061</v>
+        <v>29535</v>
       </c>
       <c r="N2" t="n">
-        <v>104093</v>
+        <v>30421</v>
       </c>
       <c r="O2" t="n">
-        <v>107215</v>
+        <v>31334</v>
       </c>
       <c r="P2" t="n">
-        <v>110432</v>
+        <v>32274</v>
       </c>
       <c r="Q2" t="n">
-        <v>113745</v>
+        <v>33242</v>
       </c>
       <c r="R2" t="n">
-        <v>117157</v>
+        <v>34240</v>
       </c>
       <c r="S2" t="n">
-        <v>120672</v>
+        <v>35267</v>
       </c>
       <c r="T2" t="n">
-        <v>124292</v>
+        <v>36325</v>
       </c>
       <c r="U2" t="n">
-        <v>128021</v>
+        <v>37414</v>
       </c>
       <c r="V2" t="n">
-        <v>131861</v>
+        <v>38537</v>
       </c>
     </row>
     <row r="3">
@@ -6121,61 +6121,61 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>5124</v>
+        <v>1161</v>
       </c>
       <c r="E3" t="n">
-        <v>5250</v>
+        <v>1393</v>
       </c>
       <c r="F3" t="n">
-        <v>5333</v>
+        <v>1594</v>
       </c>
       <c r="G3" t="n">
-        <v>5404</v>
+        <v>1786</v>
       </c>
       <c r="H3" t="n">
-        <v>5445</v>
+        <v>1935</v>
       </c>
       <c r="I3" t="n">
-        <v>5472</v>
+        <v>2051</v>
       </c>
       <c r="J3" t="n">
-        <v>5513</v>
+        <v>2187</v>
       </c>
       <c r="K3" t="n">
-        <v>5572</v>
+        <v>2355</v>
       </c>
       <c r="L3" t="n">
-        <v>5645</v>
+        <v>2558</v>
       </c>
       <c r="M3" t="n">
-        <v>5729</v>
+        <v>2790</v>
       </c>
       <c r="N3" t="n">
-        <v>5824</v>
+        <v>3050</v>
       </c>
       <c r="O3" t="n">
-        <v>5930</v>
+        <v>3339</v>
       </c>
       <c r="P3" t="n">
-        <v>6048</v>
+        <v>3659</v>
       </c>
       <c r="Q3" t="n">
-        <v>6179</v>
+        <v>4012</v>
       </c>
       <c r="R3" t="n">
-        <v>6324</v>
+        <v>4397</v>
       </c>
       <c r="S3" t="n">
-        <v>6484</v>
+        <v>4816</v>
       </c>
       <c r="T3" t="n">
-        <v>6661</v>
+        <v>5270</v>
       </c>
       <c r="U3" t="n">
-        <v>6857</v>
+        <v>5759</v>
       </c>
       <c r="V3" t="n">
-        <v>7072</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="4">
@@ -6185,61 +6185,61 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.0662</v>
+        <v>0.0513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0658</v>
+        <v>0.0597</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0649</v>
+        <v>0.0664</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0638</v>
+        <v>0.0722</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0625</v>
+        <v>0.076</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0609</v>
+        <v>0.0782</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0596</v>
+        <v>0.0809</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0585</v>
+        <v>0.0846</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0575</v>
+        <v>0.0892</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0567</v>
+        <v>0.0945</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0559</v>
+        <v>0.1003</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0553</v>
+        <v>0.1066</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0548</v>
+        <v>0.1134</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0543</v>
+        <v>0.1207</v>
       </c>
       <c r="R4" t="n">
-        <v>0.054</v>
+        <v>0.1284</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0537</v>
+        <v>0.1366</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0536</v>
+        <v>0.1451</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0536</v>
+        <v>0.1539</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0536</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="5">
@@ -6255,55 +6255,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0019</v>
+        <v>0.0064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0018</v>
+        <v>0.0062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0347</v>
+        <v>0.1202</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0441</v>
+        <v>0.1537</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0458</v>
+        <v>0.1605</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0504</v>
+        <v>0.1771</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0503</v>
+        <v>0.1781</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0503</v>
+        <v>0.1791</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0502</v>
+        <v>0.1803</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0502</v>
+        <v>0.1815</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0502</v>
+        <v>0.1829</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0501</v>
+        <v>0.1844</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0501</v>
+        <v>0.1861</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0501</v>
+        <v>0.1878</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0501</v>
+        <v>0.1897</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0501</v>
+        <v>0.1917</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0501</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="6">
@@ -6313,61 +6313,61 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E6" t="n">
+        <v>249</v>
+      </c>
+      <c r="F6" t="n">
         <v>239</v>
       </c>
-      <c r="F6" t="n">
-        <v>213</v>
-      </c>
       <c r="G6" t="n">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="H6" t="n">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="I6" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J6" t="n">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="K6" t="n">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="L6" t="n">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="M6" t="n">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="N6" t="n">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="O6" t="n">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="P6" t="n">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="Q6" t="n">
-        <v>253</v>
+        <v>410</v>
       </c>
       <c r="R6" t="n">
-        <v>269</v>
+        <v>450</v>
       </c>
       <c r="S6" t="n">
-        <v>286</v>
+        <v>491</v>
       </c>
       <c r="T6" t="n">
-        <v>306</v>
+        <v>533</v>
       </c>
       <c r="U6" t="n">
-        <v>327</v>
+        <v>577</v>
       </c>
       <c r="V6" t="n">
-        <v>330</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7">
@@ -6377,61 +6377,61 @@
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E7" t="n">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="F7" t="n">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="G7" t="n">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="H7" t="n">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I7" t="n">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K7" t="n">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="L7" t="n">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="M7" t="n">
-        <v>222</v>
+        <v>322</v>
       </c>
       <c r="N7" t="n">
-        <v>235</v>
+        <v>358</v>
       </c>
       <c r="O7" t="n">
-        <v>250</v>
+        <v>395</v>
       </c>
       <c r="P7" t="n">
-        <v>265</v>
+        <v>434</v>
       </c>
       <c r="Q7" t="n">
-        <v>282</v>
+        <v>476</v>
       </c>
       <c r="R7" t="n">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="S7" t="n">
-        <v>321</v>
+        <v>563</v>
       </c>
       <c r="T7" t="n">
-        <v>343</v>
+        <v>608</v>
       </c>
       <c r="U7" t="n">
-        <v>368</v>
+        <v>655</v>
       </c>
       <c r="V7" t="n">
-        <v>382</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8">
@@ -6441,61 +6441,61 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="n">
+        <v>111</v>
+      </c>
+      <c r="E8" t="n">
+        <v>125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>122</v>
+      </c>
+      <c r="G8" t="n">
+        <v>102</v>
+      </c>
+      <c r="H8" t="n">
+        <v>73</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>84</v>
+      </c>
+      <c r="K8" t="n">
+        <v>98</v>
+      </c>
+      <c r="L8" t="n">
         <v>114</v>
       </c>
-      <c r="E8" t="n">
-        <v>113</v>
-      </c>
-      <c r="F8" t="n">
-        <v>104</v>
-      </c>
-      <c r="G8" t="n">
-        <v>79</v>
-      </c>
-      <c r="H8" t="n">
-        <v>64</v>
-      </c>
-      <c r="I8" t="n">
-        <v>65</v>
-      </c>
-      <c r="J8" t="n">
-        <v>71</v>
-      </c>
-      <c r="K8" t="n">
-        <v>79</v>
-      </c>
-      <c r="L8" t="n">
-        <v>85</v>
-      </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="N8" t="n">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="O8" t="n">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="P8" t="n">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="Q8" t="n">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="R8" t="n">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="S8" t="n">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="T8" t="n">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="U8" t="n">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="V8" t="n">
-        <v>152</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
@@ -6505,61 +6505,61 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I9" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J9" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K9" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="N9" t="n">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="O9" t="n">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="P9" t="n">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="Q9" t="n">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="R9" t="n">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="S9" t="n">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="T9" t="n">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="U9" t="n">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="V9" t="n">
-        <v>179</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
@@ -6569,61 +6569,61 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>0.9496</v>
+        <v>0.804</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9503</v>
+        <v>0.8143</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9542</v>
+        <v>0.8362</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9561</v>
+        <v>0.8488</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9548</v>
+        <v>0.8666</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9529</v>
+        <v>0.8739</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9489</v>
+        <v>0.8696</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9437</v>
+        <v>0.861</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9388</v>
+        <v>0.85</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9349</v>
+        <v>0.8447</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9316</v>
+        <v>0.8435</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9286</v>
+        <v>0.8435</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9258</v>
+        <v>0.845</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.923</v>
+        <v>0.8476</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9202</v>
+        <v>0.8509</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9175</v>
+        <v>0.8548</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9147</v>
+        <v>0.8589</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9118</v>
+        <v>0.8618</v>
       </c>
       <c r="V10" t="n">
-        <v>0.909</v>
+        <v>0.8647</v>
       </c>
     </row>
     <row r="11">
@@ -6697,7 +6697,7 @@
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>0.8798</v>
+        <v>0.8794</v>
       </c>
       <c r="E12" t="n">
         <v>0.9</v>
@@ -6706,10 +6706,10 @@
         <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9199</v>
+        <v>0.9197</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399</v>
+        <v>0.9397</v>
       </c>
       <c r="I12" t="n">
         <v>0.94</v>
@@ -6761,61 +6761,61 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>0.0634</v>
+        <v>0.0473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0621</v>
+        <v>0.055</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0604</v>
+        <v>0.0607</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0585</v>
+        <v>0.0653</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0565</v>
+        <v>0.0687</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0545</v>
+        <v>0.0706</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0525</v>
+        <v>0.0721</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0506</v>
+        <v>0.0734</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0488</v>
+        <v>0.0748</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0471</v>
+        <v>0.0767</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0455</v>
+        <v>0.0791</v>
       </c>
       <c r="O13" t="n">
-        <v>0.044</v>
+        <v>0.0821</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0427</v>
+        <v>0.0855</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0414</v>
+        <v>0.0894</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0402</v>
+        <v>0.0937</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0392</v>
+        <v>0.0985</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0382</v>
+        <v>0.1038</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0373</v>
+        <v>0.1095</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0365</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="14">
@@ -6825,61 +6825,61 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>0.0703</v>
+        <v>0.0615</v>
       </c>
       <c r="E14" t="n">
         <v>0.0708</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0705</v>
+        <v>0.0795</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0697</v>
+        <v>0.0858</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0726</v>
+        <v>0.1214</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0719</v>
+        <v>0.1194</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0703</v>
+        <v>0.122</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0693</v>
+        <v>0.1263</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0689</v>
+        <v>0.1356</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0685</v>
+        <v>0.1459</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0683</v>
+        <v>0.157</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0682</v>
+        <v>0.1688</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0682</v>
+        <v>0.1814</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0684</v>
+        <v>0.1947</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0686</v>
+        <v>0.2085</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0689</v>
+        <v>0.2228</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0694</v>
+        <v>0.2376</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07</v>
+        <v>0.2527</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0707</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="15">
@@ -6891,55 +6891,55 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>4e-04</v>
+        <v>0.0012</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3e-04</v>
+        <v>0.0011</v>
       </c>
       <c r="I15" t="n">
-        <v>1e-04</v>
+        <v>0.0003</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
   </sheetData>
@@ -7031,61 +7031,61 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>77455</v>
+        <v>22636</v>
       </c>
       <c r="E2" t="n">
-        <v>79778</v>
+        <v>23315</v>
       </c>
       <c r="F2" t="n">
-        <v>82172</v>
+        <v>24015</v>
       </c>
       <c r="G2" t="n">
-        <v>84637</v>
+        <v>24735</v>
       </c>
       <c r="H2" t="n">
-        <v>87176</v>
+        <v>25477</v>
       </c>
       <c r="I2" t="n">
-        <v>89791</v>
+        <v>26242</v>
       </c>
       <c r="J2" t="n">
-        <v>92485</v>
+        <v>27029</v>
       </c>
       <c r="K2" t="n">
-        <v>95259</v>
+        <v>27840</v>
       </c>
       <c r="L2" t="n">
-        <v>98117</v>
+        <v>28675</v>
       </c>
       <c r="M2" t="n">
-        <v>101061</v>
+        <v>29535</v>
       </c>
       <c r="N2" t="n">
-        <v>104093</v>
+        <v>30421</v>
       </c>
       <c r="O2" t="n">
-        <v>107215</v>
+        <v>31334</v>
       </c>
       <c r="P2" t="n">
-        <v>110432</v>
+        <v>32274</v>
       </c>
       <c r="Q2" t="n">
-        <v>113745</v>
+        <v>33242</v>
       </c>
       <c r="R2" t="n">
-        <v>117157</v>
+        <v>34240</v>
       </c>
       <c r="S2" t="n">
-        <v>120672</v>
+        <v>35267</v>
       </c>
       <c r="T2" t="n">
-        <v>124292</v>
+        <v>36325</v>
       </c>
       <c r="U2" t="n">
-        <v>128021</v>
+        <v>37414</v>
       </c>
       <c r="V2" t="n">
-        <v>131861</v>
+        <v>38537</v>
       </c>
     </row>
     <row r="3">
@@ -7095,61 +7095,61 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>5124</v>
+        <v>1161</v>
       </c>
       <c r="E3" t="n">
-        <v>5255</v>
+        <v>1397</v>
       </c>
       <c r="F3" t="n">
-        <v>5399</v>
+        <v>1668</v>
       </c>
       <c r="G3" t="n">
-        <v>5533</v>
+        <v>1947</v>
       </c>
       <c r="H3" t="n">
-        <v>5633</v>
+        <v>2177</v>
       </c>
       <c r="I3" t="n">
-        <v>5716</v>
+        <v>2366</v>
       </c>
       <c r="J3" t="n">
-        <v>5822</v>
+        <v>2594</v>
       </c>
       <c r="K3" t="n">
-        <v>5959</v>
+        <v>2881</v>
       </c>
       <c r="L3" t="n">
-        <v>6120</v>
+        <v>3232</v>
       </c>
       <c r="M3" t="n">
-        <v>6301</v>
+        <v>3633</v>
       </c>
       <c r="N3" t="n">
-        <v>6503</v>
+        <v>4079</v>
       </c>
       <c r="O3" t="n">
-        <v>6725</v>
+        <v>4566</v>
       </c>
       <c r="P3" t="n">
-        <v>6971</v>
+        <v>5090</v>
       </c>
       <c r="Q3" t="n">
-        <v>7243</v>
+        <v>5646</v>
       </c>
       <c r="R3" t="n">
-        <v>7542</v>
+        <v>6232</v>
       </c>
       <c r="S3" t="n">
-        <v>7872</v>
+        <v>6843</v>
       </c>
       <c r="T3" t="n">
-        <v>8237</v>
+        <v>7477</v>
       </c>
       <c r="U3" t="n">
-        <v>8639</v>
+        <v>8132</v>
       </c>
       <c r="V3" t="n">
-        <v>9084</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="4">
@@ -7159,61 +7159,61 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.0662</v>
+        <v>0.0513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0659</v>
+        <v>0.0599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0657</v>
+        <v>0.0694</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0654</v>
+        <v>0.0787</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0646</v>
+        <v>0.0854</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0637</v>
+        <v>0.0902</v>
       </c>
       <c r="J4" t="n">
-        <v>0.063</v>
+        <v>0.096</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0626</v>
+        <v>0.1035</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0624</v>
+        <v>0.1127</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0624</v>
+        <v>0.123</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0625</v>
+        <v>0.1341</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0627</v>
+        <v>0.1457</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0631</v>
+        <v>0.1577</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0637</v>
+        <v>0.1699</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0644</v>
+        <v>0.182</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0652</v>
+        <v>0.194</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0663</v>
+        <v>0.2058</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0675</v>
+        <v>0.2173</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0689</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="5">
@@ -7229,55 +7229,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0019</v>
+        <v>0.0064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0018</v>
+        <v>0.0063</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0347</v>
+        <v>0.1213</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0442</v>
+        <v>0.1557</v>
       </c>
       <c r="J5" t="n">
-        <v>0.046</v>
+        <v>0.1631</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0506</v>
+        <v>0.1808</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0506</v>
+        <v>0.1828</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0506</v>
+        <v>0.1849</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0506</v>
+        <v>0.1873</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0506</v>
+        <v>0.1898</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0506</v>
+        <v>0.1925</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0506</v>
+        <v>0.1953</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0507</v>
+        <v>0.1982</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0507</v>
+        <v>0.2011</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0508</v>
+        <v>0.2041</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0508</v>
+        <v>0.2071</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0509</v>
+        <v>0.2101</v>
       </c>
     </row>
     <row r="6">
@@ -7287,61 +7287,61 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E6" t="n">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F6" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="H6" t="n">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="I6" t="n">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="J6" t="n">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="K6" t="n">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="L6" t="n">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="M6" t="n">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="N6" t="n">
-        <v>322</v>
+        <v>493</v>
       </c>
       <c r="O6" t="n">
-        <v>348</v>
+        <v>545</v>
       </c>
       <c r="P6" t="n">
-        <v>375</v>
+        <v>593</v>
       </c>
       <c r="Q6" t="n">
-        <v>405</v>
+        <v>638</v>
       </c>
       <c r="R6" t="n">
-        <v>437</v>
+        <v>680</v>
       </c>
       <c r="S6" t="n">
-        <v>472</v>
+        <v>719</v>
       </c>
       <c r="T6" t="n">
-        <v>512</v>
+        <v>756</v>
       </c>
       <c r="U6" t="n">
-        <v>555</v>
+        <v>791</v>
       </c>
       <c r="V6" t="n">
-        <v>584</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7">
@@ -7351,61 +7351,61 @@
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E7" t="n">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="F7" t="n">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="G7" t="n">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="H7" t="n">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="I7" t="n">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="J7" t="n">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="K7" t="n">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="L7" t="n">
-        <v>317</v>
+        <v>473</v>
       </c>
       <c r="M7" t="n">
-        <v>342</v>
+        <v>528</v>
       </c>
       <c r="N7" t="n">
-        <v>368</v>
+        <v>579</v>
       </c>
       <c r="O7" t="n">
-        <v>396</v>
+        <v>628</v>
       </c>
       <c r="P7" t="n">
-        <v>427</v>
+        <v>673</v>
       </c>
       <c r="Q7" t="n">
-        <v>461</v>
+        <v>715</v>
       </c>
       <c r="R7" t="n">
-        <v>499</v>
+        <v>754</v>
       </c>
       <c r="S7" t="n">
-        <v>540</v>
+        <v>791</v>
       </c>
       <c r="T7" t="n">
-        <v>586</v>
+        <v>826</v>
       </c>
       <c r="U7" t="n">
-        <v>637</v>
+        <v>860</v>
       </c>
       <c r="V7" t="n">
-        <v>667</v>
+        <v>879</v>
       </c>
     </row>
     <row r="8">
@@ -7415,61 +7415,61 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F8" t="n">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="G8" t="n">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="H8" t="n">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="I8" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="J8" t="n">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K8" t="n">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="L8" t="n">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="M8" t="n">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="N8" t="n">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="O8" t="n">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="P8" t="n">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="Q8" t="n">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="R8" t="n">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="S8" t="n">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="T8" t="n">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="U8" t="n">
-        <v>255</v>
+        <v>363</v>
       </c>
       <c r="V8" t="n">
-        <v>263</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
@@ -7479,61 +7479,61 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="n">
+        <v>103</v>
+      </c>
+      <c r="E9" t="n">
+        <v>131</v>
+      </c>
+      <c r="F9" t="n">
+        <v>136</v>
+      </c>
+      <c r="G9" t="n">
+        <v>132</v>
+      </c>
+      <c r="H9" t="n">
+        <v>119</v>
+      </c>
+      <c r="I9" t="n">
         <v>120</v>
       </c>
-      <c r="E9" t="n">
-        <v>133</v>
-      </c>
-      <c r="F9" t="n">
-        <v>126</v>
-      </c>
-      <c r="G9" t="n">
-        <v>104</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>107</v>
-      </c>
       <c r="J9" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="K9" t="n">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="L9" t="n">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="M9" t="n">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="N9" t="n">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="O9" t="n">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="P9" t="n">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="Q9" t="n">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="R9" t="n">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="S9" t="n">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="T9" t="n">
-        <v>277</v>
+        <v>408</v>
       </c>
       <c r="U9" t="n">
-        <v>300</v>
+        <v>428</v>
       </c>
       <c r="V9" t="n">
-        <v>319</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
@@ -7543,61 +7543,61 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>0.9496</v>
+        <v>0.804</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9512</v>
+        <v>0.8174</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9614</v>
+        <v>0.859</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9654</v>
+        <v>0.8777</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9656</v>
+        <v>0.8951</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9648</v>
+        <v>0.9017</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9623</v>
+        <v>0.8979</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9588</v>
+        <v>0.8904</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9555</v>
+        <v>0.8807</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9528</v>
+        <v>0.8742</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9505</v>
+        <v>0.8699</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9483</v>
+        <v>0.867</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9461</v>
+        <v>0.8656</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.944</v>
+        <v>0.865</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9418</v>
+        <v>0.865</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9395</v>
+        <v>0.8655</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9372</v>
+        <v>0.8674</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9348</v>
+        <v>0.8723</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9324</v>
+        <v>0.8771</v>
       </c>
     </row>
     <row r="11">
@@ -7671,7 +7671,7 @@
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>0.8798</v>
+        <v>0.8794</v>
       </c>
       <c r="E12" t="n">
         <v>0.9</v>
@@ -7680,10 +7680,10 @@
         <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9199</v>
+        <v>0.9197</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399</v>
+        <v>0.9397</v>
       </c>
       <c r="I12" t="n">
         <v>0.94</v>
@@ -7735,61 +7735,61 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>0.0634</v>
+        <v>0.0473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0621</v>
+        <v>0.0551</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0607</v>
+        <v>0.0632</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0592</v>
+        <v>0.0704</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0574</v>
+        <v>0.0764</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0556</v>
+        <v>0.0805</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0538</v>
+        <v>0.084</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0521</v>
+        <v>0.0873</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0505</v>
+        <v>0.0909</v>
       </c>
       <c r="M13" t="n">
-        <v>0.049</v>
+        <v>0.0955</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0477</v>
+        <v>0.1008</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0465</v>
+        <v>0.1069</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0454</v>
+        <v>0.1136</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0444</v>
+        <v>0.1208</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0435</v>
+        <v>0.1285</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0428</v>
+        <v>0.1365</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0422</v>
+        <v>0.1449</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0417</v>
+        <v>0.1534</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0413</v>
+        <v>0.1622</v>
       </c>
     </row>
     <row r="14">
@@ -7799,61 +7799,61 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>0.0703</v>
+        <v>0.0615</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0709</v>
+        <v>0.0711</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0719</v>
+        <v>0.0844</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0722</v>
+        <v>0.0957</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0763</v>
+        <v>0.1398</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0764</v>
+        <v>0.1402</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0757</v>
+        <v>0.1476</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0757</v>
+        <v>0.1577</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0766</v>
+        <v>0.1757</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0776</v>
+        <v>0.1952</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0788</v>
+        <v>0.2158</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0802</v>
+        <v>0.237</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0817</v>
+        <v>0.2584</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0835</v>
+        <v>0.2797</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0854</v>
+        <v>0.3006</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0875</v>
+        <v>0.3208</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0898</v>
+        <v>0.3403</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0924</v>
+        <v>0.3589</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0952</v>
+        <v>0.3766</v>
       </c>
     </row>
     <row r="15">
@@ -7865,55 +7865,55 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="n">
-        <v>5e-04</v>
+        <v>0.0014</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>4e-04</v>
+        <v>0.0016</v>
       </c>
       <c r="I15" t="n">
-        <v>1e-04</v>
+        <v>0.0005</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K15" t="n">
-        <v>1e-04</v>
+        <v>0.0004</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="U15" t="n">
-        <v>1e-04</v>
+        <v>0.0005</v>
       </c>
       <c r="V15" t="n">
-        <v>1e-04</v>
+        <v>0.0005</v>
       </c>
     </row>
   </sheetData>
@@ -8005,61 +8005,61 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>77455</v>
+        <v>22636</v>
       </c>
       <c r="E2" t="n">
-        <v>79778</v>
+        <v>23315</v>
       </c>
       <c r="F2" t="n">
-        <v>82172</v>
+        <v>24015</v>
       </c>
       <c r="G2" t="n">
-        <v>84637</v>
+        <v>24735</v>
       </c>
       <c r="H2" t="n">
-        <v>87176</v>
+        <v>25477</v>
       </c>
       <c r="I2" t="n">
-        <v>89791</v>
+        <v>26242</v>
       </c>
       <c r="J2" t="n">
-        <v>92485</v>
+        <v>27029</v>
       </c>
       <c r="K2" t="n">
-        <v>95259</v>
+        <v>27840</v>
       </c>
       <c r="L2" t="n">
-        <v>98117</v>
+        <v>28675</v>
       </c>
       <c r="M2" t="n">
-        <v>101061</v>
+        <v>29535</v>
       </c>
       <c r="N2" t="n">
-        <v>104093</v>
+        <v>30421</v>
       </c>
       <c r="O2" t="n">
-        <v>107215</v>
+        <v>31334</v>
       </c>
       <c r="P2" t="n">
-        <v>110432</v>
+        <v>32274</v>
       </c>
       <c r="Q2" t="n">
-        <v>113745</v>
+        <v>33242</v>
       </c>
       <c r="R2" t="n">
-        <v>117157</v>
+        <v>34240</v>
       </c>
       <c r="S2" t="n">
-        <v>120672</v>
+        <v>35267</v>
       </c>
       <c r="T2" t="n">
-        <v>124292</v>
+        <v>36325</v>
       </c>
       <c r="U2" t="n">
-        <v>128021</v>
+        <v>37414</v>
       </c>
       <c r="V2" t="n">
-        <v>131861</v>
+        <v>38537</v>
       </c>
     </row>
     <row r="3">
@@ -8069,61 +8069,61 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>5124</v>
+        <v>1161</v>
       </c>
       <c r="E3" t="n">
-        <v>5252</v>
+        <v>1395</v>
       </c>
       <c r="F3" t="n">
-        <v>5364</v>
+        <v>1658</v>
       </c>
       <c r="G3" t="n">
-        <v>5458</v>
+        <v>1971</v>
       </c>
       <c r="H3" t="n">
-        <v>5521</v>
+        <v>2298</v>
       </c>
       <c r="I3" t="n">
-        <v>5566</v>
+        <v>2659</v>
       </c>
       <c r="J3" t="n">
-        <v>5612</v>
+        <v>3073</v>
       </c>
       <c r="K3" t="n">
-        <v>5659</v>
+        <v>3536</v>
       </c>
       <c r="L3" t="n">
-        <v>5707</v>
+        <v>4041</v>
       </c>
       <c r="M3" t="n">
-        <v>5754</v>
+        <v>4580</v>
       </c>
       <c r="N3" t="n">
-        <v>5801</v>
+        <v>5145</v>
       </c>
       <c r="O3" t="n">
-        <v>5847</v>
+        <v>5725</v>
       </c>
       <c r="P3" t="n">
-        <v>5891</v>
+        <v>6314</v>
       </c>
       <c r="Q3" t="n">
-        <v>5933</v>
+        <v>6903</v>
       </c>
       <c r="R3" t="n">
-        <v>5973</v>
+        <v>7487</v>
       </c>
       <c r="S3" t="n">
-        <v>6010</v>
+        <v>8062</v>
       </c>
       <c r="T3" t="n">
-        <v>6043</v>
+        <v>8623</v>
       </c>
       <c r="U3" t="n">
-        <v>6072</v>
+        <v>9167</v>
       </c>
       <c r="V3" t="n">
-        <v>6095</v>
+        <v>9692</v>
       </c>
     </row>
     <row r="4">
@@ -8133,61 +8133,61 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.0662</v>
+        <v>0.0513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0658</v>
+        <v>0.0598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0653</v>
+        <v>0.0691</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0645</v>
+        <v>0.0797</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0633</v>
+        <v>0.0902</v>
       </c>
       <c r="I4" t="n">
-        <v>0.062</v>
+        <v>0.1013</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0607</v>
+        <v>0.1137</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0594</v>
+        <v>0.127</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0582</v>
+        <v>0.1409</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0569</v>
+        <v>0.1551</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0557</v>
+        <v>0.1691</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0545</v>
+        <v>0.1827</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0533</v>
+        <v>0.1956</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0522</v>
+        <v>0.2077</v>
       </c>
       <c r="R4" t="n">
-        <v>0.051</v>
+        <v>0.2187</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0498</v>
+        <v>0.2286</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0486</v>
+        <v>0.2374</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0474</v>
+        <v>0.245</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0462</v>
+        <v>0.2515</v>
       </c>
     </row>
     <row r="5">
@@ -8261,61 +8261,61 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E6" t="n">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F6" t="n">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="G6" t="n">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="H6" t="n">
-        <v>158</v>
+        <v>311</v>
       </c>
       <c r="I6" t="n">
-        <v>161</v>
+        <v>373</v>
       </c>
       <c r="J6" t="n">
-        <v>163</v>
+        <v>432</v>
       </c>
       <c r="K6" t="n">
-        <v>166</v>
+        <v>491</v>
       </c>
       <c r="L6" t="n">
-        <v>167</v>
+        <v>544</v>
       </c>
       <c r="M6" t="n">
-        <v>169</v>
+        <v>591</v>
       </c>
       <c r="N6" t="n">
-        <v>169</v>
+        <v>630</v>
       </c>
       <c r="O6" t="n">
-        <v>170</v>
+        <v>662</v>
       </c>
       <c r="P6" t="n">
-        <v>169</v>
+        <v>686</v>
       </c>
       <c r="Q6" t="n">
-        <v>169</v>
+        <v>703</v>
       </c>
       <c r="R6" t="n">
-        <v>167</v>
+        <v>714</v>
       </c>
       <c r="S6" t="n">
-        <v>165</v>
+        <v>720</v>
       </c>
       <c r="T6" t="n">
-        <v>163</v>
+        <v>721</v>
       </c>
       <c r="U6" t="n">
-        <v>159</v>
+        <v>719</v>
       </c>
       <c r="V6" t="n">
-        <v>157</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7">
@@ -8325,61 +8325,61 @@
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E7" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="F7" t="n">
-        <v>217</v>
+        <v>352</v>
       </c>
       <c r="G7" t="n">
-        <v>187</v>
+        <v>373</v>
       </c>
       <c r="H7" t="n">
-        <v>169</v>
+        <v>412</v>
       </c>
       <c r="I7" t="n">
-        <v>171</v>
+        <v>473</v>
       </c>
       <c r="J7" t="n">
-        <v>172</v>
+        <v>532</v>
       </c>
       <c r="K7" t="n">
-        <v>174</v>
+        <v>586</v>
       </c>
       <c r="L7" t="n">
-        <v>175</v>
+        <v>632</v>
       </c>
       <c r="M7" t="n">
-        <v>175</v>
+        <v>670</v>
       </c>
       <c r="N7" t="n">
-        <v>175</v>
+        <v>700</v>
       </c>
       <c r="O7" t="n">
-        <v>175</v>
+        <v>721</v>
       </c>
       <c r="P7" t="n">
-        <v>174</v>
+        <v>736</v>
       </c>
       <c r="Q7" t="n">
-        <v>173</v>
+        <v>744</v>
       </c>
       <c r="R7" t="n">
-        <v>170</v>
+        <v>748</v>
       </c>
       <c r="S7" t="n">
-        <v>167</v>
+        <v>747</v>
       </c>
       <c r="T7" t="n">
-        <v>164</v>
+        <v>743</v>
       </c>
       <c r="U7" t="n">
-        <v>159</v>
+        <v>736</v>
       </c>
       <c r="V7" t="n">
-        <v>156</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8">
@@ -8389,61 +8389,61 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F8" t="n">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="G8" t="n">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="H8" t="n">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="I8" t="n">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="J8" t="n">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="K8" t="n">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="L8" t="n">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="M8" t="n">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="N8" t="n">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="O8" t="n">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="P8" t="n">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="Q8" t="n">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="R8" t="n">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="S8" t="n">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="T8" t="n">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="U8" t="n">
-        <v>68</v>
+        <v>309</v>
       </c>
       <c r="V8" t="n">
-        <v>67</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9">
@@ -8453,61 +8453,61 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="G9" t="n">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="I9" t="n">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="J9" t="n">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="K9" t="n">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="L9" t="n">
-        <v>95</v>
+        <v>291</v>
       </c>
       <c r="M9" t="n">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="N9" t="n">
-        <v>96</v>
+        <v>345</v>
       </c>
       <c r="O9" t="n">
-        <v>96</v>
+        <v>365</v>
       </c>
       <c r="P9" t="n">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="Q9" t="n">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="R9" t="n">
-        <v>96</v>
+        <v>402</v>
       </c>
       <c r="S9" t="n">
-        <v>95</v>
+        <v>407</v>
       </c>
       <c r="T9" t="n">
-        <v>93</v>
+        <v>409</v>
       </c>
       <c r="U9" t="n">
-        <v>92</v>
+        <v>409</v>
       </c>
       <c r="V9" t="n">
-        <v>91</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10">
@@ -8517,61 +8517,61 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>0.9496</v>
+        <v>0.804</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9508</v>
+        <v>0.816</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9579</v>
+        <v>0.8358</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9617</v>
+        <v>0.8398</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9603</v>
+        <v>0.8251</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9596</v>
+        <v>0.815</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9591</v>
+        <v>0.8113</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9588</v>
+        <v>0.8118</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9586</v>
+        <v>0.8159</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9586</v>
+        <v>0.8223</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9587</v>
+        <v>0.8302</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9589</v>
+        <v>0.8389</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9592</v>
+        <v>0.8479</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9596</v>
+        <v>0.8568</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9602</v>
+        <v>0.8655</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9608</v>
+        <v>0.8737</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9616</v>
+        <v>0.8815</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9625</v>
+        <v>0.8887</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9635</v>
+        <v>0.8953</v>
       </c>
     </row>
     <row r="11">
@@ -8645,7 +8645,7 @@
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>0.8798</v>
+        <v>0.8794</v>
       </c>
       <c r="E12" t="n">
         <v>0.9</v>
@@ -8654,52 +8654,52 @@
         <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9199</v>
+        <v>0.9197</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399</v>
+        <v>0.9396</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9436</v>
+        <v>0.9435</v>
       </c>
       <c r="J12" t="n">
         <v>0.9471</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9507</v>
+        <v>0.9506</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9543</v>
+        <v>0.9542</v>
       </c>
       <c r="M12" t="n">
         <v>0.9578</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9614</v>
+        <v>0.9613</v>
       </c>
       <c r="O12" t="n">
-        <v>0.965</v>
+        <v>0.9649</v>
       </c>
       <c r="P12" t="n">
         <v>0.9685</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9721</v>
+        <v>0.972</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9757</v>
+        <v>0.9756</v>
       </c>
       <c r="S12" t="n">
         <v>0.9792</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9828</v>
+        <v>0.9827</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9864</v>
+        <v>0.9863</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9899</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="13">
@@ -8709,61 +8709,61 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>0.0634</v>
+        <v>0.0473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0621</v>
+        <v>0.055</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0605</v>
+        <v>0.0609</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0589</v>
+        <v>0.0657</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0571</v>
+        <v>0.0707</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0552</v>
+        <v>0.0763</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0534</v>
+        <v>0.0829</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0517</v>
+        <v>0.0903</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0501</v>
+        <v>0.0983</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0485</v>
+        <v>0.1068</v>
       </c>
       <c r="N13" t="n">
-        <v>0.047</v>
+        <v>0.1156</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0455</v>
+        <v>0.1244</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0441</v>
+        <v>0.1331</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0427</v>
+        <v>0.1414</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0414</v>
+        <v>0.1492</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0401</v>
+        <v>0.1565</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0388</v>
+        <v>0.1631</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0375</v>
+        <v>0.169</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0363</v>
+        <v>0.1742</v>
       </c>
     </row>
     <row r="14">
@@ -8773,61 +8773,61 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>0.0703</v>
+        <v>0.0615</v>
       </c>
       <c r="E14" t="n">
         <v>0.0709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0708</v>
+        <v>0.0786</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0711</v>
+        <v>0.0961</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0707</v>
+        <v>0.113</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07</v>
+        <v>0.1307</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0692</v>
+        <v>0.1499</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0684</v>
+        <v>0.1702</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0677</v>
+        <v>0.191</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0668</v>
+        <v>0.2117</v>
       </c>
       <c r="N14" t="n">
-        <v>0.066</v>
+        <v>0.2319</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0651</v>
+        <v>0.2511</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0642</v>
+        <v>0.2691</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0633</v>
+        <v>0.2855</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0623</v>
+        <v>0.3002</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0613</v>
+        <v>0.3132</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0602</v>
+        <v>0.3246</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0591</v>
+        <v>0.3342</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0579</v>
+        <v>0.3422</v>
       </c>
     </row>
     <row r="15">
@@ -8945,61 +8945,61 @@
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>77455</v>
+        <v>22636</v>
       </c>
       <c r="E2" t="n">
-        <v>79778</v>
+        <v>23315</v>
       </c>
       <c r="F2" t="n">
-        <v>82172</v>
+        <v>24015</v>
       </c>
       <c r="G2" t="n">
-        <v>84637</v>
+        <v>24735</v>
       </c>
       <c r="H2" t="n">
-        <v>87176</v>
+        <v>25477</v>
       </c>
       <c r="I2" t="n">
-        <v>89791</v>
+        <v>26242</v>
       </c>
       <c r="J2" t="n">
-        <v>92485</v>
+        <v>27029</v>
       </c>
       <c r="K2" t="n">
-        <v>95259</v>
+        <v>27840</v>
       </c>
       <c r="L2" t="n">
-        <v>98117</v>
+        <v>28675</v>
       </c>
       <c r="M2" t="n">
-        <v>101061</v>
+        <v>29535</v>
       </c>
       <c r="N2" t="n">
-        <v>104093</v>
+        <v>30421</v>
       </c>
       <c r="O2" t="n">
-        <v>107215</v>
+        <v>31334</v>
       </c>
       <c r="P2" t="n">
-        <v>110432</v>
+        <v>32274</v>
       </c>
       <c r="Q2" t="n">
-        <v>113745</v>
+        <v>33242</v>
       </c>
       <c r="R2" t="n">
-        <v>117157</v>
+        <v>34240</v>
       </c>
       <c r="S2" t="n">
-        <v>120672</v>
+        <v>35267</v>
       </c>
       <c r="T2" t="n">
-        <v>124292</v>
+        <v>36325</v>
       </c>
       <c r="U2" t="n">
-        <v>128021</v>
+        <v>37414</v>
       </c>
       <c r="V2" t="n">
-        <v>131861</v>
+        <v>38537</v>
       </c>
     </row>
     <row r="3">
@@ -9009,61 +9009,61 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>5124</v>
+        <v>1161</v>
       </c>
       <c r="E3" t="n">
-        <v>5250</v>
+        <v>1394</v>
       </c>
       <c r="F3" t="n">
-        <v>5334</v>
+        <v>1641</v>
       </c>
       <c r="G3" t="n">
-        <v>5400</v>
+        <v>1928</v>
       </c>
       <c r="H3" t="n">
-        <v>5438</v>
+        <v>2225</v>
       </c>
       <c r="I3" t="n">
-        <v>5460</v>
+        <v>2550</v>
       </c>
       <c r="J3" t="n">
-        <v>5482</v>
+        <v>2922</v>
       </c>
       <c r="K3" t="n">
-        <v>5505</v>
+        <v>3338</v>
       </c>
       <c r="L3" t="n">
-        <v>5527</v>
+        <v>3794</v>
       </c>
       <c r="M3" t="n">
-        <v>5549</v>
+        <v>4284</v>
       </c>
       <c r="N3" t="n">
-        <v>5571</v>
+        <v>4802</v>
       </c>
       <c r="O3" t="n">
-        <v>5591</v>
+        <v>5340</v>
       </c>
       <c r="P3" t="n">
-        <v>5609</v>
+        <v>5893</v>
       </c>
       <c r="Q3" t="n">
-        <v>5625</v>
+        <v>6453</v>
       </c>
       <c r="R3" t="n">
-        <v>5639</v>
+        <v>7013</v>
       </c>
       <c r="S3" t="n">
-        <v>5650</v>
+        <v>7568</v>
       </c>
       <c r="T3" t="n">
-        <v>5658</v>
+        <v>8114</v>
       </c>
       <c r="U3" t="n">
-        <v>5661</v>
+        <v>8646</v>
       </c>
       <c r="V3" t="n">
-        <v>5660</v>
+        <v>9152</v>
       </c>
     </row>
     <row r="4">
@@ -9073,61 +9073,61 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.0662</v>
+        <v>0.0513</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0658</v>
+        <v>0.0598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0649</v>
+        <v>0.0683</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0638</v>
+        <v>0.078</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0624</v>
+        <v>0.0873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0608</v>
+        <v>0.0972</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0593</v>
+        <v>0.1081</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0578</v>
+        <v>0.1199</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0563</v>
+        <v>0.1323</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0549</v>
+        <v>0.145</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0535</v>
+        <v>0.1578</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0521</v>
+        <v>0.1704</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0508</v>
+        <v>0.1826</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0495</v>
+        <v>0.1941</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0481</v>
+        <v>0.2048</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0468</v>
+        <v>0.2146</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0455</v>
+        <v>0.2234</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0442</v>
+        <v>0.2311</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0429</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="5">
@@ -9201,61 +9201,61 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E6" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F6" t="n">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="G6" t="n">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="H6" t="n">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="I6" t="n">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="J6" t="n">
-        <v>138</v>
+        <v>390</v>
       </c>
       <c r="K6" t="n">
-        <v>139</v>
+        <v>443</v>
       </c>
       <c r="L6" t="n">
-        <v>140</v>
+        <v>492</v>
       </c>
       <c r="M6" t="n">
-        <v>140</v>
+        <v>537</v>
       </c>
       <c r="N6" t="n">
-        <v>140</v>
+        <v>577</v>
       </c>
       <c r="O6" t="n">
-        <v>140</v>
+        <v>611</v>
       </c>
       <c r="P6" t="n">
-        <v>139</v>
+        <v>638</v>
       </c>
       <c r="Q6" t="n">
-        <v>137</v>
+        <v>658</v>
       </c>
       <c r="R6" t="n">
-        <v>136</v>
+        <v>671</v>
       </c>
       <c r="S6" t="n">
-        <v>133</v>
+        <v>679</v>
       </c>
       <c r="T6" t="n">
-        <v>130</v>
+        <v>683</v>
       </c>
       <c r="U6" t="n">
-        <v>127</v>
+        <v>684</v>
       </c>
       <c r="V6" t="n">
-        <v>125</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7">
@@ -9265,61 +9265,61 @@
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E7" t="n">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="F7" t="n">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="G7" t="n">
-        <v>161</v>
+        <v>342</v>
       </c>
       <c r="H7" t="n">
-        <v>143</v>
+        <v>374</v>
       </c>
       <c r="I7" t="n">
-        <v>144</v>
+        <v>428</v>
       </c>
       <c r="J7" t="n">
-        <v>145</v>
+        <v>482</v>
       </c>
       <c r="K7" t="n">
-        <v>145</v>
+        <v>532</v>
       </c>
       <c r="L7" t="n">
-        <v>145</v>
+        <v>577</v>
       </c>
       <c r="M7" t="n">
-        <v>145</v>
+        <v>616</v>
       </c>
       <c r="N7" t="n">
-        <v>144</v>
+        <v>649</v>
       </c>
       <c r="O7" t="n">
-        <v>143</v>
+        <v>673</v>
       </c>
       <c r="P7" t="n">
-        <v>142</v>
+        <v>689</v>
       </c>
       <c r="Q7" t="n">
-        <v>139</v>
+        <v>700</v>
       </c>
       <c r="R7" t="n">
-        <v>137</v>
+        <v>706</v>
       </c>
       <c r="S7" t="n">
-        <v>134</v>
+        <v>709</v>
       </c>
       <c r="T7" t="n">
-        <v>130</v>
+        <v>707</v>
       </c>
       <c r="U7" t="n">
-        <v>125</v>
+        <v>703</v>
       </c>
       <c r="V7" t="n">
-        <v>122</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8">
@@ -9329,61 +9329,61 @@
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F8" t="n">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="G8" t="n">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="H8" t="n">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="I8" t="n">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="K8" t="n">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="L8" t="n">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="M8" t="n">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="N8" t="n">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="O8" t="n">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="P8" t="n">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="Q8" t="n">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="R8" t="n">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="S8" t="n">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="T8" t="n">
-        <v>55</v>
+        <v>297</v>
       </c>
       <c r="U8" t="n">
-        <v>54</v>
+        <v>297</v>
       </c>
       <c r="V8" t="n">
-        <v>52</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
@@ -9393,61 +9393,61 @@
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" t="n">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="H9" t="n">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="I9" t="n">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="J9" t="n">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="K9" t="n">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="L9" t="n">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="N9" t="n">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="O9" t="n">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="P9" t="n">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="Q9" t="n">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="R9" t="n">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="S9" t="n">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="T9" t="n">
-        <v>75</v>
+        <v>385</v>
       </c>
       <c r="U9" t="n">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="V9" t="n">
-        <v>73</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10">
@@ -9457,61 +9457,61 @@
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="n">
-        <v>0.9496</v>
+        <v>0.804</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9503</v>
+        <v>0.8144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9537</v>
+        <v>0.8263</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9564</v>
+        <v>0.8277</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9542</v>
+        <v>0.8109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.953</v>
+        <v>0.7997</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9522</v>
+        <v>0.7965</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9516</v>
+        <v>0.7986</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9513</v>
+        <v>0.8049</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9512</v>
+        <v>0.8138</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9512</v>
+        <v>0.8243</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9514</v>
+        <v>0.8349</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9517</v>
+        <v>0.8428</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9521</v>
+        <v>0.8508</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9527</v>
+        <v>0.8587</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9533</v>
+        <v>0.8665</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9542</v>
+        <v>0.874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9551</v>
+        <v>0.8811</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9562</v>
+        <v>0.8878</v>
       </c>
     </row>
     <row r="11">
@@ -9585,7 +9585,7 @@
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="n">
-        <v>0.8798</v>
+        <v>0.8794</v>
       </c>
       <c r="E12" t="n">
         <v>0.9</v>
@@ -9594,52 +9594,52 @@
         <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9199</v>
+        <v>0.9196</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399</v>
+        <v>0.9396</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9436</v>
+        <v>0.9435</v>
       </c>
       <c r="J12" t="n">
         <v>0.9471</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9507</v>
+        <v>0.9506</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9543</v>
+        <v>0.9542</v>
       </c>
       <c r="M12" t="n">
         <v>0.9578</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9614</v>
+        <v>0.9613</v>
       </c>
       <c r="O12" t="n">
-        <v>0.965</v>
+        <v>0.9649</v>
       </c>
       <c r="P12" t="n">
         <v>0.9685</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9721</v>
+        <v>0.972</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9757</v>
+        <v>0.9756</v>
       </c>
       <c r="S12" t="n">
         <v>0.9792</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9828</v>
+        <v>0.9827</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9864</v>
+        <v>0.9863</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9899</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="13">
@@ -9649,61 +9649,61 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="n">
-        <v>0.0634</v>
+        <v>0.0473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0621</v>
+        <v>0.055</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0604</v>
+        <v>0.0602</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0586</v>
+        <v>0.0643</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0566</v>
+        <v>0.0686</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0547</v>
+        <v>0.0733</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0528</v>
+        <v>0.0788</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0511</v>
+        <v>0.0851</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0493</v>
+        <v>0.0919</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0477</v>
+        <v>0.0992</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0461</v>
+        <v>0.1067</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0446</v>
+        <v>0.1144</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0431</v>
+        <v>0.1219</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0416</v>
+        <v>0.1292</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0402</v>
+        <v>0.1362</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0389</v>
+        <v>0.1427</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0375</v>
+        <v>0.1487</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0362</v>
+        <v>0.1541</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0349</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="14">
@@ -9713,61 +9713,61 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>0.0703</v>
+        <v>0.0615</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0708</v>
+        <v>0.0709</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0702</v>
+        <v>0.0774</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0699</v>
+        <v>0.0929</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0691</v>
+        <v>0.1079</v>
       </c>
       <c r="I14" t="n">
-        <v>0.068</v>
+        <v>0.1234</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0668</v>
+        <v>0.1402</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0657</v>
+        <v>0.158</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0646</v>
+        <v>0.1764</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0635</v>
+        <v>0.195</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0623</v>
+        <v>0.2133</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0611</v>
+        <v>0.2311</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06</v>
+        <v>0.248</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0588</v>
+        <v>0.2637</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0576</v>
+        <v>0.2781</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0563</v>
+        <v>0.2911</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0551</v>
+        <v>0.3027</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0538</v>
+        <v>0.3127</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0525</v>
+        <v>0.3212</v>
       </c>
     </row>
     <row r="15">
